--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16999300</v>
+        <v>16759300</v>
       </c>
       <c r="E8" s="3">
-        <v>17395700</v>
+        <v>17150100</v>
       </c>
       <c r="F8" s="3">
-        <v>17506700</v>
+        <v>17259600</v>
       </c>
       <c r="G8" s="3">
-        <v>17438100</v>
+        <v>17191900</v>
       </c>
       <c r="H8" s="3">
-        <v>17180300</v>
+        <v>16937800</v>
       </c>
       <c r="I8" s="3">
-        <v>17040400</v>
+        <v>16799800</v>
       </c>
       <c r="J8" s="3">
-        <v>16471000</v>
+        <v>16238500</v>
       </c>
       <c r="K8" s="3">
         <v>17947900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6149900</v>
+        <v>6063100</v>
       </c>
       <c r="E9" s="3">
-        <v>5611500</v>
+        <v>5532300</v>
       </c>
       <c r="F9" s="3">
-        <v>5162600</v>
+        <v>5089700</v>
       </c>
       <c r="G9" s="3">
-        <v>4877200</v>
+        <v>4808400</v>
       </c>
       <c r="H9" s="3">
-        <v>4622200</v>
+        <v>4556900</v>
       </c>
       <c r="I9" s="3">
-        <v>4371100</v>
+        <v>4309400</v>
       </c>
       <c r="J9" s="3">
-        <v>8523500</v>
+        <v>8403200</v>
       </c>
       <c r="K9" s="3">
         <v>4371600</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10849400</v>
+        <v>10696300</v>
       </c>
       <c r="E10" s="3">
-        <v>11784200</v>
+        <v>11617900</v>
       </c>
       <c r="F10" s="3">
-        <v>12344200</v>
+        <v>12169900</v>
       </c>
       <c r="G10" s="3">
-        <v>12560900</v>
+        <v>12383600</v>
       </c>
       <c r="H10" s="3">
-        <v>12558200</v>
+        <v>12380900</v>
       </c>
       <c r="I10" s="3">
-        <v>12669200</v>
+        <v>12490400</v>
       </c>
       <c r="J10" s="3">
-        <v>7947500</v>
+        <v>7835300</v>
       </c>
       <c r="K10" s="3">
         <v>13576200</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1021600</v>
+        <v>1007200</v>
       </c>
       <c r="E14" s="3">
-        <v>558600</v>
+        <v>550700</v>
       </c>
       <c r="F14" s="3">
-        <v>367500</v>
+        <v>362300</v>
       </c>
       <c r="G14" s="3">
-        <v>299500</v>
+        <v>295300</v>
       </c>
       <c r="H14" s="3">
-        <v>104300</v>
+        <v>102800</v>
       </c>
       <c r="I14" s="3">
-        <v>189100</v>
+        <v>186400</v>
       </c>
       <c r="J14" s="3">
-        <v>245600</v>
+        <v>242200</v>
       </c>
       <c r="K14" s="3">
         <v>140100</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2881800</v>
+        <v>2841100</v>
       </c>
       <c r="E15" s="3">
-        <v>3008300</v>
+        <v>2965800</v>
       </c>
       <c r="F15" s="3">
-        <v>2988800</v>
+        <v>2946600</v>
       </c>
       <c r="G15" s="3">
-        <v>2796300</v>
+        <v>2756800</v>
       </c>
       <c r="H15" s="3">
-        <v>2674500</v>
+        <v>2636700</v>
       </c>
       <c r="I15" s="3">
-        <v>2658400</v>
+        <v>2620800</v>
       </c>
       <c r="J15" s="3">
-        <v>5596700</v>
+        <v>5517700</v>
       </c>
       <c r="K15" s="3">
         <v>3121500</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16222000</v>
+        <v>15993000</v>
       </c>
       <c r="E17" s="3">
-        <v>15338300</v>
+        <v>15121800</v>
       </c>
       <c r="F17" s="3">
-        <v>14785100</v>
+        <v>14576400</v>
       </c>
       <c r="G17" s="3">
-        <v>13956000</v>
+        <v>13759000</v>
       </c>
       <c r="H17" s="3">
-        <v>13160500</v>
+        <v>12974700</v>
       </c>
       <c r="I17" s="3">
-        <v>12861700</v>
+        <v>12680100</v>
       </c>
       <c r="J17" s="3">
-        <v>12570300</v>
+        <v>12392900</v>
       </c>
       <c r="K17" s="3">
         <v>13920800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>777300</v>
+        <v>766300</v>
       </c>
       <c r="E18" s="3">
-        <v>2057400</v>
+        <v>2028300</v>
       </c>
       <c r="F18" s="3">
-        <v>2721600</v>
+        <v>2683200</v>
       </c>
       <c r="G18" s="3">
-        <v>3482100</v>
+        <v>3432900</v>
       </c>
       <c r="H18" s="3">
-        <v>4019800</v>
+        <v>3963100</v>
       </c>
       <c r="I18" s="3">
-        <v>4178700</v>
+        <v>4119700</v>
       </c>
       <c r="J18" s="3">
-        <v>3900700</v>
+        <v>3845600</v>
       </c>
       <c r="K18" s="3">
         <v>4027100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1752500</v>
+        <v>1727800</v>
       </c>
       <c r="E20" s="3">
-        <v>1856100</v>
+        <v>1829900</v>
       </c>
       <c r="F20" s="3">
-        <v>1576200</v>
+        <v>1553900</v>
       </c>
       <c r="G20" s="3">
-        <v>832500</v>
+        <v>820700</v>
       </c>
       <c r="H20" s="3">
-        <v>469800</v>
+        <v>463100</v>
       </c>
       <c r="I20" s="3">
-        <v>620500</v>
+        <v>611700</v>
       </c>
       <c r="J20" s="3">
-        <v>205300</v>
+        <v>202400</v>
       </c>
       <c r="K20" s="3">
         <v>191700</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5418000</v>
+        <v>5328800</v>
       </c>
       <c r="E21" s="3">
-        <v>6928500</v>
+        <v>6817400</v>
       </c>
       <c r="F21" s="3">
-        <v>7293200</v>
+        <v>7177100</v>
       </c>
       <c r="G21" s="3">
-        <v>7123900</v>
+        <v>7010900</v>
       </c>
       <c r="H21" s="3">
-        <v>7176100</v>
+        <v>7063000</v>
       </c>
       <c r="I21" s="3">
-        <v>7525500</v>
+        <v>7407200</v>
       </c>
       <c r="J21" s="3">
-        <v>6964500</v>
+        <v>6853600</v>
       </c>
       <c r="K21" s="3">
         <v>7344300</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>462400</v>
+        <v>455800</v>
       </c>
       <c r="E22" s="3">
-        <v>454900</v>
+        <v>448500</v>
       </c>
       <c r="F22" s="3">
-        <v>497300</v>
+        <v>490300</v>
       </c>
       <c r="G22" s="3">
-        <v>545800</v>
+        <v>538100</v>
       </c>
       <c r="H22" s="3">
-        <v>545800</v>
+        <v>538100</v>
       </c>
       <c r="I22" s="3">
-        <v>607700</v>
+        <v>599100</v>
       </c>
       <c r="J22" s="3">
-        <v>635300</v>
+        <v>626300</v>
       </c>
       <c r="K22" s="3">
         <v>728000</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2067500</v>
+        <v>2038300</v>
       </c>
       <c r="E23" s="3">
-        <v>3458500</v>
+        <v>3409700</v>
       </c>
       <c r="F23" s="3">
-        <v>3800400</v>
+        <v>3746800</v>
       </c>
       <c r="G23" s="3">
-        <v>3768800</v>
+        <v>3715600</v>
       </c>
       <c r="H23" s="3">
-        <v>3943800</v>
+        <v>3888100</v>
       </c>
       <c r="I23" s="3">
-        <v>4191400</v>
+        <v>4132300</v>
       </c>
       <c r="J23" s="3">
-        <v>3470700</v>
+        <v>3421700</v>
       </c>
       <c r="K23" s="3">
         <v>3490800</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>621200</v>
+        <v>612400</v>
       </c>
       <c r="E24" s="3">
-        <v>1064700</v>
+        <v>1049700</v>
       </c>
       <c r="F24" s="3">
-        <v>1193200</v>
+        <v>1176400</v>
       </c>
       <c r="G24" s="3">
-        <v>1189900</v>
+        <v>1173100</v>
       </c>
       <c r="H24" s="3">
-        <v>1175100</v>
+        <v>1158500</v>
       </c>
       <c r="I24" s="3">
-        <v>1130000</v>
+        <v>1114000</v>
       </c>
       <c r="J24" s="3">
-        <v>1020900</v>
+        <v>1006500</v>
       </c>
       <c r="K24" s="3">
         <v>1068300</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1446300</v>
+        <v>1425900</v>
       </c>
       <c r="E26" s="3">
-        <v>2393900</v>
+        <v>2360100</v>
       </c>
       <c r="F26" s="3">
-        <v>2607200</v>
+        <v>2570400</v>
       </c>
       <c r="G26" s="3">
-        <v>2578900</v>
+        <v>2542500</v>
       </c>
       <c r="H26" s="3">
-        <v>2768700</v>
+        <v>2729600</v>
       </c>
       <c r="I26" s="3">
-        <v>3061500</v>
+        <v>3018300</v>
       </c>
       <c r="J26" s="3">
-        <v>2449700</v>
+        <v>2415100</v>
       </c>
       <c r="K26" s="3">
         <v>2422500</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1449600</v>
+        <v>1429200</v>
       </c>
       <c r="E27" s="3">
-        <v>2416700</v>
+        <v>2382600</v>
       </c>
       <c r="F27" s="3">
-        <v>2618600</v>
+        <v>2581700</v>
       </c>
       <c r="G27" s="3">
-        <v>2532500</v>
+        <v>2496800</v>
       </c>
       <c r="H27" s="3">
-        <v>2718900</v>
+        <v>2680500</v>
       </c>
       <c r="I27" s="3">
-        <v>3014400</v>
+        <v>2971800</v>
       </c>
       <c r="J27" s="3">
-        <v>2414700</v>
+        <v>2380600</v>
       </c>
       <c r="K27" s="3">
         <v>2409000</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1357400</v>
+        <v>1338300</v>
       </c>
       <c r="H29" s="3">
-        <v>128500</v>
+        <v>126700</v>
       </c>
       <c r="I29" s="3">
-        <v>-137300</v>
+        <v>-135400</v>
       </c>
       <c r="J29" s="3">
-        <v>101600</v>
+        <v>100200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1752500</v>
+        <v>-1727800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1856100</v>
+        <v>-1829900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1576200</v>
+        <v>-1553900</v>
       </c>
       <c r="G32" s="3">
-        <v>-832500</v>
+        <v>-820700</v>
       </c>
       <c r="H32" s="3">
-        <v>-469800</v>
+        <v>-463100</v>
       </c>
       <c r="I32" s="3">
-        <v>-620500</v>
+        <v>-611700</v>
       </c>
       <c r="J32" s="3">
-        <v>-205300</v>
+        <v>-202400</v>
       </c>
       <c r="K32" s="3">
         <v>-191700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1449600</v>
+        <v>1429200</v>
       </c>
       <c r="E33" s="3">
-        <v>2416700</v>
+        <v>2382600</v>
       </c>
       <c r="F33" s="3">
-        <v>2618600</v>
+        <v>2581700</v>
       </c>
       <c r="G33" s="3">
-        <v>3889900</v>
+        <v>3835000</v>
       </c>
       <c r="H33" s="3">
-        <v>2847500</v>
+        <v>2807300</v>
       </c>
       <c r="I33" s="3">
-        <v>2877100</v>
+        <v>2836500</v>
       </c>
       <c r="J33" s="3">
-        <v>2516300</v>
+        <v>2480800</v>
       </c>
       <c r="K33" s="3">
         <v>2409000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1449600</v>
+        <v>1429200</v>
       </c>
       <c r="E35" s="3">
-        <v>2416700</v>
+        <v>2382600</v>
       </c>
       <c r="F35" s="3">
-        <v>2618600</v>
+        <v>2581700</v>
       </c>
       <c r="G35" s="3">
-        <v>3889900</v>
+        <v>3835000</v>
       </c>
       <c r="H35" s="3">
-        <v>2847500</v>
+        <v>2807300</v>
       </c>
       <c r="I35" s="3">
-        <v>2877100</v>
+        <v>2836500</v>
       </c>
       <c r="J35" s="3">
-        <v>2516300</v>
+        <v>2480800</v>
       </c>
       <c r="K35" s="3">
         <v>2409000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147400</v>
+        <v>146000</v>
       </c>
       <c r="E41" s="3">
-        <v>86800</v>
+        <v>86000</v>
       </c>
       <c r="F41" s="3">
-        <v>774000</v>
+        <v>766600</v>
       </c>
       <c r="G41" s="3">
-        <v>181000</v>
+        <v>179300</v>
       </c>
       <c r="H41" s="3">
-        <v>391000</v>
+        <v>387300</v>
       </c>
       <c r="I41" s="3">
-        <v>205300</v>
+        <v>203300</v>
       </c>
       <c r="J41" s="3">
-        <v>198500</v>
+        <v>196600</v>
       </c>
       <c r="K41" s="3">
         <v>256100</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259100</v>
+        <v>256600</v>
       </c>
       <c r="E42" s="3">
-        <v>336500</v>
+        <v>333300</v>
       </c>
       <c r="F42" s="3">
-        <v>488600</v>
+        <v>484000</v>
       </c>
       <c r="G42" s="3">
-        <v>2208100</v>
+        <v>2187100</v>
       </c>
       <c r="H42" s="3">
-        <v>548500</v>
+        <v>543300</v>
       </c>
       <c r="I42" s="3">
-        <v>3514400</v>
+        <v>3481000</v>
       </c>
       <c r="J42" s="3">
-        <v>1469800</v>
+        <v>1455900</v>
       </c>
       <c r="K42" s="3">
         <v>2535000</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3633500</v>
+        <v>3599000</v>
       </c>
       <c r="E43" s="3">
-        <v>5812700</v>
+        <v>5757400</v>
       </c>
       <c r="F43" s="3">
-        <v>7785900</v>
+        <v>7711900</v>
       </c>
       <c r="G43" s="3">
-        <v>3193400</v>
+        <v>3163000</v>
       </c>
       <c r="H43" s="3">
-        <v>3183300</v>
+        <v>3153000</v>
       </c>
       <c r="I43" s="3">
-        <v>2809100</v>
+        <v>2782400</v>
       </c>
       <c r="J43" s="3">
-        <v>3120000</v>
+        <v>3090400</v>
       </c>
       <c r="K43" s="3">
         <v>3331600</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>301500</v>
+        <v>298600</v>
       </c>
       <c r="E44" s="3">
-        <v>331100</v>
+        <v>328000</v>
       </c>
       <c r="F44" s="3">
-        <v>916600</v>
+        <v>907900</v>
       </c>
       <c r="G44" s="3">
-        <v>374900</v>
+        <v>371300</v>
       </c>
       <c r="H44" s="3">
-        <v>330400</v>
+        <v>327300</v>
       </c>
       <c r="I44" s="3">
-        <v>243600</v>
+        <v>241300</v>
       </c>
       <c r="J44" s="3">
-        <v>290100</v>
+        <v>287300</v>
       </c>
       <c r="K44" s="3">
         <v>184000</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>573400</v>
+        <v>567900</v>
       </c>
       <c r="E45" s="3">
-        <v>387000</v>
+        <v>383300</v>
       </c>
       <c r="F45" s="3">
-        <v>362700</v>
+        <v>359300</v>
       </c>
       <c r="G45" s="3">
-        <v>328400</v>
+        <v>325300</v>
       </c>
       <c r="H45" s="3">
-        <v>237600</v>
+        <v>235300</v>
       </c>
       <c r="I45" s="3">
-        <v>252400</v>
+        <v>250000</v>
       </c>
       <c r="J45" s="3">
-        <v>240300</v>
+        <v>238000</v>
       </c>
       <c r="K45" s="3">
         <v>733000</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4914900</v>
+        <v>4868200</v>
       </c>
       <c r="E46" s="3">
-        <v>4906200</v>
+        <v>4859500</v>
       </c>
       <c r="F46" s="3">
-        <v>5415600</v>
+        <v>5364100</v>
       </c>
       <c r="G46" s="3">
-        <v>6285800</v>
+        <v>6226000</v>
       </c>
       <c r="H46" s="3">
-        <v>4690800</v>
+        <v>4646200</v>
       </c>
       <c r="I46" s="3">
-        <v>7024800</v>
+        <v>6958000</v>
       </c>
       <c r="J46" s="3">
-        <v>5318700</v>
+        <v>5268100</v>
       </c>
       <c r="K46" s="3">
         <v>7039600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1415300</v>
+        <v>1401900</v>
       </c>
       <c r="E47" s="3">
-        <v>1348000</v>
+        <v>1335200</v>
       </c>
       <c r="F47" s="3">
-        <v>1679800</v>
+        <v>1663800</v>
       </c>
       <c r="G47" s="3">
-        <v>1250400</v>
+        <v>1238500</v>
       </c>
       <c r="H47" s="3">
-        <v>1015600</v>
+        <v>1005900</v>
       </c>
       <c r="I47" s="3">
-        <v>872200</v>
+        <v>863900</v>
       </c>
       <c r="J47" s="3">
-        <v>672300</v>
+        <v>665900</v>
       </c>
       <c r="K47" s="3">
         <v>680600</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15029400</v>
+        <v>14886500</v>
       </c>
       <c r="E48" s="3">
-        <v>14878700</v>
+        <v>14737200</v>
       </c>
       <c r="F48" s="3">
-        <v>28737100</v>
+        <v>28463800</v>
       </c>
       <c r="G48" s="3">
-        <v>13851000</v>
+        <v>13719300</v>
       </c>
       <c r="H48" s="3">
-        <v>13762900</v>
+        <v>13632000</v>
       </c>
       <c r="I48" s="3">
-        <v>13353700</v>
+        <v>13226700</v>
       </c>
       <c r="J48" s="3">
-        <v>13679400</v>
+        <v>13549300</v>
       </c>
       <c r="K48" s="3">
         <v>14695500</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4852300</v>
+        <v>4806200</v>
       </c>
       <c r="E49" s="3">
-        <v>6178100</v>
+        <v>6119400</v>
       </c>
       <c r="F49" s="3">
-        <v>12029900</v>
+        <v>11915500</v>
       </c>
       <c r="G49" s="3">
-        <v>6211100</v>
+        <v>6152100</v>
       </c>
       <c r="H49" s="3">
-        <v>6427200</v>
+        <v>6366000</v>
       </c>
       <c r="I49" s="3">
-        <v>4295100</v>
+        <v>4254200</v>
       </c>
       <c r="J49" s="3">
-        <v>4544100</v>
+        <v>4500900</v>
       </c>
       <c r="K49" s="3">
         <v>5252500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2450400</v>
+        <v>2427100</v>
       </c>
       <c r="E52" s="3">
-        <v>2288200</v>
+        <v>2266400</v>
       </c>
       <c r="F52" s="3">
-        <v>1908000</v>
+        <v>1889800</v>
       </c>
       <c r="G52" s="3">
-        <v>1533100</v>
+        <v>1518500</v>
       </c>
       <c r="H52" s="3">
-        <v>1469800</v>
+        <v>1455900</v>
       </c>
       <c r="I52" s="3">
-        <v>943500</v>
+        <v>934600</v>
       </c>
       <c r="J52" s="3">
-        <v>1714100</v>
+        <v>1697800</v>
       </c>
       <c r="K52" s="3">
         <v>1396600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28662400</v>
+        <v>28389800</v>
       </c>
       <c r="E54" s="3">
-        <v>28752600</v>
+        <v>28479200</v>
       </c>
       <c r="F54" s="3">
-        <v>28270000</v>
+        <v>28001200</v>
       </c>
       <c r="G54" s="3">
-        <v>29131500</v>
+        <v>28854400</v>
       </c>
       <c r="H54" s="3">
-        <v>27219500</v>
+        <v>26960600</v>
       </c>
       <c r="I54" s="3">
-        <v>26489300</v>
+        <v>26237400</v>
       </c>
       <c r="J54" s="3">
-        <v>25928700</v>
+        <v>25682100</v>
       </c>
       <c r="K54" s="3">
         <v>27963900</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>571400</v>
+        <v>565900</v>
       </c>
       <c r="E57" s="3">
-        <v>1068700</v>
+        <v>1058600</v>
       </c>
       <c r="F57" s="3">
-        <v>3451800</v>
+        <v>3419000</v>
       </c>
       <c r="G57" s="3">
-        <v>985900</v>
+        <v>976600</v>
       </c>
       <c r="H57" s="3">
-        <v>845300</v>
+        <v>837200</v>
       </c>
       <c r="I57" s="3">
-        <v>783400</v>
+        <v>775900</v>
       </c>
       <c r="J57" s="3">
-        <v>872900</v>
+        <v>864600</v>
       </c>
       <c r="K57" s="3">
         <v>868800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1495400</v>
+        <v>1481200</v>
       </c>
       <c r="E58" s="3">
-        <v>1100400</v>
+        <v>1089900</v>
       </c>
       <c r="F58" s="3">
-        <v>3332700</v>
+        <v>3301000</v>
       </c>
       <c r="G58" s="3">
-        <v>1786800</v>
+        <v>1769800</v>
       </c>
       <c r="H58" s="3">
-        <v>1006800</v>
+        <v>997200</v>
       </c>
       <c r="I58" s="3">
-        <v>1532400</v>
+        <v>1517800</v>
       </c>
       <c r="J58" s="3">
-        <v>505400</v>
+        <v>500600</v>
       </c>
       <c r="K58" s="3">
         <v>2339000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4362400</v>
+        <v>4320900</v>
       </c>
       <c r="E59" s="3">
-        <v>4569000</v>
+        <v>4525500</v>
       </c>
       <c r="F59" s="3">
-        <v>4644400</v>
+        <v>4600200</v>
       </c>
       <c r="G59" s="3">
-        <v>3410800</v>
+        <v>3378300</v>
       </c>
       <c r="H59" s="3">
-        <v>3703500</v>
+        <v>3668300</v>
       </c>
       <c r="I59" s="3">
-        <v>3528500</v>
+        <v>3495000</v>
       </c>
       <c r="J59" s="3">
-        <v>3684000</v>
+        <v>3649000</v>
       </c>
       <c r="K59" s="3">
         <v>5017600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6429200</v>
+        <v>6368000</v>
       </c>
       <c r="E60" s="3">
-        <v>5912300</v>
+        <v>5856100</v>
       </c>
       <c r="F60" s="3">
-        <v>6111500</v>
+        <v>6053400</v>
       </c>
       <c r="G60" s="3">
-        <v>6183500</v>
+        <v>6124700</v>
       </c>
       <c r="H60" s="3">
-        <v>5470800</v>
+        <v>5418800</v>
       </c>
       <c r="I60" s="3">
-        <v>5844300</v>
+        <v>5788800</v>
       </c>
       <c r="J60" s="3">
-        <v>5062300</v>
+        <v>5014200</v>
       </c>
       <c r="K60" s="3">
         <v>7558900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10115900</v>
+        <v>10019700</v>
       </c>
       <c r="E61" s="3">
-        <v>10307700</v>
+        <v>10209600</v>
       </c>
       <c r="F61" s="3">
-        <v>9965800</v>
+        <v>9871000</v>
       </c>
       <c r="G61" s="3">
-        <v>9857400</v>
+        <v>9763700</v>
       </c>
       <c r="H61" s="3">
-        <v>9514900</v>
+        <v>9424400</v>
       </c>
       <c r="I61" s="3">
-        <v>9117100</v>
+        <v>9030400</v>
       </c>
       <c r="J61" s="3">
-        <v>9632600</v>
+        <v>9541000</v>
       </c>
       <c r="K61" s="3">
         <v>8460300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2338700</v>
+        <v>2316400</v>
       </c>
       <c r="E62" s="3">
-        <v>3577000</v>
+        <v>3543000</v>
       </c>
       <c r="F62" s="3">
-        <v>3450500</v>
+        <v>3417700</v>
       </c>
       <c r="G62" s="3">
-        <v>2385100</v>
+        <v>2362400</v>
       </c>
       <c r="H62" s="3">
-        <v>2560800</v>
+        <v>2536400</v>
       </c>
       <c r="I62" s="3">
-        <v>2132700</v>
+        <v>2112500</v>
       </c>
       <c r="J62" s="3">
-        <v>2568800</v>
+        <v>2544400</v>
       </c>
       <c r="K62" s="3">
         <v>3861500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18870900</v>
+        <v>18691500</v>
       </c>
       <c r="E66" s="3">
-        <v>18905200</v>
+        <v>18725500</v>
       </c>
       <c r="F66" s="3">
-        <v>18759200</v>
+        <v>18580800</v>
       </c>
       <c r="G66" s="3">
-        <v>18450300</v>
+        <v>18274800</v>
       </c>
       <c r="H66" s="3">
-        <v>17728200</v>
+        <v>17559600</v>
       </c>
       <c r="I66" s="3">
-        <v>17187100</v>
+        <v>17023600</v>
       </c>
       <c r="J66" s="3">
-        <v>17441500</v>
+        <v>17275600</v>
       </c>
       <c r="K66" s="3">
         <v>19841800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6833000</v>
+        <v>6768000</v>
       </c>
       <c r="E72" s="3">
-        <v>6950700</v>
+        <v>6884600</v>
       </c>
       <c r="F72" s="3">
-        <v>6532800</v>
+        <v>6470700</v>
       </c>
       <c r="G72" s="3">
-        <v>7160700</v>
+        <v>7092600</v>
       </c>
       <c r="H72" s="3">
-        <v>5950700</v>
+        <v>5894100</v>
       </c>
       <c r="I72" s="3">
-        <v>5593300</v>
+        <v>5540100</v>
       </c>
       <c r="J72" s="3">
-        <v>5041400</v>
+        <v>4993500</v>
       </c>
       <c r="K72" s="3">
         <v>4728200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9791500</v>
+        <v>9698400</v>
       </c>
       <c r="E76" s="3">
-        <v>9847300</v>
+        <v>9753700</v>
       </c>
       <c r="F76" s="3">
-        <v>9510800</v>
+        <v>9420400</v>
       </c>
       <c r="G76" s="3">
-        <v>10681200</v>
+        <v>10579600</v>
       </c>
       <c r="H76" s="3">
-        <v>9491300</v>
+        <v>9401100</v>
       </c>
       <c r="I76" s="3">
-        <v>9302200</v>
+        <v>9213700</v>
       </c>
       <c r="J76" s="3">
-        <v>8487200</v>
+        <v>8406500</v>
       </c>
       <c r="K76" s="3">
         <v>8122100</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1449600</v>
+        <v>1429200</v>
       </c>
       <c r="E81" s="3">
-        <v>2416700</v>
+        <v>2382600</v>
       </c>
       <c r="F81" s="3">
-        <v>2618600</v>
+        <v>2581700</v>
       </c>
       <c r="G81" s="3">
-        <v>3889900</v>
+        <v>3835000</v>
       </c>
       <c r="H81" s="3">
-        <v>2847500</v>
+        <v>2807300</v>
       </c>
       <c r="I81" s="3">
-        <v>2877100</v>
+        <v>2836500</v>
       </c>
       <c r="J81" s="3">
-        <v>2516300</v>
+        <v>2480800</v>
       </c>
       <c r="K81" s="3">
         <v>2409000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2881800</v>
+        <v>2841100</v>
       </c>
       <c r="E83" s="3">
-        <v>3008300</v>
+        <v>2965800</v>
       </c>
       <c r="F83" s="3">
-        <v>2988800</v>
+        <v>2946600</v>
       </c>
       <c r="G83" s="3">
-        <v>2803000</v>
+        <v>2763500</v>
       </c>
       <c r="H83" s="3">
-        <v>2680600</v>
+        <v>2642700</v>
       </c>
       <c r="I83" s="3">
-        <v>2720300</v>
+        <v>2681900</v>
       </c>
       <c r="J83" s="3">
-        <v>2852200</v>
+        <v>2811900</v>
       </c>
       <c r="K83" s="3">
         <v>3121500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4497700</v>
+        <v>4434200</v>
       </c>
       <c r="E89" s="3">
-        <v>5791800</v>
+        <v>5710100</v>
       </c>
       <c r="F89" s="3">
-        <v>5232600</v>
+        <v>5158700</v>
       </c>
       <c r="G89" s="3">
-        <v>5473500</v>
+        <v>5396200</v>
       </c>
       <c r="H89" s="3">
-        <v>5593300</v>
+        <v>5514300</v>
       </c>
       <c r="I89" s="3">
-        <v>5796500</v>
+        <v>5714700</v>
       </c>
       <c r="J89" s="3">
-        <v>5625600</v>
+        <v>5546200</v>
       </c>
       <c r="K89" s="3">
         <v>6562800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2177200</v>
+        <v>-2146400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2403300</v>
+        <v>-2369400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2506900</v>
+        <v>-2471500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2053300</v>
+        <v>-2024300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1914700</v>
+        <v>-1887700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1930200</v>
+        <v>-1902900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1896500</v>
+        <v>-1869700</v>
       </c>
       <c r="K91" s="3">
         <v>-2126700</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2432900</v>
+        <v>-2398600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2632100</v>
+        <v>-2594900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2879800</v>
+        <v>-2839100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1485300</v>
+        <v>-1464300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3830700</v>
+        <v>-3776600</v>
       </c>
       <c r="I94" s="3">
-        <v>-760500</v>
+        <v>-749800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2244500</v>
+        <v>-2212800</v>
       </c>
       <c r="K94" s="3">
         <v>-2885900</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1520300</v>
+        <v>-1498800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2120000</v>
+        <v>-2090000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2514300</v>
+        <v>-2478800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2548700</v>
+        <v>-2512700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2489400</v>
+        <v>-2454300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2385800</v>
+        <v>-2352100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2342000</v>
+        <v>-2309000</v>
       </c>
       <c r="K96" s="3">
         <v>-2458600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2078200</v>
+        <v>-2048900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3375100</v>
+        <v>-3327500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4108000</v>
+        <v>-4050000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2541900</v>
+        <v>-2506000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4631600</v>
+        <v>-4566200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2981400</v>
+        <v>-2939300</v>
       </c>
       <c r="J100" s="3">
-        <v>-4392000</v>
+        <v>-4330000</v>
       </c>
       <c r="K100" s="3">
         <v>-2763500</v>
@@ -3224,16 +3224,16 @@
         <v>-4000</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
-        <v>88800</v>
+        <v>87600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J101" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="K101" s="3">
         <v>12000</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="E102" s="3">
-        <v>-212700</v>
+        <v>-209700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1759200</v>
+        <v>-1734400</v>
       </c>
       <c r="G102" s="3">
-        <v>1449600</v>
+        <v>1429200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2780200</v>
+        <v>-2740900</v>
       </c>
       <c r="I102" s="3">
-        <v>2051300</v>
+        <v>2022300</v>
       </c>
       <c r="J102" s="3">
-        <v>-986600</v>
+        <v>-972700</v>
       </c>
       <c r="K102" s="3">
         <v>925400</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16759300</v>
+        <v>17144700</v>
       </c>
       <c r="E8" s="3">
-        <v>17150100</v>
+        <v>18264800</v>
       </c>
       <c r="F8" s="3">
-        <v>17259600</v>
+        <v>18690700</v>
       </c>
       <c r="G8" s="3">
-        <v>17191900</v>
+        <v>18810000</v>
       </c>
       <c r="H8" s="3">
-        <v>16937800</v>
+        <v>18736200</v>
       </c>
       <c r="I8" s="3">
-        <v>16799800</v>
+        <v>18459300</v>
       </c>
       <c r="J8" s="3">
+        <v>18308900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16238500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17947900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6063100</v>
+        <v>6585300</v>
       </c>
       <c r="E9" s="3">
-        <v>5532300</v>
+        <v>6607700</v>
       </c>
       <c r="F9" s="3">
-        <v>5089700</v>
+        <v>6029200</v>
       </c>
       <c r="G9" s="3">
-        <v>4808400</v>
+        <v>5546900</v>
       </c>
       <c r="H9" s="3">
-        <v>4556900</v>
+        <v>5240300</v>
       </c>
       <c r="I9" s="3">
-        <v>4309400</v>
+        <v>4966300</v>
       </c>
       <c r="J9" s="3">
+        <v>4696500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8403200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4371600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10696300</v>
+        <v>10559400</v>
       </c>
       <c r="E10" s="3">
-        <v>11617900</v>
+        <v>11657100</v>
       </c>
       <c r="F10" s="3">
-        <v>12169900</v>
+        <v>12661500</v>
       </c>
       <c r="G10" s="3">
-        <v>12383600</v>
+        <v>13263100</v>
       </c>
       <c r="H10" s="3">
-        <v>12380900</v>
+        <v>13495900</v>
       </c>
       <c r="I10" s="3">
-        <v>12490400</v>
+        <v>13493000</v>
       </c>
       <c r="J10" s="3">
+        <v>13612400</v>
+      </c>
+      <c r="K10" s="3">
         <v>7835300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13576200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1007200</v>
+        <v>751300</v>
       </c>
       <c r="E14" s="3">
-        <v>550700</v>
+        <v>1097700</v>
       </c>
       <c r="F14" s="3">
-        <v>362300</v>
+        <v>600200</v>
       </c>
       <c r="G14" s="3">
-        <v>295300</v>
+        <v>394800</v>
       </c>
       <c r="H14" s="3">
-        <v>102800</v>
+        <v>321800</v>
       </c>
       <c r="I14" s="3">
-        <v>186400</v>
+        <v>112100</v>
       </c>
       <c r="J14" s="3">
+        <v>203200</v>
+      </c>
+      <c r="K14" s="3">
         <v>242200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>140100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2841100</v>
+        <v>3859900</v>
       </c>
       <c r="E15" s="3">
-        <v>2965800</v>
+        <v>3096300</v>
       </c>
       <c r="F15" s="3">
-        <v>2946600</v>
+        <v>3232300</v>
       </c>
       <c r="G15" s="3">
-        <v>2756800</v>
+        <v>3211300</v>
       </c>
       <c r="H15" s="3">
-        <v>2636700</v>
+        <v>3004500</v>
       </c>
       <c r="I15" s="3">
-        <v>2620800</v>
+        <v>2873600</v>
       </c>
       <c r="J15" s="3">
+        <v>2856200</v>
+      </c>
+      <c r="K15" s="3">
         <v>5517700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3121500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15993000</v>
+        <v>16328300</v>
       </c>
       <c r="E17" s="3">
-        <v>15121800</v>
+        <v>17429600</v>
       </c>
       <c r="F17" s="3">
-        <v>14576400</v>
+        <v>16480200</v>
       </c>
       <c r="G17" s="3">
-        <v>13759000</v>
+        <v>15885800</v>
       </c>
       <c r="H17" s="3">
-        <v>12974700</v>
+        <v>14994900</v>
       </c>
       <c r="I17" s="3">
-        <v>12680100</v>
+        <v>14140200</v>
       </c>
       <c r="J17" s="3">
+        <v>13819200</v>
+      </c>
+      <c r="K17" s="3">
         <v>12392900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13920800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>766300</v>
+        <v>816400</v>
       </c>
       <c r="E18" s="3">
-        <v>2028300</v>
+        <v>835200</v>
       </c>
       <c r="F18" s="3">
-        <v>2683200</v>
+        <v>2210500</v>
       </c>
       <c r="G18" s="3">
-        <v>3432900</v>
+        <v>2924200</v>
       </c>
       <c r="H18" s="3">
-        <v>3963100</v>
+        <v>3741300</v>
       </c>
       <c r="I18" s="3">
-        <v>4119700</v>
+        <v>4319100</v>
       </c>
       <c r="J18" s="3">
+        <v>4489700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3845600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4027100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1727800</v>
+        <v>1733300</v>
       </c>
       <c r="E20" s="3">
-        <v>1829900</v>
+        <v>1883000</v>
       </c>
       <c r="F20" s="3">
-        <v>1553900</v>
+        <v>1994300</v>
       </c>
       <c r="G20" s="3">
-        <v>820700</v>
+        <v>1693500</v>
       </c>
       <c r="H20" s="3">
-        <v>463100</v>
+        <v>894500</v>
       </c>
       <c r="I20" s="3">
-        <v>611700</v>
+        <v>504700</v>
       </c>
       <c r="J20" s="3">
+        <v>666700</v>
+      </c>
+      <c r="K20" s="3">
         <v>202400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>191700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5328800</v>
+        <v>6389800</v>
       </c>
       <c r="E21" s="3">
-        <v>6817400</v>
+        <v>5798600</v>
       </c>
       <c r="F21" s="3">
-        <v>7177100</v>
+        <v>7420500</v>
       </c>
       <c r="G21" s="3">
-        <v>7010900</v>
+        <v>7812600</v>
       </c>
       <c r="H21" s="3">
-        <v>7063000</v>
+        <v>7632100</v>
       </c>
       <c r="I21" s="3">
-        <v>7407200</v>
+        <v>7689200</v>
       </c>
       <c r="J21" s="3">
+        <v>8064200</v>
+      </c>
+      <c r="K21" s="3">
         <v>6853600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7344300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>455800</v>
+        <v>527900</v>
       </c>
       <c r="E22" s="3">
-        <v>448500</v>
+        <v>496800</v>
       </c>
       <c r="F22" s="3">
-        <v>490300</v>
+        <v>488800</v>
       </c>
       <c r="G22" s="3">
-        <v>538100</v>
+        <v>534400</v>
       </c>
       <c r="H22" s="3">
-        <v>538100</v>
+        <v>586400</v>
       </c>
       <c r="I22" s="3">
-        <v>599100</v>
+        <v>586400</v>
       </c>
       <c r="J22" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K22" s="3">
         <v>626300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>728000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2038300</v>
+        <v>2021800</v>
       </c>
       <c r="E23" s="3">
-        <v>3409700</v>
+        <v>2221400</v>
       </c>
       <c r="F23" s="3">
-        <v>3746800</v>
+        <v>3716000</v>
       </c>
       <c r="G23" s="3">
-        <v>3715600</v>
+        <v>4083300</v>
       </c>
       <c r="H23" s="3">
-        <v>3888100</v>
+        <v>4049400</v>
       </c>
       <c r="I23" s="3">
-        <v>4132300</v>
+        <v>4237400</v>
       </c>
       <c r="J23" s="3">
+        <v>4503500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3421700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3490800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>612400</v>
+        <v>692000</v>
       </c>
       <c r="E24" s="3">
-        <v>1049700</v>
+        <v>667400</v>
       </c>
       <c r="F24" s="3">
-        <v>1176400</v>
+        <v>1143900</v>
       </c>
       <c r="G24" s="3">
-        <v>1173100</v>
+        <v>1282100</v>
       </c>
       <c r="H24" s="3">
-        <v>1158500</v>
+        <v>1278400</v>
       </c>
       <c r="I24" s="3">
-        <v>1114000</v>
+        <v>1262500</v>
       </c>
       <c r="J24" s="3">
+        <v>1214100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1006500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1068300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1425900</v>
+        <v>1329800</v>
       </c>
       <c r="E26" s="3">
-        <v>2360100</v>
+        <v>1553900</v>
       </c>
       <c r="F26" s="3">
-        <v>2570400</v>
+        <v>2572100</v>
       </c>
       <c r="G26" s="3">
-        <v>2542500</v>
+        <v>2801300</v>
       </c>
       <c r="H26" s="3">
-        <v>2729600</v>
+        <v>2770900</v>
       </c>
       <c r="I26" s="3">
-        <v>3018300</v>
+        <v>2974800</v>
       </c>
       <c r="J26" s="3">
+        <v>3289400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2415100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2422500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1429200</v>
+        <v>1315300</v>
       </c>
       <c r="E27" s="3">
-        <v>2382600</v>
+        <v>1557600</v>
       </c>
       <c r="F27" s="3">
-        <v>2581700</v>
+        <v>2596700</v>
       </c>
       <c r="G27" s="3">
-        <v>2496800</v>
+        <v>2813600</v>
       </c>
       <c r="H27" s="3">
-        <v>2680500</v>
+        <v>2721000</v>
       </c>
       <c r="I27" s="3">
-        <v>2971800</v>
+        <v>2921300</v>
       </c>
       <c r="J27" s="3">
+        <v>3238800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2380600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2409000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,27 +1358,30 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>1338300</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>126700</v>
+        <v>1458500</v>
       </c>
       <c r="I29" s="3">
-        <v>-135400</v>
+        <v>138100</v>
       </c>
       <c r="J29" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="K29" s="3">
         <v>100200</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1727800</v>
+        <v>-1733300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1829900</v>
+        <v>-1883000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1553900</v>
+        <v>-1994300</v>
       </c>
       <c r="G32" s="3">
-        <v>-820700</v>
+        <v>-1693500</v>
       </c>
       <c r="H32" s="3">
-        <v>-463100</v>
+        <v>-894500</v>
       </c>
       <c r="I32" s="3">
-        <v>-611700</v>
+        <v>-504700</v>
       </c>
       <c r="J32" s="3">
+        <v>-666700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-202400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-191700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1429200</v>
+        <v>1315300</v>
       </c>
       <c r="E33" s="3">
-        <v>2382600</v>
+        <v>1557600</v>
       </c>
       <c r="F33" s="3">
-        <v>2581700</v>
+        <v>2596700</v>
       </c>
       <c r="G33" s="3">
-        <v>3835000</v>
+        <v>2813600</v>
       </c>
       <c r="H33" s="3">
-        <v>2807300</v>
+        <v>4179500</v>
       </c>
       <c r="I33" s="3">
-        <v>2836500</v>
+        <v>3059400</v>
       </c>
       <c r="J33" s="3">
+        <v>3091300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2480800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2409000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1429200</v>
+        <v>1315300</v>
       </c>
       <c r="E35" s="3">
-        <v>2382600</v>
+        <v>1557600</v>
       </c>
       <c r="F35" s="3">
-        <v>2581700</v>
+        <v>2596700</v>
       </c>
       <c r="G35" s="3">
-        <v>3835000</v>
+        <v>2813600</v>
       </c>
       <c r="H35" s="3">
-        <v>2807300</v>
+        <v>4179500</v>
       </c>
       <c r="I35" s="3">
-        <v>2836500</v>
+        <v>3059400</v>
       </c>
       <c r="J35" s="3">
+        <v>3091300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2480800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2409000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146000</v>
+        <v>172100</v>
       </c>
       <c r="E41" s="3">
-        <v>86000</v>
+        <v>158400</v>
       </c>
       <c r="F41" s="3">
-        <v>766600</v>
+        <v>93300</v>
       </c>
       <c r="G41" s="3">
-        <v>179300</v>
+        <v>831600</v>
       </c>
       <c r="H41" s="3">
-        <v>387300</v>
+        <v>194500</v>
       </c>
       <c r="I41" s="3">
-        <v>203300</v>
+        <v>420100</v>
       </c>
       <c r="J41" s="3">
+        <v>220500</v>
+      </c>
+      <c r="K41" s="3">
         <v>196600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>256600</v>
+        <v>188700</v>
       </c>
       <c r="E42" s="3">
-        <v>333300</v>
+        <v>278400</v>
       </c>
       <c r="F42" s="3">
-        <v>484000</v>
+        <v>361500</v>
       </c>
       <c r="G42" s="3">
-        <v>2187100</v>
+        <v>525000</v>
       </c>
       <c r="H42" s="3">
-        <v>543300</v>
+        <v>2372500</v>
       </c>
       <c r="I42" s="3">
-        <v>3481000</v>
+        <v>589300</v>
       </c>
       <c r="J42" s="3">
+        <v>3776000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1455900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2535000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3599000</v>
+        <v>3704400</v>
       </c>
       <c r="E43" s="3">
-        <v>5757400</v>
+        <v>3904000</v>
       </c>
       <c r="F43" s="3">
-        <v>7711900</v>
+        <v>6245400</v>
       </c>
       <c r="G43" s="3">
-        <v>3163000</v>
+        <v>8365500</v>
       </c>
       <c r="H43" s="3">
-        <v>3153000</v>
+        <v>3431100</v>
       </c>
       <c r="I43" s="3">
-        <v>2782400</v>
+        <v>3420300</v>
       </c>
       <c r="J43" s="3">
+        <v>3018200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3090400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3331600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>298600</v>
+        <v>302300</v>
       </c>
       <c r="E44" s="3">
-        <v>328000</v>
+        <v>323900</v>
       </c>
       <c r="F44" s="3">
-        <v>907900</v>
+        <v>355800</v>
       </c>
       <c r="G44" s="3">
-        <v>371300</v>
+        <v>984900</v>
       </c>
       <c r="H44" s="3">
-        <v>327300</v>
+        <v>402800</v>
       </c>
       <c r="I44" s="3">
-        <v>241300</v>
+        <v>355000</v>
       </c>
       <c r="J44" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K44" s="3">
         <v>287300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>184000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>567900</v>
+        <v>357200</v>
       </c>
       <c r="E45" s="3">
-        <v>383300</v>
+        <v>616100</v>
       </c>
       <c r="F45" s="3">
-        <v>359300</v>
+        <v>415800</v>
       </c>
       <c r="G45" s="3">
-        <v>325300</v>
+        <v>389800</v>
       </c>
       <c r="H45" s="3">
-        <v>235300</v>
+        <v>352900</v>
       </c>
       <c r="I45" s="3">
-        <v>250000</v>
+        <v>255300</v>
       </c>
       <c r="J45" s="3">
+        <v>271200</v>
+      </c>
+      <c r="K45" s="3">
         <v>238000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>733000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4868200</v>
+        <v>4724700</v>
       </c>
       <c r="E46" s="3">
-        <v>4859500</v>
+        <v>5280800</v>
       </c>
       <c r="F46" s="3">
-        <v>5364100</v>
+        <v>5271400</v>
       </c>
       <c r="G46" s="3">
-        <v>6226000</v>
+        <v>5818800</v>
       </c>
       <c r="H46" s="3">
-        <v>4646200</v>
+        <v>6753800</v>
       </c>
       <c r="I46" s="3">
-        <v>6958000</v>
+        <v>5040000</v>
       </c>
       <c r="J46" s="3">
+        <v>7547700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5268100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7039600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1401900</v>
+        <v>1696400</v>
       </c>
       <c r="E47" s="3">
-        <v>1335200</v>
+        <v>1520700</v>
       </c>
       <c r="F47" s="3">
-        <v>1663800</v>
+        <v>1448400</v>
       </c>
       <c r="G47" s="3">
-        <v>1238500</v>
+        <v>1804900</v>
       </c>
       <c r="H47" s="3">
-        <v>1005900</v>
+        <v>1343500</v>
       </c>
       <c r="I47" s="3">
-        <v>863900</v>
+        <v>1091200</v>
       </c>
       <c r="J47" s="3">
+        <v>937100</v>
+      </c>
+      <c r="K47" s="3">
         <v>665900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>680600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14886500</v>
+        <v>17736900</v>
       </c>
       <c r="E48" s="3">
-        <v>14737200</v>
+        <v>16148300</v>
       </c>
       <c r="F48" s="3">
-        <v>28463800</v>
+        <v>15986300</v>
       </c>
       <c r="G48" s="3">
-        <v>13719300</v>
+        <v>30876400</v>
       </c>
       <c r="H48" s="3">
-        <v>13632000</v>
+        <v>14882100</v>
       </c>
       <c r="I48" s="3">
-        <v>13226700</v>
+        <v>14787400</v>
       </c>
       <c r="J48" s="3">
+        <v>14347800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13549300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14695500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4806200</v>
+        <v>5359600</v>
       </c>
       <c r="E49" s="3">
-        <v>6119400</v>
+        <v>5213600</v>
       </c>
       <c r="F49" s="3">
-        <v>11915500</v>
+        <v>6638100</v>
       </c>
       <c r="G49" s="3">
-        <v>6152100</v>
+        <v>12925400</v>
       </c>
       <c r="H49" s="3">
-        <v>6366000</v>
+        <v>6673500</v>
       </c>
       <c r="I49" s="3">
-        <v>4254200</v>
+        <v>6905600</v>
       </c>
       <c r="J49" s="3">
+        <v>4614800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4500900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5252500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2427100</v>
+        <v>2590100</v>
       </c>
       <c r="E52" s="3">
-        <v>2266400</v>
+        <v>2632800</v>
       </c>
       <c r="F52" s="3">
-        <v>1889800</v>
+        <v>2458500</v>
       </c>
       <c r="G52" s="3">
-        <v>1518500</v>
+        <v>2050000</v>
       </c>
       <c r="H52" s="3">
-        <v>1455900</v>
+        <v>1647200</v>
       </c>
       <c r="I52" s="3">
-        <v>934600</v>
+        <v>1579300</v>
       </c>
       <c r="J52" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1697800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1396600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28389800</v>
+        <v>32107800</v>
       </c>
       <c r="E54" s="3">
-        <v>28479200</v>
+        <v>30796100</v>
       </c>
       <c r="F54" s="3">
-        <v>28001200</v>
+        <v>30893000</v>
       </c>
       <c r="G54" s="3">
-        <v>28854400</v>
+        <v>30374500</v>
       </c>
       <c r="H54" s="3">
-        <v>26960600</v>
+        <v>31300100</v>
       </c>
       <c r="I54" s="3">
-        <v>26237400</v>
+        <v>29245800</v>
       </c>
       <c r="J54" s="3">
+        <v>28461200</v>
+      </c>
+      <c r="K54" s="3">
         <v>25682100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27963900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>565900</v>
+        <v>714400</v>
       </c>
       <c r="E57" s="3">
-        <v>1058600</v>
+        <v>613900</v>
       </c>
       <c r="F57" s="3">
-        <v>3419000</v>
+        <v>1148300</v>
       </c>
       <c r="G57" s="3">
-        <v>976600</v>
+        <v>3708800</v>
       </c>
       <c r="H57" s="3">
-        <v>837200</v>
+        <v>1059300</v>
       </c>
       <c r="I57" s="3">
-        <v>775900</v>
+        <v>908200</v>
       </c>
       <c r="J57" s="3">
+        <v>841700</v>
+      </c>
+      <c r="K57" s="3">
         <v>864600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>868800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1481200</v>
+        <v>2439700</v>
       </c>
       <c r="E58" s="3">
-        <v>1089900</v>
+        <v>1606700</v>
       </c>
       <c r="F58" s="3">
-        <v>3301000</v>
+        <v>1182300</v>
       </c>
       <c r="G58" s="3">
-        <v>1769800</v>
+        <v>3580800</v>
       </c>
       <c r="H58" s="3">
-        <v>997200</v>
+        <v>1919800</v>
       </c>
       <c r="I58" s="3">
-        <v>1517800</v>
+        <v>1081800</v>
       </c>
       <c r="J58" s="3">
+        <v>1646500</v>
+      </c>
+      <c r="K58" s="3">
         <v>500600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2339000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4320900</v>
+        <v>4144800</v>
       </c>
       <c r="E59" s="3">
-        <v>4525500</v>
+        <v>4687100</v>
       </c>
       <c r="F59" s="3">
-        <v>4600200</v>
+        <v>4909100</v>
       </c>
       <c r="G59" s="3">
-        <v>3378300</v>
+        <v>4990100</v>
       </c>
       <c r="H59" s="3">
-        <v>3668300</v>
+        <v>3664700</v>
       </c>
       <c r="I59" s="3">
-        <v>3495000</v>
+        <v>3979200</v>
       </c>
       <c r="J59" s="3">
+        <v>3791200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3649000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5017600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6368000</v>
+        <v>7299000</v>
       </c>
       <c r="E60" s="3">
-        <v>5856100</v>
+        <v>6907800</v>
       </c>
       <c r="F60" s="3">
-        <v>6053400</v>
+        <v>6352400</v>
       </c>
       <c r="G60" s="3">
-        <v>6124700</v>
+        <v>6566500</v>
       </c>
       <c r="H60" s="3">
-        <v>5418800</v>
+        <v>6643800</v>
       </c>
       <c r="I60" s="3">
-        <v>5788800</v>
+        <v>5878100</v>
       </c>
       <c r="J60" s="3">
+        <v>6279400</v>
+      </c>
+      <c r="K60" s="3">
         <v>5014200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7558900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10019700</v>
+        <v>11391000</v>
       </c>
       <c r="E61" s="3">
-        <v>10209600</v>
+        <v>10868900</v>
       </c>
       <c r="F61" s="3">
-        <v>9871000</v>
+        <v>11075000</v>
       </c>
       <c r="G61" s="3">
-        <v>9763700</v>
+        <v>10707700</v>
       </c>
       <c r="H61" s="3">
-        <v>9424400</v>
+        <v>10591200</v>
       </c>
       <c r="I61" s="3">
-        <v>9030400</v>
+        <v>10223200</v>
       </c>
       <c r="J61" s="3">
+        <v>9795800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9541000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8460300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2316400</v>
+        <v>2465000</v>
       </c>
       <c r="E62" s="3">
-        <v>3543000</v>
+        <v>2512800</v>
       </c>
       <c r="F62" s="3">
-        <v>3417700</v>
+        <v>3843300</v>
       </c>
       <c r="G62" s="3">
-        <v>2362400</v>
+        <v>3707300</v>
       </c>
       <c r="H62" s="3">
-        <v>2536400</v>
+        <v>2562700</v>
       </c>
       <c r="I62" s="3">
-        <v>2112500</v>
+        <v>2751400</v>
       </c>
       <c r="J62" s="3">
+        <v>2291500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2544400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3861500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18691500</v>
+        <v>21642400</v>
       </c>
       <c r="E66" s="3">
-        <v>18725500</v>
+        <v>20275700</v>
       </c>
       <c r="F66" s="3">
-        <v>18580800</v>
+        <v>20312600</v>
       </c>
       <c r="G66" s="3">
-        <v>18274800</v>
+        <v>20155700</v>
       </c>
       <c r="H66" s="3">
-        <v>17559600</v>
+        <v>19823800</v>
       </c>
       <c r="I66" s="3">
-        <v>17023600</v>
+        <v>19047900</v>
       </c>
       <c r="J66" s="3">
+        <v>18466500</v>
+      </c>
+      <c r="K66" s="3">
         <v>17275600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19841800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6768000</v>
+        <v>7238200</v>
       </c>
       <c r="E72" s="3">
-        <v>6884600</v>
+        <v>7341600</v>
       </c>
       <c r="F72" s="3">
-        <v>6470700</v>
+        <v>7468200</v>
       </c>
       <c r="G72" s="3">
-        <v>7092600</v>
+        <v>7019100</v>
       </c>
       <c r="H72" s="3">
-        <v>5894100</v>
+        <v>7693800</v>
       </c>
       <c r="I72" s="3">
-        <v>5540100</v>
+        <v>6393700</v>
       </c>
       <c r="J72" s="3">
+        <v>6009700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4993500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4728200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9698400</v>
+        <v>10465400</v>
       </c>
       <c r="E76" s="3">
-        <v>9753700</v>
+        <v>10520400</v>
       </c>
       <c r="F76" s="3">
-        <v>9420400</v>
+        <v>10580400</v>
       </c>
       <c r="G76" s="3">
-        <v>10579600</v>
+        <v>10218800</v>
       </c>
       <c r="H76" s="3">
-        <v>9401100</v>
+        <v>11476300</v>
       </c>
       <c r="I76" s="3">
-        <v>9213700</v>
+        <v>10197900</v>
       </c>
       <c r="J76" s="3">
+        <v>9994700</v>
+      </c>
+      <c r="K76" s="3">
         <v>8406500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8122100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1429200</v>
+        <v>1315300</v>
       </c>
       <c r="E81" s="3">
-        <v>2382600</v>
+        <v>1557600</v>
       </c>
       <c r="F81" s="3">
-        <v>2581700</v>
+        <v>2596700</v>
       </c>
       <c r="G81" s="3">
-        <v>3835000</v>
+        <v>2813600</v>
       </c>
       <c r="H81" s="3">
-        <v>2807300</v>
+        <v>4179500</v>
       </c>
       <c r="I81" s="3">
-        <v>2836500</v>
+        <v>3059400</v>
       </c>
       <c r="J81" s="3">
+        <v>3091300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2480800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2409000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2841100</v>
+        <v>3859900</v>
       </c>
       <c r="E83" s="3">
-        <v>2965800</v>
+        <v>3096300</v>
       </c>
       <c r="F83" s="3">
-        <v>2946600</v>
+        <v>3232300</v>
       </c>
       <c r="G83" s="3">
-        <v>2763500</v>
+        <v>3211300</v>
       </c>
       <c r="H83" s="3">
-        <v>2642700</v>
+        <v>3011700</v>
       </c>
       <c r="I83" s="3">
-        <v>2681900</v>
+        <v>2880100</v>
       </c>
       <c r="J83" s="3">
+        <v>2922800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2811900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3121500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4434200</v>
+        <v>5068900</v>
       </c>
       <c r="E89" s="3">
-        <v>5710100</v>
+        <v>4832500</v>
       </c>
       <c r="F89" s="3">
-        <v>5158700</v>
+        <v>6223000</v>
       </c>
       <c r="G89" s="3">
-        <v>5396200</v>
+        <v>5622100</v>
       </c>
       <c r="H89" s="3">
-        <v>5514300</v>
+        <v>5881000</v>
       </c>
       <c r="I89" s="3">
-        <v>5714700</v>
+        <v>6009700</v>
       </c>
       <c r="J89" s="3">
+        <v>6228100</v>
+      </c>
+      <c r="K89" s="3">
         <v>5546200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6562800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2146400</v>
+        <v>-1692800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2369400</v>
+        <v>-2339200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2471500</v>
+        <v>-2582200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2024300</v>
+        <v>-2693500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1887700</v>
+        <v>-2206200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1902900</v>
+        <v>-2057200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2073900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1869700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2126700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2398600</v>
+        <v>-2151900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2594900</v>
+        <v>-2614000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2839100</v>
+        <v>-2828000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1464300</v>
+        <v>-3094100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3776600</v>
+        <v>-1595900</v>
       </c>
       <c r="I94" s="3">
-        <v>-749800</v>
+        <v>-4115900</v>
       </c>
       <c r="J94" s="3">
+        <v>-817100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2212800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2885900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1498800</v>
+        <v>-1376100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2090000</v>
+        <v>-1633500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2478800</v>
+        <v>-2277800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2512700</v>
+        <v>-2701500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2454300</v>
+        <v>-2738400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2352100</v>
+        <v>-2674700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2563400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2309000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2458600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2048900</v>
+        <v>-2992200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3327500</v>
+        <v>-2232900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4050000</v>
+        <v>-3626300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2506000</v>
+        <v>-4413800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4566200</v>
+        <v>-2731100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2939300</v>
+        <v>-4976400</v>
       </c>
       <c r="J100" s="3">
+        <v>-3203300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4330000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2763500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>2900</v>
       </c>
       <c r="G101" s="3">
-        <v>3300</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
-        <v>87600</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3300</v>
+        <v>95400</v>
       </c>
       <c r="J101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K101" s="3">
         <v>23900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10600</v>
+        <v>-75900</v>
       </c>
       <c r="E102" s="3">
-        <v>-209700</v>
+        <v>-11600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1734400</v>
+        <v>-228500</v>
       </c>
       <c r="G102" s="3">
-        <v>1429200</v>
+        <v>-1890200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2740900</v>
+        <v>1557600</v>
       </c>
       <c r="I102" s="3">
-        <v>2022300</v>
+        <v>-2987100</v>
       </c>
       <c r="J102" s="3">
+        <v>2204000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-972700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>925400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17144700</v>
+        <v>17512200</v>
       </c>
       <c r="E8" s="3">
-        <v>18264800</v>
+        <v>18656300</v>
       </c>
       <c r="F8" s="3">
-        <v>18690700</v>
+        <v>19091300</v>
       </c>
       <c r="G8" s="3">
-        <v>18810000</v>
+        <v>19213200</v>
       </c>
       <c r="H8" s="3">
-        <v>18736200</v>
+        <v>19137900</v>
       </c>
       <c r="I8" s="3">
-        <v>18459300</v>
+        <v>18855000</v>
       </c>
       <c r="J8" s="3">
-        <v>18308900</v>
+        <v>18701400</v>
       </c>
       <c r="K8" s="3">
         <v>16238500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6585300</v>
+        <v>6726400</v>
       </c>
       <c r="E9" s="3">
-        <v>6607700</v>
+        <v>6749300</v>
       </c>
       <c r="F9" s="3">
-        <v>6029200</v>
+        <v>6158400</v>
       </c>
       <c r="G9" s="3">
-        <v>5546900</v>
+        <v>5665800</v>
       </c>
       <c r="H9" s="3">
-        <v>5240300</v>
+        <v>5352600</v>
       </c>
       <c r="I9" s="3">
-        <v>4966300</v>
+        <v>5072700</v>
       </c>
       <c r="J9" s="3">
-        <v>4696500</v>
+        <v>4797200</v>
       </c>
       <c r="K9" s="3">
         <v>8403200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10559400</v>
+        <v>10785800</v>
       </c>
       <c r="E10" s="3">
-        <v>11657100</v>
+        <v>11907000</v>
       </c>
       <c r="F10" s="3">
-        <v>12661500</v>
+        <v>12932900</v>
       </c>
       <c r="G10" s="3">
-        <v>13263100</v>
+        <v>13547400</v>
       </c>
       <c r="H10" s="3">
-        <v>13495900</v>
+        <v>13785200</v>
       </c>
       <c r="I10" s="3">
-        <v>13493000</v>
+        <v>13782300</v>
       </c>
       <c r="J10" s="3">
-        <v>13612400</v>
+        <v>13904100</v>
       </c>
       <c r="K10" s="3">
         <v>7835300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>751300</v>
+        <v>767400</v>
       </c>
       <c r="E14" s="3">
-        <v>1097700</v>
+        <v>1121200</v>
       </c>
       <c r="F14" s="3">
-        <v>600200</v>
+        <v>613000</v>
       </c>
       <c r="G14" s="3">
-        <v>394800</v>
+        <v>403300</v>
       </c>
       <c r="H14" s="3">
-        <v>321800</v>
+        <v>328700</v>
       </c>
       <c r="I14" s="3">
-        <v>112100</v>
+        <v>114500</v>
       </c>
       <c r="J14" s="3">
-        <v>203200</v>
+        <v>207500</v>
       </c>
       <c r="K14" s="3">
         <v>242200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3859900</v>
+        <v>3942600</v>
       </c>
       <c r="E15" s="3">
-        <v>3096300</v>
+        <v>3162700</v>
       </c>
       <c r="F15" s="3">
-        <v>3232300</v>
+        <v>3301500</v>
       </c>
       <c r="G15" s="3">
-        <v>3211300</v>
+        <v>3280100</v>
       </c>
       <c r="H15" s="3">
-        <v>3004500</v>
+        <v>3068900</v>
       </c>
       <c r="I15" s="3">
-        <v>2873600</v>
+        <v>2935200</v>
       </c>
       <c r="J15" s="3">
-        <v>2856200</v>
+        <v>2917500</v>
       </c>
       <c r="K15" s="3">
         <v>5517700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16328300</v>
+        <v>16678300</v>
       </c>
       <c r="E17" s="3">
-        <v>17429600</v>
+        <v>17803200</v>
       </c>
       <c r="F17" s="3">
-        <v>16480200</v>
+        <v>16833400</v>
       </c>
       <c r="G17" s="3">
-        <v>15885800</v>
+        <v>16226300</v>
       </c>
       <c r="H17" s="3">
-        <v>14994900</v>
+        <v>15316300</v>
       </c>
       <c r="I17" s="3">
-        <v>14140200</v>
+        <v>14443300</v>
       </c>
       <c r="J17" s="3">
-        <v>13819200</v>
+        <v>14115400</v>
       </c>
       <c r="K17" s="3">
         <v>12392900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>816400</v>
+        <v>833900</v>
       </c>
       <c r="E18" s="3">
-        <v>835200</v>
+        <v>853100</v>
       </c>
       <c r="F18" s="3">
-        <v>2210500</v>
+        <v>2257900</v>
       </c>
       <c r="G18" s="3">
-        <v>2924200</v>
+        <v>2986900</v>
       </c>
       <c r="H18" s="3">
-        <v>3741300</v>
+        <v>3821500</v>
       </c>
       <c r="I18" s="3">
-        <v>4319100</v>
+        <v>4411700</v>
       </c>
       <c r="J18" s="3">
-        <v>4489700</v>
+        <v>4586000</v>
       </c>
       <c r="K18" s="3">
         <v>3845600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1733300</v>
+        <v>1770400</v>
       </c>
       <c r="E20" s="3">
-        <v>1883000</v>
+        <v>1923300</v>
       </c>
       <c r="F20" s="3">
-        <v>1994300</v>
+        <v>2037100</v>
       </c>
       <c r="G20" s="3">
-        <v>1693500</v>
+        <v>1729800</v>
       </c>
       <c r="H20" s="3">
-        <v>894500</v>
+        <v>913600</v>
       </c>
       <c r="I20" s="3">
-        <v>504700</v>
+        <v>515500</v>
       </c>
       <c r="J20" s="3">
-        <v>666700</v>
+        <v>681000</v>
       </c>
       <c r="K20" s="3">
         <v>202400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6389800</v>
+        <v>6533600</v>
       </c>
       <c r="E21" s="3">
-        <v>5798600</v>
+        <v>5928400</v>
       </c>
       <c r="F21" s="3">
-        <v>7420500</v>
+        <v>7585300</v>
       </c>
       <c r="G21" s="3">
-        <v>7812600</v>
+        <v>7985700</v>
       </c>
       <c r="H21" s="3">
-        <v>7632100</v>
+        <v>7801000</v>
       </c>
       <c r="I21" s="3">
-        <v>7689200</v>
+        <v>7859100</v>
       </c>
       <c r="J21" s="3">
-        <v>8064200</v>
+        <v>8242300</v>
       </c>
       <c r="K21" s="3">
         <v>6853600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>527900</v>
+        <v>539200</v>
       </c>
       <c r="E22" s="3">
-        <v>496800</v>
+        <v>507400</v>
       </c>
       <c r="F22" s="3">
-        <v>488800</v>
+        <v>499300</v>
       </c>
       <c r="G22" s="3">
-        <v>534400</v>
+        <v>545800</v>
       </c>
       <c r="H22" s="3">
-        <v>586400</v>
+        <v>599000</v>
       </c>
       <c r="I22" s="3">
-        <v>586400</v>
+        <v>599000</v>
       </c>
       <c r="J22" s="3">
-        <v>653000</v>
+        <v>667000</v>
       </c>
       <c r="K22" s="3">
         <v>626300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2021800</v>
+        <v>2065100</v>
       </c>
       <c r="E23" s="3">
-        <v>2221400</v>
+        <v>2269000</v>
       </c>
       <c r="F23" s="3">
-        <v>3716000</v>
+        <v>3795700</v>
       </c>
       <c r="G23" s="3">
-        <v>4083300</v>
+        <v>4170900</v>
       </c>
       <c r="H23" s="3">
-        <v>4049400</v>
+        <v>4136200</v>
       </c>
       <c r="I23" s="3">
-        <v>4237400</v>
+        <v>4328200</v>
       </c>
       <c r="J23" s="3">
-        <v>4503500</v>
+        <v>4600000</v>
       </c>
       <c r="K23" s="3">
         <v>3421700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>692000</v>
+        <v>706800</v>
       </c>
       <c r="E24" s="3">
-        <v>667400</v>
+        <v>681700</v>
       </c>
       <c r="F24" s="3">
-        <v>1143900</v>
+        <v>1168500</v>
       </c>
       <c r="G24" s="3">
-        <v>1282100</v>
+        <v>1309500</v>
       </c>
       <c r="H24" s="3">
-        <v>1278400</v>
+        <v>1305800</v>
       </c>
       <c r="I24" s="3">
-        <v>1262500</v>
+        <v>1289600</v>
       </c>
       <c r="J24" s="3">
-        <v>1214100</v>
+        <v>1240100</v>
       </c>
       <c r="K24" s="3">
         <v>1006500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1329800</v>
+        <v>1358300</v>
       </c>
       <c r="E26" s="3">
-        <v>1553900</v>
+        <v>1587300</v>
       </c>
       <c r="F26" s="3">
-        <v>2572100</v>
+        <v>2627200</v>
       </c>
       <c r="G26" s="3">
-        <v>2801300</v>
+        <v>2861300</v>
       </c>
       <c r="H26" s="3">
-        <v>2770900</v>
+        <v>2830300</v>
       </c>
       <c r="I26" s="3">
-        <v>2974800</v>
+        <v>3038600</v>
       </c>
       <c r="J26" s="3">
-        <v>3289400</v>
+        <v>3359900</v>
       </c>
       <c r="K26" s="3">
         <v>2415100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1315300</v>
+        <v>1343500</v>
       </c>
       <c r="E27" s="3">
-        <v>1557600</v>
+        <v>1590900</v>
       </c>
       <c r="F27" s="3">
-        <v>2596700</v>
+        <v>2652300</v>
       </c>
       <c r="G27" s="3">
-        <v>2813600</v>
+        <v>2873900</v>
       </c>
       <c r="H27" s="3">
-        <v>2721000</v>
+        <v>2779400</v>
       </c>
       <c r="I27" s="3">
-        <v>2921300</v>
+        <v>2983900</v>
       </c>
       <c r="J27" s="3">
-        <v>3238800</v>
+        <v>3308200</v>
       </c>
       <c r="K27" s="3">
         <v>2380600</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1458500</v>
+        <v>1489800</v>
       </c>
       <c r="I29" s="3">
-        <v>138100</v>
+        <v>141100</v>
       </c>
       <c r="J29" s="3">
-        <v>-147500</v>
+        <v>-150700</v>
       </c>
       <c r="K29" s="3">
         <v>100200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1733300</v>
+        <v>-1770400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1883000</v>
+        <v>-1923300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1994300</v>
+        <v>-2037100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1693500</v>
+        <v>-1729800</v>
       </c>
       <c r="H32" s="3">
-        <v>-894500</v>
+        <v>-913600</v>
       </c>
       <c r="I32" s="3">
-        <v>-504700</v>
+        <v>-515500</v>
       </c>
       <c r="J32" s="3">
-        <v>-666700</v>
+        <v>-681000</v>
       </c>
       <c r="K32" s="3">
         <v>-202400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1315300</v>
+        <v>1343500</v>
       </c>
       <c r="E33" s="3">
-        <v>1557600</v>
+        <v>1590900</v>
       </c>
       <c r="F33" s="3">
-        <v>2596700</v>
+        <v>2652300</v>
       </c>
       <c r="G33" s="3">
-        <v>2813600</v>
+        <v>2873900</v>
       </c>
       <c r="H33" s="3">
-        <v>4179500</v>
+        <v>4269100</v>
       </c>
       <c r="I33" s="3">
-        <v>3059400</v>
+        <v>3125000</v>
       </c>
       <c r="J33" s="3">
-        <v>3091300</v>
+        <v>3157500</v>
       </c>
       <c r="K33" s="3">
         <v>2480800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1315300</v>
+        <v>1343500</v>
       </c>
       <c r="E35" s="3">
-        <v>1557600</v>
+        <v>1590900</v>
       </c>
       <c r="F35" s="3">
-        <v>2596700</v>
+        <v>2652300</v>
       </c>
       <c r="G35" s="3">
-        <v>2813600</v>
+        <v>2873900</v>
       </c>
       <c r="H35" s="3">
-        <v>4179500</v>
+        <v>4269100</v>
       </c>
       <c r="I35" s="3">
-        <v>3059400</v>
+        <v>3125000</v>
       </c>
       <c r="J35" s="3">
-        <v>3091300</v>
+        <v>3157500</v>
       </c>
       <c r="K35" s="3">
         <v>2480800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172100</v>
+        <v>175800</v>
       </c>
       <c r="E41" s="3">
-        <v>158400</v>
+        <v>161800</v>
       </c>
       <c r="F41" s="3">
-        <v>93300</v>
+        <v>95300</v>
       </c>
       <c r="G41" s="3">
-        <v>831600</v>
+        <v>849400</v>
       </c>
       <c r="H41" s="3">
-        <v>194500</v>
+        <v>198700</v>
       </c>
       <c r="I41" s="3">
-        <v>420100</v>
+        <v>429100</v>
       </c>
       <c r="J41" s="3">
-        <v>220500</v>
+        <v>225300</v>
       </c>
       <c r="K41" s="3">
         <v>196600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188700</v>
+        <v>192800</v>
       </c>
       <c r="E42" s="3">
-        <v>278400</v>
+        <v>284400</v>
       </c>
       <c r="F42" s="3">
-        <v>361500</v>
+        <v>369300</v>
       </c>
       <c r="G42" s="3">
-        <v>525000</v>
+        <v>536200</v>
       </c>
       <c r="H42" s="3">
-        <v>2372500</v>
+        <v>2423300</v>
       </c>
       <c r="I42" s="3">
-        <v>589300</v>
+        <v>602000</v>
       </c>
       <c r="J42" s="3">
-        <v>3776000</v>
+        <v>3857000</v>
       </c>
       <c r="K42" s="3">
         <v>1455900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3704400</v>
+        <v>3783800</v>
       </c>
       <c r="E43" s="3">
-        <v>3904000</v>
+        <v>3987700</v>
       </c>
       <c r="F43" s="3">
-        <v>6245400</v>
+        <v>6379300</v>
       </c>
       <c r="G43" s="3">
-        <v>8365500</v>
+        <v>8544900</v>
       </c>
       <c r="H43" s="3">
-        <v>3431100</v>
+        <v>3504700</v>
       </c>
       <c r="I43" s="3">
-        <v>3420300</v>
+        <v>3493600</v>
       </c>
       <c r="J43" s="3">
-        <v>3018200</v>
+        <v>3082900</v>
       </c>
       <c r="K43" s="3">
         <v>3090400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302300</v>
+        <v>308700</v>
       </c>
       <c r="E44" s="3">
-        <v>323900</v>
+        <v>330900</v>
       </c>
       <c r="F44" s="3">
-        <v>355800</v>
+        <v>363400</v>
       </c>
       <c r="G44" s="3">
-        <v>984900</v>
+        <v>1006000</v>
       </c>
       <c r="H44" s="3">
-        <v>402800</v>
+        <v>411400</v>
       </c>
       <c r="I44" s="3">
-        <v>355000</v>
+        <v>362700</v>
       </c>
       <c r="J44" s="3">
-        <v>261800</v>
+        <v>267400</v>
       </c>
       <c r="K44" s="3">
         <v>287300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>357200</v>
+        <v>364900</v>
       </c>
       <c r="E45" s="3">
-        <v>616100</v>
+        <v>629300</v>
       </c>
       <c r="F45" s="3">
-        <v>415800</v>
+        <v>424700</v>
       </c>
       <c r="G45" s="3">
-        <v>389800</v>
+        <v>398100</v>
       </c>
       <c r="H45" s="3">
-        <v>352900</v>
+        <v>360400</v>
       </c>
       <c r="I45" s="3">
-        <v>255300</v>
+        <v>260700</v>
       </c>
       <c r="J45" s="3">
-        <v>271200</v>
+        <v>277000</v>
       </c>
       <c r="K45" s="3">
         <v>238000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4724700</v>
+        <v>4826000</v>
       </c>
       <c r="E46" s="3">
-        <v>5280800</v>
+        <v>5394000</v>
       </c>
       <c r="F46" s="3">
-        <v>5271400</v>
+        <v>5384400</v>
       </c>
       <c r="G46" s="3">
-        <v>5818800</v>
+        <v>5943500</v>
       </c>
       <c r="H46" s="3">
-        <v>6753800</v>
+        <v>6898500</v>
       </c>
       <c r="I46" s="3">
-        <v>5040000</v>
+        <v>5148000</v>
       </c>
       <c r="J46" s="3">
-        <v>7547700</v>
+        <v>7709500</v>
       </c>
       <c r="K46" s="3">
         <v>5268100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1696400</v>
+        <v>1732800</v>
       </c>
       <c r="E47" s="3">
-        <v>1520700</v>
+        <v>1553300</v>
       </c>
       <c r="F47" s="3">
-        <v>1448400</v>
+        <v>1479400</v>
       </c>
       <c r="G47" s="3">
-        <v>1804900</v>
+        <v>1843500</v>
       </c>
       <c r="H47" s="3">
-        <v>1343500</v>
+        <v>1372300</v>
       </c>
       <c r="I47" s="3">
-        <v>1091200</v>
+        <v>1114500</v>
       </c>
       <c r="J47" s="3">
-        <v>937100</v>
+        <v>957200</v>
       </c>
       <c r="K47" s="3">
         <v>665900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17736900</v>
+        <v>18117100</v>
       </c>
       <c r="E48" s="3">
-        <v>16148300</v>
+        <v>16494400</v>
       </c>
       <c r="F48" s="3">
-        <v>15986300</v>
+        <v>16329000</v>
       </c>
       <c r="G48" s="3">
-        <v>30876400</v>
+        <v>31538200</v>
       </c>
       <c r="H48" s="3">
-        <v>14882100</v>
+        <v>15201100</v>
       </c>
       <c r="I48" s="3">
-        <v>14787400</v>
+        <v>15104400</v>
       </c>
       <c r="J48" s="3">
-        <v>14347800</v>
+        <v>14655300</v>
       </c>
       <c r="K48" s="3">
         <v>13549300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5359600</v>
+        <v>5474500</v>
       </c>
       <c r="E49" s="3">
-        <v>5213600</v>
+        <v>5325300</v>
       </c>
       <c r="F49" s="3">
-        <v>6638100</v>
+        <v>6780300</v>
       </c>
       <c r="G49" s="3">
-        <v>12925400</v>
+        <v>13202500</v>
       </c>
       <c r="H49" s="3">
-        <v>6673500</v>
+        <v>6816500</v>
       </c>
       <c r="I49" s="3">
-        <v>6905600</v>
+        <v>7053600</v>
       </c>
       <c r="J49" s="3">
-        <v>4614800</v>
+        <v>4713700</v>
       </c>
       <c r="K49" s="3">
         <v>4500900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2590100</v>
+        <v>2645700</v>
       </c>
       <c r="E52" s="3">
-        <v>2632800</v>
+        <v>2689200</v>
       </c>
       <c r="F52" s="3">
-        <v>2458500</v>
+        <v>2511200</v>
       </c>
       <c r="G52" s="3">
-        <v>2050000</v>
+        <v>2093900</v>
       </c>
       <c r="H52" s="3">
-        <v>1647200</v>
+        <v>1682500</v>
       </c>
       <c r="I52" s="3">
-        <v>1579300</v>
+        <v>1613100</v>
       </c>
       <c r="J52" s="3">
-        <v>1013800</v>
+        <v>1035500</v>
       </c>
       <c r="K52" s="3">
         <v>1697800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32107800</v>
+        <v>32796100</v>
       </c>
       <c r="E54" s="3">
-        <v>30796100</v>
+        <v>31456200</v>
       </c>
       <c r="F54" s="3">
-        <v>30893000</v>
+        <v>31555200</v>
       </c>
       <c r="G54" s="3">
-        <v>30374500</v>
+        <v>31025600</v>
       </c>
       <c r="H54" s="3">
-        <v>31300100</v>
+        <v>31971000</v>
       </c>
       <c r="I54" s="3">
-        <v>29245800</v>
+        <v>29872700</v>
       </c>
       <c r="J54" s="3">
-        <v>28461200</v>
+        <v>29071300</v>
       </c>
       <c r="K54" s="3">
         <v>25682100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>714400</v>
+        <v>729700</v>
       </c>
       <c r="E57" s="3">
-        <v>613900</v>
+        <v>627100</v>
       </c>
       <c r="F57" s="3">
-        <v>1148300</v>
+        <v>1172900</v>
       </c>
       <c r="G57" s="3">
-        <v>3708800</v>
+        <v>3788300</v>
       </c>
       <c r="H57" s="3">
-        <v>1059300</v>
+        <v>1082000</v>
       </c>
       <c r="I57" s="3">
-        <v>908200</v>
+        <v>927700</v>
       </c>
       <c r="J57" s="3">
-        <v>841700</v>
+        <v>859700</v>
       </c>
       <c r="K57" s="3">
         <v>864600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2439700</v>
+        <v>2492000</v>
       </c>
       <c r="E58" s="3">
-        <v>1606700</v>
+        <v>1641200</v>
       </c>
       <c r="F58" s="3">
-        <v>1182300</v>
+        <v>1207600</v>
       </c>
       <c r="G58" s="3">
-        <v>3580800</v>
+        <v>3657500</v>
       </c>
       <c r="H58" s="3">
-        <v>1919800</v>
+        <v>1961000</v>
       </c>
       <c r="I58" s="3">
-        <v>1081800</v>
+        <v>1104900</v>
       </c>
       <c r="J58" s="3">
-        <v>1646500</v>
+        <v>1681800</v>
       </c>
       <c r="K58" s="3">
         <v>500600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4144800</v>
+        <v>4233700</v>
       </c>
       <c r="E59" s="3">
-        <v>4687100</v>
+        <v>4787600</v>
       </c>
       <c r="F59" s="3">
-        <v>4909100</v>
+        <v>5014400</v>
       </c>
       <c r="G59" s="3">
-        <v>4990100</v>
+        <v>5097100</v>
       </c>
       <c r="H59" s="3">
-        <v>3664700</v>
+        <v>3743200</v>
       </c>
       <c r="I59" s="3">
-        <v>3979200</v>
+        <v>4064500</v>
       </c>
       <c r="J59" s="3">
-        <v>3791200</v>
+        <v>3872500</v>
       </c>
       <c r="K59" s="3">
         <v>3649000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7299000</v>
+        <v>7455400</v>
       </c>
       <c r="E60" s="3">
-        <v>6907800</v>
+        <v>7055800</v>
       </c>
       <c r="F60" s="3">
-        <v>6352400</v>
+        <v>6488600</v>
       </c>
       <c r="G60" s="3">
-        <v>6566500</v>
+        <v>6707200</v>
       </c>
       <c r="H60" s="3">
-        <v>6643800</v>
+        <v>6786300</v>
       </c>
       <c r="I60" s="3">
-        <v>5878100</v>
+        <v>6004100</v>
       </c>
       <c r="J60" s="3">
-        <v>6279400</v>
+        <v>6414000</v>
       </c>
       <c r="K60" s="3">
         <v>5014200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11391000</v>
+        <v>11635200</v>
       </c>
       <c r="E61" s="3">
-        <v>10868900</v>
+        <v>11101900</v>
       </c>
       <c r="F61" s="3">
-        <v>11075000</v>
+        <v>11312400</v>
       </c>
       <c r="G61" s="3">
-        <v>10707700</v>
+        <v>10937200</v>
       </c>
       <c r="H61" s="3">
-        <v>10591200</v>
+        <v>10818300</v>
       </c>
       <c r="I61" s="3">
-        <v>10223200</v>
+        <v>10442300</v>
       </c>
       <c r="J61" s="3">
-        <v>9795800</v>
+        <v>10005800</v>
       </c>
       <c r="K61" s="3">
         <v>9541000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2465000</v>
+        <v>2517900</v>
       </c>
       <c r="E62" s="3">
-        <v>2512800</v>
+        <v>2566600</v>
       </c>
       <c r="F62" s="3">
-        <v>3843300</v>
+        <v>3925700</v>
       </c>
       <c r="G62" s="3">
-        <v>3707300</v>
+        <v>3786800</v>
       </c>
       <c r="H62" s="3">
-        <v>2562700</v>
+        <v>2617600</v>
       </c>
       <c r="I62" s="3">
-        <v>2751400</v>
+        <v>2810400</v>
       </c>
       <c r="J62" s="3">
-        <v>2291500</v>
+        <v>2340600</v>
       </c>
       <c r="K62" s="3">
         <v>2544400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21642400</v>
+        <v>22106300</v>
       </c>
       <c r="E66" s="3">
-        <v>20275700</v>
+        <v>20710300</v>
       </c>
       <c r="F66" s="3">
-        <v>20312600</v>
+        <v>20748000</v>
       </c>
       <c r="G66" s="3">
-        <v>20155700</v>
+        <v>20587700</v>
       </c>
       <c r="H66" s="3">
-        <v>19823800</v>
+        <v>20248700</v>
       </c>
       <c r="I66" s="3">
-        <v>19047900</v>
+        <v>19456200</v>
       </c>
       <c r="J66" s="3">
-        <v>18466500</v>
+        <v>18862400</v>
       </c>
       <c r="K66" s="3">
         <v>17275600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7238200</v>
+        <v>7393400</v>
       </c>
       <c r="E72" s="3">
-        <v>7341600</v>
+        <v>7499000</v>
       </c>
       <c r="F72" s="3">
-        <v>7468200</v>
+        <v>7628300</v>
       </c>
       <c r="G72" s="3">
-        <v>7019100</v>
+        <v>7169600</v>
       </c>
       <c r="H72" s="3">
-        <v>7693800</v>
+        <v>7858700</v>
       </c>
       <c r="I72" s="3">
-        <v>6393700</v>
+        <v>6530700</v>
       </c>
       <c r="J72" s="3">
-        <v>6009700</v>
+        <v>6138500</v>
       </c>
       <c r="K72" s="3">
         <v>4993500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10465400</v>
+        <v>10689800</v>
       </c>
       <c r="E76" s="3">
-        <v>10520400</v>
+        <v>10745900</v>
       </c>
       <c r="F76" s="3">
-        <v>10580400</v>
+        <v>10807200</v>
       </c>
       <c r="G76" s="3">
-        <v>10218800</v>
+        <v>10437900</v>
       </c>
       <c r="H76" s="3">
-        <v>11476300</v>
+        <v>11722300</v>
       </c>
       <c r="I76" s="3">
-        <v>10197900</v>
+        <v>10416500</v>
       </c>
       <c r="J76" s="3">
-        <v>9994700</v>
+        <v>10208900</v>
       </c>
       <c r="K76" s="3">
         <v>8406500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1315300</v>
+        <v>1343500</v>
       </c>
       <c r="E81" s="3">
-        <v>1557600</v>
+        <v>1590900</v>
       </c>
       <c r="F81" s="3">
-        <v>2596700</v>
+        <v>2652300</v>
       </c>
       <c r="G81" s="3">
-        <v>2813600</v>
+        <v>2873900</v>
       </c>
       <c r="H81" s="3">
-        <v>4179500</v>
+        <v>4269100</v>
       </c>
       <c r="I81" s="3">
-        <v>3059400</v>
+        <v>3125000</v>
       </c>
       <c r="J81" s="3">
-        <v>3091300</v>
+        <v>3157500</v>
       </c>
       <c r="K81" s="3">
         <v>2480800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3859900</v>
+        <v>3942600</v>
       </c>
       <c r="E83" s="3">
-        <v>3096300</v>
+        <v>3162700</v>
       </c>
       <c r="F83" s="3">
-        <v>3232300</v>
+        <v>3301500</v>
       </c>
       <c r="G83" s="3">
-        <v>3211300</v>
+        <v>3280100</v>
       </c>
       <c r="H83" s="3">
-        <v>3011700</v>
+        <v>3076300</v>
       </c>
       <c r="I83" s="3">
-        <v>2880100</v>
+        <v>2941800</v>
       </c>
       <c r="J83" s="3">
-        <v>2922800</v>
+        <v>2985400</v>
       </c>
       <c r="K83" s="3">
         <v>2811900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5068900</v>
+        <v>5177600</v>
       </c>
       <c r="E89" s="3">
-        <v>4832500</v>
+        <v>4936100</v>
       </c>
       <c r="F89" s="3">
-        <v>6223000</v>
+        <v>6356400</v>
       </c>
       <c r="G89" s="3">
-        <v>5622100</v>
+        <v>5742600</v>
       </c>
       <c r="H89" s="3">
-        <v>5881000</v>
+        <v>6007000</v>
       </c>
       <c r="I89" s="3">
-        <v>6009700</v>
+        <v>6138500</v>
       </c>
       <c r="J89" s="3">
-        <v>6228100</v>
+        <v>6361600</v>
       </c>
       <c r="K89" s="3">
         <v>5546200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1692800</v>
+        <v>-1729100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2339200</v>
+        <v>-2389400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2582200</v>
+        <v>-2637500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2693500</v>
+        <v>-2751300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2206200</v>
+        <v>-2253500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2057200</v>
+        <v>-2101300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2073900</v>
+        <v>-2118300</v>
       </c>
       <c r="K91" s="3">
         <v>-1869700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2151900</v>
+        <v>-2198100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2614000</v>
+        <v>-2670000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2828000</v>
+        <v>-2888700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3094100</v>
+        <v>-3160500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1595900</v>
+        <v>-1630100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4115900</v>
+        <v>-4204100</v>
       </c>
       <c r="J94" s="3">
-        <v>-817100</v>
+        <v>-834600</v>
       </c>
       <c r="K94" s="3">
         <v>-2212800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1376100</v>
+        <v>-1405600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1633500</v>
+        <v>-1668500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2277800</v>
+        <v>-2326600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2701500</v>
+        <v>-2759400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2738400</v>
+        <v>-2797100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2674700</v>
+        <v>-2732100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2563400</v>
+        <v>-2618300</v>
       </c>
       <c r="K96" s="3">
         <v>-2309000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2992200</v>
+        <v>-3056300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2232900</v>
+        <v>-2280800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3626300</v>
+        <v>-3704100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4413800</v>
+        <v>-4508400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2731100</v>
+        <v>-2789700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4976400</v>
+        <v>-5083000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3203300</v>
+        <v>-3272000</v>
       </c>
       <c r="K100" s="3">
         <v>-4330000</v>
@@ -3466,22 +3466,22 @@
         <v>-700</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
-        <v>95400</v>
+        <v>97500</v>
       </c>
       <c r="J101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K101" s="3">
         <v>23900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-75900</v>
+        <v>-77600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="F102" s="3">
-        <v>-228500</v>
+        <v>-233400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1890200</v>
+        <v>-1930700</v>
       </c>
       <c r="H102" s="3">
-        <v>1557600</v>
+        <v>1590900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2987100</v>
+        <v>-3051200</v>
       </c>
       <c r="J102" s="3">
-        <v>2204000</v>
+        <v>2251300</v>
       </c>
       <c r="K102" s="3">
         <v>-972700</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17512200</v>
+        <v>17969800</v>
       </c>
       <c r="E8" s="3">
-        <v>18656300</v>
+        <v>19143800</v>
       </c>
       <c r="F8" s="3">
-        <v>19091300</v>
+        <v>19590200</v>
       </c>
       <c r="G8" s="3">
-        <v>19213200</v>
+        <v>19715300</v>
       </c>
       <c r="H8" s="3">
-        <v>19137900</v>
+        <v>19637900</v>
       </c>
       <c r="I8" s="3">
-        <v>18855000</v>
+        <v>19347700</v>
       </c>
       <c r="J8" s="3">
-        <v>18701400</v>
+        <v>19190000</v>
       </c>
       <c r="K8" s="3">
         <v>16238500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6726400</v>
+        <v>6902200</v>
       </c>
       <c r="E9" s="3">
-        <v>6749300</v>
+        <v>6925700</v>
       </c>
       <c r="F9" s="3">
-        <v>6158400</v>
+        <v>6319400</v>
       </c>
       <c r="G9" s="3">
-        <v>5665800</v>
+        <v>5813900</v>
       </c>
       <c r="H9" s="3">
-        <v>5352600</v>
+        <v>5492500</v>
       </c>
       <c r="I9" s="3">
-        <v>5072700</v>
+        <v>5205300</v>
       </c>
       <c r="J9" s="3">
-        <v>4797200</v>
+        <v>4922600</v>
       </c>
       <c r="K9" s="3">
         <v>8403200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10785800</v>
+        <v>11067600</v>
       </c>
       <c r="E10" s="3">
-        <v>11907000</v>
+        <v>12218100</v>
       </c>
       <c r="F10" s="3">
-        <v>12932900</v>
+        <v>13270800</v>
       </c>
       <c r="G10" s="3">
-        <v>13547400</v>
+        <v>13901400</v>
       </c>
       <c r="H10" s="3">
-        <v>13785200</v>
+        <v>14145400</v>
       </c>
       <c r="I10" s="3">
-        <v>13782300</v>
+        <v>14142400</v>
       </c>
       <c r="J10" s="3">
-        <v>13904100</v>
+        <v>14267500</v>
       </c>
       <c r="K10" s="3">
         <v>7835300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>767400</v>
+        <v>787500</v>
       </c>
       <c r="E14" s="3">
-        <v>1121200</v>
+        <v>1150500</v>
       </c>
       <c r="F14" s="3">
-        <v>613000</v>
+        <v>629100</v>
       </c>
       <c r="G14" s="3">
-        <v>403300</v>
+        <v>413800</v>
       </c>
       <c r="H14" s="3">
-        <v>328700</v>
+        <v>337300</v>
       </c>
       <c r="I14" s="3">
-        <v>114500</v>
+        <v>117500</v>
       </c>
       <c r="J14" s="3">
-        <v>207500</v>
+        <v>213000</v>
       </c>
       <c r="K14" s="3">
         <v>242200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3942600</v>
+        <v>4045700</v>
       </c>
       <c r="E15" s="3">
-        <v>3162700</v>
+        <v>3245300</v>
       </c>
       <c r="F15" s="3">
-        <v>3301500</v>
+        <v>3387800</v>
       </c>
       <c r="G15" s="3">
-        <v>3280100</v>
+        <v>3365800</v>
       </c>
       <c r="H15" s="3">
-        <v>3068900</v>
+        <v>3149100</v>
       </c>
       <c r="I15" s="3">
-        <v>2935200</v>
+        <v>3011900</v>
       </c>
       <c r="J15" s="3">
-        <v>2917500</v>
+        <v>2993700</v>
       </c>
       <c r="K15" s="3">
         <v>5517700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16678300</v>
+        <v>17114100</v>
       </c>
       <c r="E17" s="3">
-        <v>17803200</v>
+        <v>18268400</v>
       </c>
       <c r="F17" s="3">
-        <v>16833400</v>
+        <v>17273300</v>
       </c>
       <c r="G17" s="3">
-        <v>16226300</v>
+        <v>16650300</v>
       </c>
       <c r="H17" s="3">
-        <v>15316300</v>
+        <v>15716600</v>
       </c>
       <c r="I17" s="3">
-        <v>14443300</v>
+        <v>14820700</v>
       </c>
       <c r="J17" s="3">
-        <v>14115400</v>
+        <v>14484200</v>
       </c>
       <c r="K17" s="3">
         <v>12392900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>833900</v>
+        <v>855700</v>
       </c>
       <c r="E18" s="3">
-        <v>853100</v>
+        <v>875400</v>
       </c>
       <c r="F18" s="3">
-        <v>2257900</v>
+        <v>2316900</v>
       </c>
       <c r="G18" s="3">
-        <v>2986900</v>
+        <v>3064900</v>
       </c>
       <c r="H18" s="3">
-        <v>3821500</v>
+        <v>3921400</v>
       </c>
       <c r="I18" s="3">
-        <v>4411700</v>
+        <v>4526900</v>
       </c>
       <c r="J18" s="3">
-        <v>4586000</v>
+        <v>4705800</v>
       </c>
       <c r="K18" s="3">
         <v>3845600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1770400</v>
+        <v>1816700</v>
       </c>
       <c r="E20" s="3">
-        <v>1923300</v>
+        <v>1973600</v>
       </c>
       <c r="F20" s="3">
-        <v>2037100</v>
+        <v>2090300</v>
       </c>
       <c r="G20" s="3">
-        <v>1729800</v>
+        <v>1775000</v>
       </c>
       <c r="H20" s="3">
-        <v>913600</v>
+        <v>937500</v>
       </c>
       <c r="I20" s="3">
-        <v>515500</v>
+        <v>529000</v>
       </c>
       <c r="J20" s="3">
-        <v>681000</v>
+        <v>698800</v>
       </c>
       <c r="K20" s="3">
         <v>202400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6533600</v>
+        <v>6719600</v>
       </c>
       <c r="E21" s="3">
-        <v>5928400</v>
+        <v>6095600</v>
       </c>
       <c r="F21" s="3">
-        <v>7585300</v>
+        <v>7796300</v>
       </c>
       <c r="G21" s="3">
-        <v>7985700</v>
+        <v>8207100</v>
       </c>
       <c r="H21" s="3">
-        <v>7801000</v>
+        <v>8016800</v>
       </c>
       <c r="I21" s="3">
-        <v>7859100</v>
+        <v>8075900</v>
       </c>
       <c r="J21" s="3">
-        <v>8242300</v>
+        <v>8469200</v>
       </c>
       <c r="K21" s="3">
         <v>6853600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>539200</v>
+        <v>553300</v>
       </c>
       <c r="E22" s="3">
-        <v>507400</v>
+        <v>520700</v>
       </c>
       <c r="F22" s="3">
-        <v>499300</v>
+        <v>512300</v>
       </c>
       <c r="G22" s="3">
-        <v>545800</v>
+        <v>560100</v>
       </c>
       <c r="H22" s="3">
-        <v>599000</v>
+        <v>614700</v>
       </c>
       <c r="I22" s="3">
-        <v>599000</v>
+        <v>614700</v>
       </c>
       <c r="J22" s="3">
-        <v>667000</v>
+        <v>684400</v>
       </c>
       <c r="K22" s="3">
         <v>626300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2065100</v>
+        <v>2119100</v>
       </c>
       <c r="E23" s="3">
-        <v>2269000</v>
+        <v>2328300</v>
       </c>
       <c r="F23" s="3">
-        <v>3795700</v>
+        <v>3894800</v>
       </c>
       <c r="G23" s="3">
-        <v>4170900</v>
+        <v>4279900</v>
       </c>
       <c r="H23" s="3">
-        <v>4136200</v>
+        <v>4244200</v>
       </c>
       <c r="I23" s="3">
-        <v>4328200</v>
+        <v>4441300</v>
       </c>
       <c r="J23" s="3">
-        <v>4600000</v>
+        <v>4720200</v>
       </c>
       <c r="K23" s="3">
         <v>3421700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>706800</v>
+        <v>725300</v>
       </c>
       <c r="E24" s="3">
-        <v>681700</v>
+        <v>699500</v>
       </c>
       <c r="F24" s="3">
-        <v>1168500</v>
+        <v>1199000</v>
       </c>
       <c r="G24" s="3">
-        <v>1309500</v>
+        <v>1343800</v>
       </c>
       <c r="H24" s="3">
-        <v>1305800</v>
+        <v>1340000</v>
       </c>
       <c r="I24" s="3">
-        <v>1289600</v>
+        <v>1323300</v>
       </c>
       <c r="J24" s="3">
-        <v>1240100</v>
+        <v>1272500</v>
       </c>
       <c r="K24" s="3">
         <v>1006500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1358300</v>
+        <v>1393800</v>
       </c>
       <c r="E26" s="3">
-        <v>1587300</v>
+        <v>1628700</v>
       </c>
       <c r="F26" s="3">
-        <v>2627200</v>
+        <v>2695900</v>
       </c>
       <c r="G26" s="3">
-        <v>2861300</v>
+        <v>2936100</v>
       </c>
       <c r="H26" s="3">
-        <v>2830300</v>
+        <v>2904300</v>
       </c>
       <c r="I26" s="3">
-        <v>3038600</v>
+        <v>3118000</v>
       </c>
       <c r="J26" s="3">
-        <v>3359900</v>
+        <v>3447700</v>
       </c>
       <c r="K26" s="3">
         <v>2415100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1343500</v>
+        <v>1378600</v>
       </c>
       <c r="E27" s="3">
-        <v>1590900</v>
+        <v>1632500</v>
       </c>
       <c r="F27" s="3">
-        <v>2652300</v>
+        <v>2721600</v>
       </c>
       <c r="G27" s="3">
-        <v>2873900</v>
+        <v>2949000</v>
       </c>
       <c r="H27" s="3">
-        <v>2779400</v>
+        <v>2852000</v>
       </c>
       <c r="I27" s="3">
-        <v>2983900</v>
+        <v>3061900</v>
       </c>
       <c r="J27" s="3">
-        <v>3308200</v>
+        <v>3394600</v>
       </c>
       <c r="K27" s="3">
         <v>2380600</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1489800</v>
+        <v>1528700</v>
       </c>
       <c r="I29" s="3">
-        <v>141100</v>
+        <v>144800</v>
       </c>
       <c r="J29" s="3">
-        <v>-150700</v>
+        <v>-154600</v>
       </c>
       <c r="K29" s="3">
         <v>100200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1770400</v>
+        <v>-1816700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1923300</v>
+        <v>-1973600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2037100</v>
+        <v>-2090300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1729800</v>
+        <v>-1775000</v>
       </c>
       <c r="H32" s="3">
-        <v>-913600</v>
+        <v>-937500</v>
       </c>
       <c r="I32" s="3">
-        <v>-515500</v>
+        <v>-529000</v>
       </c>
       <c r="J32" s="3">
-        <v>-681000</v>
+        <v>-698800</v>
       </c>
       <c r="K32" s="3">
         <v>-202400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1343500</v>
+        <v>1378600</v>
       </c>
       <c r="E33" s="3">
-        <v>1590900</v>
+        <v>1632500</v>
       </c>
       <c r="F33" s="3">
-        <v>2652300</v>
+        <v>2721600</v>
       </c>
       <c r="G33" s="3">
-        <v>2873900</v>
+        <v>2949000</v>
       </c>
       <c r="H33" s="3">
-        <v>4269100</v>
+        <v>4380700</v>
       </c>
       <c r="I33" s="3">
-        <v>3125000</v>
+        <v>3206700</v>
       </c>
       <c r="J33" s="3">
-        <v>3157500</v>
+        <v>3240000</v>
       </c>
       <c r="K33" s="3">
         <v>2480800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1343500</v>
+        <v>1378600</v>
       </c>
       <c r="E35" s="3">
-        <v>1590900</v>
+        <v>1632500</v>
       </c>
       <c r="F35" s="3">
-        <v>2652300</v>
+        <v>2721600</v>
       </c>
       <c r="G35" s="3">
-        <v>2873900</v>
+        <v>2949000</v>
       </c>
       <c r="H35" s="3">
-        <v>4269100</v>
+        <v>4380700</v>
       </c>
       <c r="I35" s="3">
-        <v>3125000</v>
+        <v>3206700</v>
       </c>
       <c r="J35" s="3">
-        <v>3157500</v>
+        <v>3240000</v>
       </c>
       <c r="K35" s="3">
         <v>2480800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175800</v>
+        <v>180400</v>
       </c>
       <c r="E41" s="3">
-        <v>161800</v>
+        <v>166000</v>
       </c>
       <c r="F41" s="3">
-        <v>95300</v>
+        <v>97800</v>
       </c>
       <c r="G41" s="3">
-        <v>849400</v>
+        <v>871600</v>
       </c>
       <c r="H41" s="3">
-        <v>198700</v>
+        <v>203900</v>
       </c>
       <c r="I41" s="3">
-        <v>429100</v>
+        <v>440300</v>
       </c>
       <c r="J41" s="3">
-        <v>225300</v>
+        <v>231200</v>
       </c>
       <c r="K41" s="3">
         <v>196600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>192800</v>
+        <v>197800</v>
       </c>
       <c r="E42" s="3">
-        <v>284400</v>
+        <v>291800</v>
       </c>
       <c r="F42" s="3">
-        <v>369300</v>
+        <v>378900</v>
       </c>
       <c r="G42" s="3">
-        <v>536200</v>
+        <v>550200</v>
       </c>
       <c r="H42" s="3">
-        <v>2423300</v>
+        <v>2486700</v>
       </c>
       <c r="I42" s="3">
-        <v>602000</v>
+        <v>617700</v>
       </c>
       <c r="J42" s="3">
-        <v>3857000</v>
+        <v>3957800</v>
       </c>
       <c r="K42" s="3">
         <v>1455900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3783800</v>
+        <v>3882700</v>
       </c>
       <c r="E43" s="3">
-        <v>3987700</v>
+        <v>4091900</v>
       </c>
       <c r="F43" s="3">
-        <v>6379300</v>
+        <v>6546000</v>
       </c>
       <c r="G43" s="3">
-        <v>8544900</v>
+        <v>8768100</v>
       </c>
       <c r="H43" s="3">
-        <v>3504700</v>
+        <v>3596200</v>
       </c>
       <c r="I43" s="3">
-        <v>3493600</v>
+        <v>3584900</v>
       </c>
       <c r="J43" s="3">
-        <v>3082900</v>
+        <v>3163500</v>
       </c>
       <c r="K43" s="3">
         <v>3090400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>308700</v>
+        <v>316800</v>
       </c>
       <c r="E44" s="3">
-        <v>330900</v>
+        <v>339500</v>
       </c>
       <c r="F44" s="3">
-        <v>363400</v>
+        <v>372900</v>
       </c>
       <c r="G44" s="3">
-        <v>1006000</v>
+        <v>1032300</v>
       </c>
       <c r="H44" s="3">
-        <v>411400</v>
+        <v>422200</v>
       </c>
       <c r="I44" s="3">
-        <v>362700</v>
+        <v>372100</v>
       </c>
       <c r="J44" s="3">
-        <v>267400</v>
+        <v>274400</v>
       </c>
       <c r="K44" s="3">
         <v>287300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364900</v>
+        <v>374400</v>
       </c>
       <c r="E45" s="3">
-        <v>629300</v>
+        <v>645700</v>
       </c>
       <c r="F45" s="3">
-        <v>424700</v>
+        <v>435800</v>
       </c>
       <c r="G45" s="3">
-        <v>398100</v>
+        <v>408500</v>
       </c>
       <c r="H45" s="3">
-        <v>360400</v>
+        <v>369900</v>
       </c>
       <c r="I45" s="3">
-        <v>260700</v>
+        <v>267500</v>
       </c>
       <c r="J45" s="3">
-        <v>277000</v>
+        <v>284200</v>
       </c>
       <c r="K45" s="3">
         <v>238000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4826000</v>
+        <v>4952100</v>
       </c>
       <c r="E46" s="3">
-        <v>5394000</v>
+        <v>5534900</v>
       </c>
       <c r="F46" s="3">
-        <v>5384400</v>
+        <v>5525100</v>
       </c>
       <c r="G46" s="3">
-        <v>5943500</v>
+        <v>6098800</v>
       </c>
       <c r="H46" s="3">
-        <v>6898500</v>
+        <v>7078800</v>
       </c>
       <c r="I46" s="3">
-        <v>5148000</v>
+        <v>5282600</v>
       </c>
       <c r="J46" s="3">
-        <v>7709500</v>
+        <v>7911000</v>
       </c>
       <c r="K46" s="3">
         <v>5268100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1732800</v>
+        <v>1778000</v>
       </c>
       <c r="E47" s="3">
-        <v>1553300</v>
+        <v>1593900</v>
       </c>
       <c r="F47" s="3">
-        <v>1479400</v>
+        <v>1518100</v>
       </c>
       <c r="G47" s="3">
-        <v>1843500</v>
+        <v>1891700</v>
       </c>
       <c r="H47" s="3">
-        <v>1372300</v>
+        <v>1408200</v>
       </c>
       <c r="I47" s="3">
-        <v>1114500</v>
+        <v>1143700</v>
       </c>
       <c r="J47" s="3">
-        <v>957200</v>
+        <v>982200</v>
       </c>
       <c r="K47" s="3">
         <v>665900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18117100</v>
+        <v>18590500</v>
       </c>
       <c r="E48" s="3">
-        <v>16494400</v>
+        <v>16925400</v>
       </c>
       <c r="F48" s="3">
-        <v>16329000</v>
+        <v>16755700</v>
       </c>
       <c r="G48" s="3">
-        <v>31538200</v>
+        <v>32362300</v>
       </c>
       <c r="H48" s="3">
-        <v>15201100</v>
+        <v>15598300</v>
       </c>
       <c r="I48" s="3">
-        <v>15104400</v>
+        <v>15499100</v>
       </c>
       <c r="J48" s="3">
-        <v>14655300</v>
+        <v>15038300</v>
       </c>
       <c r="K48" s="3">
         <v>13549300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5474500</v>
+        <v>5617600</v>
       </c>
       <c r="E49" s="3">
-        <v>5325300</v>
+        <v>5464500</v>
       </c>
       <c r="F49" s="3">
-        <v>6780300</v>
+        <v>6957500</v>
       </c>
       <c r="G49" s="3">
-        <v>13202500</v>
+        <v>13547500</v>
       </c>
       <c r="H49" s="3">
-        <v>6816500</v>
+        <v>6994700</v>
       </c>
       <c r="I49" s="3">
-        <v>7053600</v>
+        <v>7237900</v>
       </c>
       <c r="J49" s="3">
-        <v>4713700</v>
+        <v>4836900</v>
       </c>
       <c r="K49" s="3">
         <v>4500900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2645700</v>
+        <v>2714800</v>
       </c>
       <c r="E52" s="3">
-        <v>2689200</v>
+        <v>2759500</v>
       </c>
       <c r="F52" s="3">
-        <v>2511200</v>
+        <v>2576900</v>
       </c>
       <c r="G52" s="3">
-        <v>2093900</v>
+        <v>2148600</v>
       </c>
       <c r="H52" s="3">
-        <v>1682500</v>
+        <v>1726500</v>
       </c>
       <c r="I52" s="3">
-        <v>1613100</v>
+        <v>1655300</v>
       </c>
       <c r="J52" s="3">
-        <v>1035500</v>
+        <v>1062600</v>
       </c>
       <c r="K52" s="3">
         <v>1697800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32796100</v>
+        <v>33653000</v>
       </c>
       <c r="E54" s="3">
-        <v>31456200</v>
+        <v>32278200</v>
       </c>
       <c r="F54" s="3">
-        <v>31555200</v>
+        <v>32379800</v>
       </c>
       <c r="G54" s="3">
-        <v>31025600</v>
+        <v>31836300</v>
       </c>
       <c r="H54" s="3">
-        <v>31971000</v>
+        <v>32806500</v>
       </c>
       <c r="I54" s="3">
-        <v>29872700</v>
+        <v>30653300</v>
       </c>
       <c r="J54" s="3">
-        <v>29071300</v>
+        <v>29830900</v>
       </c>
       <c r="K54" s="3">
         <v>25682100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>729700</v>
+        <v>748800</v>
       </c>
       <c r="E57" s="3">
-        <v>627100</v>
+        <v>643500</v>
       </c>
       <c r="F57" s="3">
-        <v>1172900</v>
+        <v>1203500</v>
       </c>
       <c r="G57" s="3">
-        <v>3788300</v>
+        <v>3887300</v>
       </c>
       <c r="H57" s="3">
-        <v>1082000</v>
+        <v>1110300</v>
       </c>
       <c r="I57" s="3">
-        <v>927700</v>
+        <v>951900</v>
       </c>
       <c r="J57" s="3">
-        <v>859700</v>
+        <v>882200</v>
       </c>
       <c r="K57" s="3">
         <v>864600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2492000</v>
+        <v>2557200</v>
       </c>
       <c r="E58" s="3">
-        <v>1641200</v>
+        <v>1684100</v>
       </c>
       <c r="F58" s="3">
-        <v>1207600</v>
+        <v>1239200</v>
       </c>
       <c r="G58" s="3">
-        <v>3657500</v>
+        <v>3753100</v>
       </c>
       <c r="H58" s="3">
-        <v>1961000</v>
+        <v>2012200</v>
       </c>
       <c r="I58" s="3">
-        <v>1104900</v>
+        <v>1133800</v>
       </c>
       <c r="J58" s="3">
-        <v>1681800</v>
+        <v>1725700</v>
       </c>
       <c r="K58" s="3">
         <v>500600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4233700</v>
+        <v>4344300</v>
       </c>
       <c r="E59" s="3">
-        <v>4787600</v>
+        <v>4912700</v>
       </c>
       <c r="F59" s="3">
-        <v>5014400</v>
+        <v>5145400</v>
       </c>
       <c r="G59" s="3">
-        <v>5097100</v>
+        <v>5230300</v>
       </c>
       <c r="H59" s="3">
-        <v>3743200</v>
+        <v>3841000</v>
       </c>
       <c r="I59" s="3">
-        <v>4064500</v>
+        <v>4170700</v>
       </c>
       <c r="J59" s="3">
-        <v>3872500</v>
+        <v>3973700</v>
       </c>
       <c r="K59" s="3">
         <v>3649000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7455400</v>
+        <v>7650200</v>
       </c>
       <c r="E60" s="3">
-        <v>7055800</v>
+        <v>7240200</v>
       </c>
       <c r="F60" s="3">
-        <v>6488600</v>
+        <v>6658200</v>
       </c>
       <c r="G60" s="3">
-        <v>6707200</v>
+        <v>6882500</v>
       </c>
       <c r="H60" s="3">
-        <v>6786300</v>
+        <v>6963600</v>
       </c>
       <c r="I60" s="3">
-        <v>6004100</v>
+        <v>6161000</v>
       </c>
       <c r="J60" s="3">
-        <v>6414000</v>
+        <v>6581600</v>
       </c>
       <c r="K60" s="3">
         <v>5014200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11635200</v>
+        <v>11939200</v>
       </c>
       <c r="E61" s="3">
-        <v>11101900</v>
+        <v>11392000</v>
       </c>
       <c r="F61" s="3">
-        <v>11312400</v>
+        <v>11608000</v>
       </c>
       <c r="G61" s="3">
-        <v>10937200</v>
+        <v>11223000</v>
       </c>
       <c r="H61" s="3">
-        <v>10818300</v>
+        <v>11101000</v>
       </c>
       <c r="I61" s="3">
-        <v>10442300</v>
+        <v>10715200</v>
       </c>
       <c r="J61" s="3">
-        <v>10005800</v>
+        <v>10267300</v>
       </c>
       <c r="K61" s="3">
         <v>9541000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2517900</v>
+        <v>2583700</v>
       </c>
       <c r="E62" s="3">
-        <v>2566600</v>
+        <v>2633700</v>
       </c>
       <c r="F62" s="3">
-        <v>3925700</v>
+        <v>4028200</v>
       </c>
       <c r="G62" s="3">
-        <v>3786800</v>
+        <v>3885800</v>
       </c>
       <c r="H62" s="3">
-        <v>2617600</v>
+        <v>2686000</v>
       </c>
       <c r="I62" s="3">
-        <v>2810400</v>
+        <v>2883800</v>
       </c>
       <c r="J62" s="3">
-        <v>2340600</v>
+        <v>2401800</v>
       </c>
       <c r="K62" s="3">
         <v>2544400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22106300</v>
+        <v>22683900</v>
       </c>
       <c r="E66" s="3">
-        <v>20710300</v>
+        <v>21251500</v>
       </c>
       <c r="F66" s="3">
-        <v>20748000</v>
+        <v>21290200</v>
       </c>
       <c r="G66" s="3">
-        <v>20587700</v>
+        <v>21125700</v>
       </c>
       <c r="H66" s="3">
-        <v>20248700</v>
+        <v>20777800</v>
       </c>
       <c r="I66" s="3">
-        <v>19456200</v>
+        <v>19964600</v>
       </c>
       <c r="J66" s="3">
-        <v>18862400</v>
+        <v>19355300</v>
       </c>
       <c r="K66" s="3">
         <v>17275600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7393400</v>
+        <v>7586600</v>
       </c>
       <c r="E72" s="3">
-        <v>7499000</v>
+        <v>7695000</v>
       </c>
       <c r="F72" s="3">
-        <v>7628300</v>
+        <v>7827600</v>
       </c>
       <c r="G72" s="3">
-        <v>7169600</v>
+        <v>7356900</v>
       </c>
       <c r="H72" s="3">
-        <v>7858700</v>
+        <v>8064100</v>
       </c>
       <c r="I72" s="3">
-        <v>6530700</v>
+        <v>6701400</v>
       </c>
       <c r="J72" s="3">
-        <v>6138500</v>
+        <v>6298900</v>
       </c>
       <c r="K72" s="3">
         <v>4993500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10689800</v>
+        <v>10969100</v>
       </c>
       <c r="E76" s="3">
-        <v>10745900</v>
+        <v>11026700</v>
       </c>
       <c r="F76" s="3">
-        <v>10807200</v>
+        <v>11089600</v>
       </c>
       <c r="G76" s="3">
-        <v>10437900</v>
+        <v>10710600</v>
       </c>
       <c r="H76" s="3">
-        <v>11722300</v>
+        <v>12028600</v>
       </c>
       <c r="I76" s="3">
-        <v>10416500</v>
+        <v>10688700</v>
       </c>
       <c r="J76" s="3">
-        <v>10208900</v>
+        <v>10475700</v>
       </c>
       <c r="K76" s="3">
         <v>8406500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1343500</v>
+        <v>1378600</v>
       </c>
       <c r="E81" s="3">
-        <v>1590900</v>
+        <v>1632500</v>
       </c>
       <c r="F81" s="3">
-        <v>2652300</v>
+        <v>2721600</v>
       </c>
       <c r="G81" s="3">
-        <v>2873900</v>
+        <v>2949000</v>
       </c>
       <c r="H81" s="3">
-        <v>4269100</v>
+        <v>4380700</v>
       </c>
       <c r="I81" s="3">
-        <v>3125000</v>
+        <v>3206700</v>
       </c>
       <c r="J81" s="3">
-        <v>3157500</v>
+        <v>3240000</v>
       </c>
       <c r="K81" s="3">
         <v>2480800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3942600</v>
+        <v>4045700</v>
       </c>
       <c r="E83" s="3">
-        <v>3162700</v>
+        <v>3245300</v>
       </c>
       <c r="F83" s="3">
-        <v>3301500</v>
+        <v>3387800</v>
       </c>
       <c r="G83" s="3">
-        <v>3280100</v>
+        <v>3365800</v>
       </c>
       <c r="H83" s="3">
-        <v>3076300</v>
+        <v>3156700</v>
       </c>
       <c r="I83" s="3">
-        <v>2941800</v>
+        <v>3018700</v>
       </c>
       <c r="J83" s="3">
-        <v>2985400</v>
+        <v>3063400</v>
       </c>
       <c r="K83" s="3">
         <v>2811900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5177600</v>
+        <v>5312900</v>
       </c>
       <c r="E89" s="3">
-        <v>4936100</v>
+        <v>5065000</v>
       </c>
       <c r="F89" s="3">
-        <v>6356400</v>
+        <v>6522500</v>
       </c>
       <c r="G89" s="3">
-        <v>5742600</v>
+        <v>5892700</v>
       </c>
       <c r="H89" s="3">
-        <v>6007000</v>
+        <v>6164000</v>
       </c>
       <c r="I89" s="3">
-        <v>6138500</v>
+        <v>6298900</v>
       </c>
       <c r="J89" s="3">
-        <v>6361600</v>
+        <v>6527800</v>
       </c>
       <c r="K89" s="3">
         <v>5546200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1729100</v>
+        <v>-1774200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2389400</v>
+        <v>-2451800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2637500</v>
+        <v>-2706500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2751300</v>
+        <v>-2823200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2253500</v>
+        <v>-2312400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2101300</v>
+        <v>-2156200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2118300</v>
+        <v>-2173700</v>
       </c>
       <c r="K91" s="3">
         <v>-1869700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2198100</v>
+        <v>-2255500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2670000</v>
+        <v>-2739800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2888700</v>
+        <v>-2964100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3160500</v>
+        <v>-3243100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1630100</v>
+        <v>-1672700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4204100</v>
+        <v>-4314000</v>
       </c>
       <c r="J94" s="3">
-        <v>-834600</v>
+        <v>-856400</v>
       </c>
       <c r="K94" s="3">
         <v>-2212800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1405600</v>
+        <v>-1442300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1668500</v>
+        <v>-1712100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2326600</v>
+        <v>-2387400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2759400</v>
+        <v>-2831500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2797100</v>
+        <v>-2870200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2732100</v>
+        <v>-2803500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2618300</v>
+        <v>-2686800</v>
       </c>
       <c r="K96" s="3">
         <v>-2309000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3056300</v>
+        <v>-3136200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2280800</v>
+        <v>-2340400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3704100</v>
+        <v>-3800900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4508400</v>
+        <v>-4626200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2789700</v>
+        <v>-2862600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5083000</v>
+        <v>-5215900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3272000</v>
+        <v>-3357500</v>
       </c>
       <c r="K100" s="3">
         <v>-4330000</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
         <v>3000</v>
@@ -3472,16 +3472,16 @@
         <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I101" s="3">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="J101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K101" s="3">
         <v>23900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-77600</v>
+        <v>-79600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="F102" s="3">
-        <v>-233400</v>
+        <v>-239500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1930700</v>
+        <v>-1981200</v>
       </c>
       <c r="H102" s="3">
-        <v>1590900</v>
+        <v>1632500</v>
       </c>
       <c r="I102" s="3">
-        <v>-3051200</v>
+        <v>-3130900</v>
       </c>
       <c r="J102" s="3">
-        <v>2251300</v>
+        <v>2310100</v>
       </c>
       <c r="K102" s="3">
         <v>-972700</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17969800</v>
+        <v>18375300</v>
       </c>
       <c r="E8" s="3">
-        <v>19143800</v>
+        <v>19575700</v>
       </c>
       <c r="F8" s="3">
-        <v>19590200</v>
+        <v>20032200</v>
       </c>
       <c r="G8" s="3">
-        <v>19715300</v>
+        <v>20160100</v>
       </c>
       <c r="H8" s="3">
-        <v>19637900</v>
+        <v>20081000</v>
       </c>
       <c r="I8" s="3">
-        <v>19347700</v>
+        <v>19784200</v>
       </c>
       <c r="J8" s="3">
-        <v>19190000</v>
+        <v>19623000</v>
       </c>
       <c r="K8" s="3">
         <v>16238500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6902200</v>
+        <v>7057900</v>
       </c>
       <c r="E9" s="3">
-        <v>6925700</v>
+        <v>7082000</v>
       </c>
       <c r="F9" s="3">
-        <v>6319400</v>
+        <v>6462000</v>
       </c>
       <c r="G9" s="3">
-        <v>5813900</v>
+        <v>5945000</v>
       </c>
       <c r="H9" s="3">
-        <v>5492500</v>
+        <v>5616400</v>
       </c>
       <c r="I9" s="3">
-        <v>5205300</v>
+        <v>5322700</v>
       </c>
       <c r="J9" s="3">
-        <v>4922600</v>
+        <v>5033600</v>
       </c>
       <c r="K9" s="3">
         <v>8403200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11067600</v>
+        <v>11317300</v>
       </c>
       <c r="E10" s="3">
-        <v>12218100</v>
+        <v>12493800</v>
       </c>
       <c r="F10" s="3">
-        <v>13270800</v>
+        <v>13570300</v>
       </c>
       <c r="G10" s="3">
-        <v>13901400</v>
+        <v>14215100</v>
       </c>
       <c r="H10" s="3">
-        <v>14145400</v>
+        <v>14464600</v>
       </c>
       <c r="I10" s="3">
-        <v>14142400</v>
+        <v>14461500</v>
       </c>
       <c r="J10" s="3">
-        <v>14267500</v>
+        <v>14589400</v>
       </c>
       <c r="K10" s="3">
         <v>7835300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>787500</v>
+        <v>805200</v>
       </c>
       <c r="E14" s="3">
-        <v>1150500</v>
+        <v>1176500</v>
       </c>
       <c r="F14" s="3">
-        <v>629100</v>
+        <v>643300</v>
       </c>
       <c r="G14" s="3">
-        <v>413800</v>
+        <v>423200</v>
       </c>
       <c r="H14" s="3">
-        <v>337300</v>
+        <v>344900</v>
       </c>
       <c r="I14" s="3">
-        <v>117500</v>
+        <v>120100</v>
       </c>
       <c r="J14" s="3">
-        <v>213000</v>
+        <v>217800</v>
       </c>
       <c r="K14" s="3">
         <v>242200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4045700</v>
+        <v>4137000</v>
       </c>
       <c r="E15" s="3">
-        <v>3245300</v>
+        <v>3318600</v>
       </c>
       <c r="F15" s="3">
-        <v>3387800</v>
+        <v>3464300</v>
       </c>
       <c r="G15" s="3">
-        <v>3365800</v>
+        <v>3441800</v>
       </c>
       <c r="H15" s="3">
-        <v>3149100</v>
+        <v>3220100</v>
       </c>
       <c r="I15" s="3">
-        <v>3011900</v>
+        <v>3079900</v>
       </c>
       <c r="J15" s="3">
-        <v>2993700</v>
+        <v>3061300</v>
       </c>
       <c r="K15" s="3">
         <v>5517700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17114100</v>
+        <v>17500300</v>
       </c>
       <c r="E17" s="3">
-        <v>18268400</v>
+        <v>18680600</v>
       </c>
       <c r="F17" s="3">
-        <v>17273300</v>
+        <v>17663000</v>
       </c>
       <c r="G17" s="3">
-        <v>16650300</v>
+        <v>17026000</v>
       </c>
       <c r="H17" s="3">
-        <v>15716600</v>
+        <v>16071200</v>
       </c>
       <c r="I17" s="3">
-        <v>14820700</v>
+        <v>15155100</v>
       </c>
       <c r="J17" s="3">
-        <v>14484200</v>
+        <v>14811000</v>
       </c>
       <c r="K17" s="3">
         <v>12392900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>855700</v>
+        <v>875000</v>
       </c>
       <c r="E18" s="3">
-        <v>875400</v>
+        <v>895100</v>
       </c>
       <c r="F18" s="3">
-        <v>2316900</v>
+        <v>2369200</v>
       </c>
       <c r="G18" s="3">
-        <v>3064900</v>
+        <v>3134100</v>
       </c>
       <c r="H18" s="3">
-        <v>3921400</v>
+        <v>4009900</v>
       </c>
       <c r="I18" s="3">
-        <v>4526900</v>
+        <v>4629100</v>
       </c>
       <c r="J18" s="3">
-        <v>4705800</v>
+        <v>4812000</v>
       </c>
       <c r="K18" s="3">
         <v>3845600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1816700</v>
+        <v>1857700</v>
       </c>
       <c r="E20" s="3">
-        <v>1973600</v>
+        <v>2018100</v>
       </c>
       <c r="F20" s="3">
-        <v>2090300</v>
+        <v>2137500</v>
       </c>
       <c r="G20" s="3">
-        <v>1775000</v>
+        <v>1815100</v>
       </c>
       <c r="H20" s="3">
-        <v>937500</v>
+        <v>958700</v>
       </c>
       <c r="I20" s="3">
-        <v>529000</v>
+        <v>540900</v>
       </c>
       <c r="J20" s="3">
-        <v>698800</v>
+        <v>714600</v>
       </c>
       <c r="K20" s="3">
         <v>202400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6719600</v>
+        <v>6870700</v>
       </c>
       <c r="E21" s="3">
-        <v>6095600</v>
+        <v>6232600</v>
       </c>
       <c r="F21" s="3">
-        <v>7796300</v>
+        <v>7971800</v>
       </c>
       <c r="G21" s="3">
-        <v>8207100</v>
+        <v>8391800</v>
       </c>
       <c r="H21" s="3">
-        <v>8016800</v>
+        <v>8197200</v>
       </c>
       <c r="I21" s="3">
-        <v>8075900</v>
+        <v>8257600</v>
       </c>
       <c r="J21" s="3">
-        <v>8469200</v>
+        <v>8659900</v>
       </c>
       <c r="K21" s="3">
         <v>6853600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>553300</v>
+        <v>565800</v>
       </c>
       <c r="E22" s="3">
-        <v>520700</v>
+        <v>532400</v>
       </c>
       <c r="F22" s="3">
-        <v>512300</v>
+        <v>523900</v>
       </c>
       <c r="G22" s="3">
-        <v>560100</v>
+        <v>572700</v>
       </c>
       <c r="H22" s="3">
-        <v>614700</v>
+        <v>628500</v>
       </c>
       <c r="I22" s="3">
-        <v>614700</v>
+        <v>628500</v>
       </c>
       <c r="J22" s="3">
-        <v>684400</v>
+        <v>699800</v>
       </c>
       <c r="K22" s="3">
         <v>626300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2119100</v>
+        <v>2166900</v>
       </c>
       <c r="E23" s="3">
-        <v>2328300</v>
+        <v>2380800</v>
       </c>
       <c r="F23" s="3">
-        <v>3894800</v>
+        <v>3982700</v>
       </c>
       <c r="G23" s="3">
-        <v>4279900</v>
+        <v>4376400</v>
       </c>
       <c r="H23" s="3">
-        <v>4244200</v>
+        <v>4340000</v>
       </c>
       <c r="I23" s="3">
-        <v>4441300</v>
+        <v>4541500</v>
       </c>
       <c r="J23" s="3">
-        <v>4720200</v>
+        <v>4826700</v>
       </c>
       <c r="K23" s="3">
         <v>3421700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>725300</v>
+        <v>741700</v>
       </c>
       <c r="E24" s="3">
-        <v>699500</v>
+        <v>715300</v>
       </c>
       <c r="F24" s="3">
-        <v>1199000</v>
+        <v>1226100</v>
       </c>
       <c r="G24" s="3">
-        <v>1343800</v>
+        <v>1374100</v>
       </c>
       <c r="H24" s="3">
-        <v>1340000</v>
+        <v>1370200</v>
       </c>
       <c r="I24" s="3">
-        <v>1323300</v>
+        <v>1353200</v>
       </c>
       <c r="J24" s="3">
-        <v>1272500</v>
+        <v>1301200</v>
       </c>
       <c r="K24" s="3">
         <v>1006500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1393800</v>
+        <v>1425200</v>
       </c>
       <c r="E26" s="3">
-        <v>1628700</v>
+        <v>1665500</v>
       </c>
       <c r="F26" s="3">
-        <v>2695900</v>
+        <v>2756700</v>
       </c>
       <c r="G26" s="3">
-        <v>2936100</v>
+        <v>3002400</v>
       </c>
       <c r="H26" s="3">
-        <v>2904300</v>
+        <v>2969800</v>
       </c>
       <c r="I26" s="3">
-        <v>3118000</v>
+        <v>3188400</v>
       </c>
       <c r="J26" s="3">
-        <v>3447700</v>
+        <v>3525500</v>
       </c>
       <c r="K26" s="3">
         <v>2415100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1378600</v>
+        <v>1409700</v>
       </c>
       <c r="E27" s="3">
-        <v>1632500</v>
+        <v>1669400</v>
       </c>
       <c r="F27" s="3">
-        <v>2721600</v>
+        <v>2783000</v>
       </c>
       <c r="G27" s="3">
-        <v>2949000</v>
+        <v>3015500</v>
       </c>
       <c r="H27" s="3">
-        <v>2852000</v>
+        <v>2916300</v>
       </c>
       <c r="I27" s="3">
-        <v>3061900</v>
+        <v>3131000</v>
       </c>
       <c r="J27" s="3">
-        <v>3394600</v>
+        <v>3471200</v>
       </c>
       <c r="K27" s="3">
         <v>2380600</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1528700</v>
+        <v>1563200</v>
       </c>
       <c r="I29" s="3">
-        <v>144800</v>
+        <v>148000</v>
       </c>
       <c r="J29" s="3">
-        <v>-154600</v>
+        <v>-158100</v>
       </c>
       <c r="K29" s="3">
         <v>100200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1816700</v>
+        <v>-1857700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1973600</v>
+        <v>-2018100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2090300</v>
+        <v>-2137500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1775000</v>
+        <v>-1815100</v>
       </c>
       <c r="H32" s="3">
-        <v>-937500</v>
+        <v>-958700</v>
       </c>
       <c r="I32" s="3">
-        <v>-529000</v>
+        <v>-540900</v>
       </c>
       <c r="J32" s="3">
-        <v>-698800</v>
+        <v>-714600</v>
       </c>
       <c r="K32" s="3">
         <v>-202400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1378600</v>
+        <v>1409700</v>
       </c>
       <c r="E33" s="3">
-        <v>1632500</v>
+        <v>1669400</v>
       </c>
       <c r="F33" s="3">
-        <v>2721600</v>
+        <v>2783000</v>
       </c>
       <c r="G33" s="3">
-        <v>2949000</v>
+        <v>3015500</v>
       </c>
       <c r="H33" s="3">
-        <v>4380700</v>
+        <v>4479500</v>
       </c>
       <c r="I33" s="3">
-        <v>3206700</v>
+        <v>3279000</v>
       </c>
       <c r="J33" s="3">
-        <v>3240000</v>
+        <v>3313100</v>
       </c>
       <c r="K33" s="3">
         <v>2480800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1378600</v>
+        <v>1409700</v>
       </c>
       <c r="E35" s="3">
-        <v>1632500</v>
+        <v>1669400</v>
       </c>
       <c r="F35" s="3">
-        <v>2721600</v>
+        <v>2783000</v>
       </c>
       <c r="G35" s="3">
-        <v>2949000</v>
+        <v>3015500</v>
       </c>
       <c r="H35" s="3">
-        <v>4380700</v>
+        <v>4479500</v>
       </c>
       <c r="I35" s="3">
-        <v>3206700</v>
+        <v>3279000</v>
       </c>
       <c r="J35" s="3">
-        <v>3240000</v>
+        <v>3313100</v>
       </c>
       <c r="K35" s="3">
         <v>2480800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180400</v>
+        <v>184500</v>
       </c>
       <c r="E41" s="3">
-        <v>166000</v>
+        <v>169700</v>
       </c>
       <c r="F41" s="3">
-        <v>97800</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="3">
-        <v>871600</v>
+        <v>891300</v>
       </c>
       <c r="H41" s="3">
-        <v>203900</v>
+        <v>208500</v>
       </c>
       <c r="I41" s="3">
-        <v>440300</v>
+        <v>450300</v>
       </c>
       <c r="J41" s="3">
-        <v>231200</v>
+        <v>236400</v>
       </c>
       <c r="K41" s="3">
         <v>196600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>197800</v>
+        <v>202300</v>
       </c>
       <c r="E42" s="3">
-        <v>291800</v>
+        <v>298400</v>
       </c>
       <c r="F42" s="3">
-        <v>378900</v>
+        <v>387500</v>
       </c>
       <c r="G42" s="3">
-        <v>550200</v>
+        <v>562600</v>
       </c>
       <c r="H42" s="3">
-        <v>2486700</v>
+        <v>2542800</v>
       </c>
       <c r="I42" s="3">
-        <v>617700</v>
+        <v>631600</v>
       </c>
       <c r="J42" s="3">
-        <v>3957800</v>
+        <v>4047100</v>
       </c>
       <c r="K42" s="3">
         <v>1455900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3882700</v>
+        <v>3970300</v>
       </c>
       <c r="E43" s="3">
-        <v>4091900</v>
+        <v>4184200</v>
       </c>
       <c r="F43" s="3">
-        <v>6546000</v>
+        <v>6693700</v>
       </c>
       <c r="G43" s="3">
-        <v>8768100</v>
+        <v>8966000</v>
       </c>
       <c r="H43" s="3">
-        <v>3596200</v>
+        <v>3677400</v>
       </c>
       <c r="I43" s="3">
-        <v>3584900</v>
+        <v>3665800</v>
       </c>
       <c r="J43" s="3">
-        <v>3163500</v>
+        <v>3234800</v>
       </c>
       <c r="K43" s="3">
         <v>3090400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316800</v>
+        <v>323900</v>
       </c>
       <c r="E44" s="3">
-        <v>339500</v>
+        <v>347200</v>
       </c>
       <c r="F44" s="3">
-        <v>372900</v>
+        <v>381300</v>
       </c>
       <c r="G44" s="3">
-        <v>1032300</v>
+        <v>1055500</v>
       </c>
       <c r="H44" s="3">
-        <v>422200</v>
+        <v>431700</v>
       </c>
       <c r="I44" s="3">
-        <v>372100</v>
+        <v>380500</v>
       </c>
       <c r="J44" s="3">
-        <v>274400</v>
+        <v>280600</v>
       </c>
       <c r="K44" s="3">
         <v>287300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>374400</v>
+        <v>382900</v>
       </c>
       <c r="E45" s="3">
-        <v>645700</v>
+        <v>660300</v>
       </c>
       <c r="F45" s="3">
-        <v>435800</v>
+        <v>445600</v>
       </c>
       <c r="G45" s="3">
-        <v>408500</v>
+        <v>417700</v>
       </c>
       <c r="H45" s="3">
-        <v>369900</v>
+        <v>378200</v>
       </c>
       <c r="I45" s="3">
-        <v>267500</v>
+        <v>273600</v>
       </c>
       <c r="J45" s="3">
-        <v>284200</v>
+        <v>290600</v>
       </c>
       <c r="K45" s="3">
         <v>238000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4952100</v>
+        <v>5063900</v>
       </c>
       <c r="E46" s="3">
-        <v>5534900</v>
+        <v>5659800</v>
       </c>
       <c r="F46" s="3">
-        <v>5525100</v>
+        <v>5649800</v>
       </c>
       <c r="G46" s="3">
-        <v>6098800</v>
+        <v>6236400</v>
       </c>
       <c r="H46" s="3">
-        <v>7078800</v>
+        <v>7238500</v>
       </c>
       <c r="I46" s="3">
-        <v>5282600</v>
+        <v>5401800</v>
       </c>
       <c r="J46" s="3">
-        <v>7911000</v>
+        <v>8089400</v>
       </c>
       <c r="K46" s="3">
         <v>5268100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1778000</v>
+        <v>1818200</v>
       </c>
       <c r="E47" s="3">
-        <v>1593900</v>
+        <v>1629800</v>
       </c>
       <c r="F47" s="3">
-        <v>1518100</v>
+        <v>1552300</v>
       </c>
       <c r="G47" s="3">
-        <v>1891700</v>
+        <v>1934400</v>
       </c>
       <c r="H47" s="3">
-        <v>1408200</v>
+        <v>1440000</v>
       </c>
       <c r="I47" s="3">
-        <v>1143700</v>
+        <v>1169500</v>
       </c>
       <c r="J47" s="3">
-        <v>982200</v>
+        <v>1004400</v>
       </c>
       <c r="K47" s="3">
         <v>665900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18590500</v>
+        <v>19010000</v>
       </c>
       <c r="E48" s="3">
-        <v>16925400</v>
+        <v>17307300</v>
       </c>
       <c r="F48" s="3">
-        <v>16755700</v>
+        <v>17133700</v>
       </c>
       <c r="G48" s="3">
-        <v>32362300</v>
+        <v>33092500</v>
       </c>
       <c r="H48" s="3">
-        <v>15598300</v>
+        <v>15950300</v>
       </c>
       <c r="I48" s="3">
-        <v>15499100</v>
+        <v>15848800</v>
       </c>
       <c r="J48" s="3">
-        <v>15038300</v>
+        <v>15377600</v>
       </c>
       <c r="K48" s="3">
         <v>13549300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5617600</v>
+        <v>5744300</v>
       </c>
       <c r="E49" s="3">
-        <v>5464500</v>
+        <v>5587800</v>
       </c>
       <c r="F49" s="3">
-        <v>6957500</v>
+        <v>7114500</v>
       </c>
       <c r="G49" s="3">
-        <v>13547500</v>
+        <v>13853100</v>
       </c>
       <c r="H49" s="3">
-        <v>6994700</v>
+        <v>7152500</v>
       </c>
       <c r="I49" s="3">
-        <v>7237900</v>
+        <v>7401300</v>
       </c>
       <c r="J49" s="3">
-        <v>4836900</v>
+        <v>4946100</v>
       </c>
       <c r="K49" s="3">
         <v>4500900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2714800</v>
+        <v>2776100</v>
       </c>
       <c r="E52" s="3">
-        <v>2759500</v>
+        <v>2821800</v>
       </c>
       <c r="F52" s="3">
-        <v>2576900</v>
+        <v>2635000</v>
       </c>
       <c r="G52" s="3">
-        <v>2148600</v>
+        <v>2197100</v>
       </c>
       <c r="H52" s="3">
-        <v>1726500</v>
+        <v>1765500</v>
       </c>
       <c r="I52" s="3">
-        <v>1655300</v>
+        <v>1692600</v>
       </c>
       <c r="J52" s="3">
-        <v>1062600</v>
+        <v>1086500</v>
       </c>
       <c r="K52" s="3">
         <v>1697800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33653000</v>
+        <v>34412300</v>
       </c>
       <c r="E54" s="3">
-        <v>32278200</v>
+        <v>33006500</v>
       </c>
       <c r="F54" s="3">
-        <v>32379800</v>
+        <v>33110300</v>
       </c>
       <c r="G54" s="3">
-        <v>31836300</v>
+        <v>32554700</v>
       </c>
       <c r="H54" s="3">
-        <v>32806500</v>
+        <v>33546700</v>
       </c>
       <c r="I54" s="3">
-        <v>30653300</v>
+        <v>31344900</v>
       </c>
       <c r="J54" s="3">
-        <v>29830900</v>
+        <v>30504000</v>
       </c>
       <c r="K54" s="3">
         <v>25682100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>748800</v>
+        <v>765700</v>
       </c>
       <c r="E57" s="3">
-        <v>643500</v>
+        <v>658000</v>
       </c>
       <c r="F57" s="3">
-        <v>1203500</v>
+        <v>1230700</v>
       </c>
       <c r="G57" s="3">
-        <v>3887300</v>
+        <v>3975000</v>
       </c>
       <c r="H57" s="3">
-        <v>1110300</v>
+        <v>1135400</v>
       </c>
       <c r="I57" s="3">
-        <v>951900</v>
+        <v>973400</v>
       </c>
       <c r="J57" s="3">
-        <v>882200</v>
+        <v>902100</v>
       </c>
       <c r="K57" s="3">
         <v>864600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2557200</v>
+        <v>2614800</v>
       </c>
       <c r="E58" s="3">
-        <v>1684100</v>
+        <v>1722000</v>
       </c>
       <c r="F58" s="3">
-        <v>1239200</v>
+        <v>1267100</v>
       </c>
       <c r="G58" s="3">
-        <v>3753100</v>
+        <v>3837800</v>
       </c>
       <c r="H58" s="3">
-        <v>2012200</v>
+        <v>2057600</v>
       </c>
       <c r="I58" s="3">
-        <v>1133800</v>
+        <v>1159400</v>
       </c>
       <c r="J58" s="3">
-        <v>1725700</v>
+        <v>1764700</v>
       </c>
       <c r="K58" s="3">
         <v>500600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4344300</v>
+        <v>4442300</v>
       </c>
       <c r="E59" s="3">
-        <v>4912700</v>
+        <v>5023600</v>
       </c>
       <c r="F59" s="3">
-        <v>5145400</v>
+        <v>5261500</v>
       </c>
       <c r="G59" s="3">
-        <v>5230300</v>
+        <v>5348300</v>
       </c>
       <c r="H59" s="3">
-        <v>3841000</v>
+        <v>3927700</v>
       </c>
       <c r="I59" s="3">
-        <v>4170700</v>
+        <v>4264800</v>
       </c>
       <c r="J59" s="3">
-        <v>3973700</v>
+        <v>4063300</v>
       </c>
       <c r="K59" s="3">
         <v>3649000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7650200</v>
+        <v>7822900</v>
       </c>
       <c r="E60" s="3">
-        <v>7240200</v>
+        <v>7403600</v>
       </c>
       <c r="F60" s="3">
-        <v>6658200</v>
+        <v>6808400</v>
       </c>
       <c r="G60" s="3">
-        <v>6882500</v>
+        <v>7037800</v>
       </c>
       <c r="H60" s="3">
-        <v>6963600</v>
+        <v>7120700</v>
       </c>
       <c r="I60" s="3">
-        <v>6161000</v>
+        <v>6300000</v>
       </c>
       <c r="J60" s="3">
-        <v>6581600</v>
+        <v>6730100</v>
       </c>
       <c r="K60" s="3">
         <v>5014200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11939200</v>
+        <v>12208600</v>
       </c>
       <c r="E61" s="3">
-        <v>11392000</v>
+        <v>11649000</v>
       </c>
       <c r="F61" s="3">
-        <v>11608000</v>
+        <v>11869900</v>
       </c>
       <c r="G61" s="3">
-        <v>11223000</v>
+        <v>11476200</v>
       </c>
       <c r="H61" s="3">
-        <v>11101000</v>
+        <v>11351400</v>
       </c>
       <c r="I61" s="3">
-        <v>10715200</v>
+        <v>10957000</v>
       </c>
       <c r="J61" s="3">
-        <v>10267300</v>
+        <v>10498900</v>
       </c>
       <c r="K61" s="3">
         <v>9541000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2583700</v>
+        <v>2642000</v>
       </c>
       <c r="E62" s="3">
-        <v>2633700</v>
+        <v>2693100</v>
       </c>
       <c r="F62" s="3">
-        <v>4028200</v>
+        <v>4119100</v>
       </c>
       <c r="G62" s="3">
-        <v>3885800</v>
+        <v>3973400</v>
       </c>
       <c r="H62" s="3">
-        <v>2686000</v>
+        <v>2746600</v>
       </c>
       <c r="I62" s="3">
-        <v>2883800</v>
+        <v>2948900</v>
       </c>
       <c r="J62" s="3">
-        <v>2401800</v>
+        <v>2456000</v>
       </c>
       <c r="K62" s="3">
         <v>2544400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22683900</v>
+        <v>23195800</v>
       </c>
       <c r="E66" s="3">
-        <v>21251500</v>
+        <v>21731000</v>
       </c>
       <c r="F66" s="3">
-        <v>21290200</v>
+        <v>21770500</v>
       </c>
       <c r="G66" s="3">
-        <v>21125700</v>
+        <v>21602400</v>
       </c>
       <c r="H66" s="3">
-        <v>20777800</v>
+        <v>21246600</v>
       </c>
       <c r="I66" s="3">
-        <v>19964600</v>
+        <v>20415000</v>
       </c>
       <c r="J66" s="3">
-        <v>19355300</v>
+        <v>19792000</v>
       </c>
       <c r="K66" s="3">
         <v>17275600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7586600</v>
+        <v>7757800</v>
       </c>
       <c r="E72" s="3">
-        <v>7695000</v>
+        <v>7868600</v>
       </c>
       <c r="F72" s="3">
-        <v>7827600</v>
+        <v>8004200</v>
       </c>
       <c r="G72" s="3">
-        <v>7356900</v>
+        <v>7522900</v>
       </c>
       <c r="H72" s="3">
-        <v>8064100</v>
+        <v>8246000</v>
       </c>
       <c r="I72" s="3">
-        <v>6701400</v>
+        <v>6852600</v>
       </c>
       <c r="J72" s="3">
-        <v>6298900</v>
+        <v>6441000</v>
       </c>
       <c r="K72" s="3">
         <v>4993500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10969100</v>
+        <v>11216600</v>
       </c>
       <c r="E76" s="3">
-        <v>11026700</v>
+        <v>11275500</v>
       </c>
       <c r="F76" s="3">
-        <v>11089600</v>
+        <v>11339800</v>
       </c>
       <c r="G76" s="3">
-        <v>10710600</v>
+        <v>10952300</v>
       </c>
       <c r="H76" s="3">
-        <v>12028600</v>
+        <v>12300000</v>
       </c>
       <c r="I76" s="3">
-        <v>10688700</v>
+        <v>10929800</v>
       </c>
       <c r="J76" s="3">
-        <v>10475700</v>
+        <v>10712100</v>
       </c>
       <c r="K76" s="3">
         <v>8406500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1378600</v>
+        <v>1409700</v>
       </c>
       <c r="E81" s="3">
-        <v>1632500</v>
+        <v>1669400</v>
       </c>
       <c r="F81" s="3">
-        <v>2721600</v>
+        <v>2783000</v>
       </c>
       <c r="G81" s="3">
-        <v>2949000</v>
+        <v>3015500</v>
       </c>
       <c r="H81" s="3">
-        <v>4380700</v>
+        <v>4479500</v>
       </c>
       <c r="I81" s="3">
-        <v>3206700</v>
+        <v>3279000</v>
       </c>
       <c r="J81" s="3">
-        <v>3240000</v>
+        <v>3313100</v>
       </c>
       <c r="K81" s="3">
         <v>2480800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4045700</v>
+        <v>4137000</v>
       </c>
       <c r="E83" s="3">
-        <v>3245300</v>
+        <v>3318600</v>
       </c>
       <c r="F83" s="3">
-        <v>3387800</v>
+        <v>3464300</v>
       </c>
       <c r="G83" s="3">
-        <v>3365800</v>
+        <v>3441800</v>
       </c>
       <c r="H83" s="3">
-        <v>3156700</v>
+        <v>3227900</v>
       </c>
       <c r="I83" s="3">
-        <v>3018700</v>
+        <v>3086800</v>
       </c>
       <c r="J83" s="3">
-        <v>3063400</v>
+        <v>3132600</v>
       </c>
       <c r="K83" s="3">
         <v>2811900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5312900</v>
+        <v>5432800</v>
       </c>
       <c r="E89" s="3">
-        <v>5065000</v>
+        <v>5179300</v>
       </c>
       <c r="F89" s="3">
-        <v>6522500</v>
+        <v>6669700</v>
       </c>
       <c r="G89" s="3">
-        <v>5892700</v>
+        <v>6025600</v>
       </c>
       <c r="H89" s="3">
-        <v>6164000</v>
+        <v>6303100</v>
       </c>
       <c r="I89" s="3">
-        <v>6298900</v>
+        <v>6441000</v>
       </c>
       <c r="J89" s="3">
-        <v>6527800</v>
+        <v>6675100</v>
       </c>
       <c r="K89" s="3">
         <v>5546200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1774200</v>
+        <v>-1814300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2451800</v>
+        <v>-2507100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2706500</v>
+        <v>-2767500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2823200</v>
+        <v>-2886900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2312400</v>
+        <v>-2364500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2156200</v>
+        <v>-2204900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2173700</v>
+        <v>-2222700</v>
       </c>
       <c r="K91" s="3">
         <v>-1869700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2255500</v>
+        <v>-2306400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2739800</v>
+        <v>-2801600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2964100</v>
+        <v>-3031000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3243100</v>
+        <v>-3316200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1672700</v>
+        <v>-1710400</v>
       </c>
       <c r="I94" s="3">
-        <v>-4314000</v>
+        <v>-4411300</v>
       </c>
       <c r="J94" s="3">
-        <v>-856400</v>
+        <v>-875800</v>
       </c>
       <c r="K94" s="3">
         <v>-2212800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1442300</v>
+        <v>-1474800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1712100</v>
+        <v>-1750700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2387400</v>
+        <v>-2441300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2831500</v>
+        <v>-2895400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2870200</v>
+        <v>-2934900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2803500</v>
+        <v>-2866700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2686800</v>
+        <v>-2747400</v>
       </c>
       <c r="K96" s="3">
         <v>-2309000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3136200</v>
+        <v>-3207000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2340400</v>
+        <v>-2393200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3800900</v>
+        <v>-3886600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4626200</v>
+        <v>-4730600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2862600</v>
+        <v>-2927200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5215900</v>
+        <v>-5333600</v>
       </c>
       <c r="J100" s="3">
-        <v>-3357500</v>
+        <v>-3433300</v>
       </c>
       <c r="K100" s="3">
         <v>-4330000</v>
@@ -3466,22 +3466,22 @@
         <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="H101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>100000</v>
+        <v>102300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K101" s="3">
         <v>23900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-79600</v>
+        <v>-81400</v>
       </c>
       <c r="E102" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="F102" s="3">
-        <v>-239500</v>
+        <v>-244900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1981200</v>
+        <v>-2025900</v>
       </c>
       <c r="H102" s="3">
-        <v>1632500</v>
+        <v>1669400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3130900</v>
+        <v>-3201500</v>
       </c>
       <c r="J102" s="3">
-        <v>2310100</v>
+        <v>2362200</v>
       </c>
       <c r="K102" s="3">
         <v>-972700</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18375300</v>
+        <v>15405300</v>
       </c>
       <c r="E8" s="3">
-        <v>19575700</v>
+        <v>16943200</v>
       </c>
       <c r="F8" s="3">
-        <v>20032200</v>
+        <v>18050100</v>
       </c>
       <c r="G8" s="3">
-        <v>20160100</v>
+        <v>18471000</v>
       </c>
       <c r="H8" s="3">
-        <v>20081000</v>
+        <v>18588900</v>
       </c>
       <c r="I8" s="3">
-        <v>19784200</v>
+        <v>18516000</v>
       </c>
       <c r="J8" s="3">
+        <v>18242300</v>
+      </c>
+      <c r="K8" s="3">
         <v>19623000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16238500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17947900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7057900</v>
+        <v>5944000</v>
       </c>
       <c r="E9" s="3">
-        <v>7082000</v>
+        <v>6507900</v>
       </c>
       <c r="F9" s="3">
-        <v>6462000</v>
+        <v>6530000</v>
       </c>
       <c r="G9" s="3">
-        <v>5945000</v>
+        <v>5958300</v>
       </c>
       <c r="H9" s="3">
-        <v>5616400</v>
+        <v>5481700</v>
       </c>
       <c r="I9" s="3">
-        <v>5322700</v>
+        <v>5178700</v>
       </c>
       <c r="J9" s="3">
+        <v>4907900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5033600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8403200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4371600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11317300</v>
+        <v>9461300</v>
       </c>
       <c r="E10" s="3">
-        <v>12493800</v>
+        <v>10435300</v>
       </c>
       <c r="F10" s="3">
-        <v>13570300</v>
+        <v>11520100</v>
       </c>
       <c r="G10" s="3">
-        <v>14215100</v>
+        <v>12512600</v>
       </c>
       <c r="H10" s="3">
-        <v>14464600</v>
+        <v>13107200</v>
       </c>
       <c r="I10" s="3">
-        <v>14461500</v>
+        <v>13337300</v>
       </c>
       <c r="J10" s="3">
+        <v>13334400</v>
+      </c>
+      <c r="K10" s="3">
         <v>14589400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7835300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13576200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>805200</v>
+        <v>487400</v>
       </c>
       <c r="E14" s="3">
-        <v>1176500</v>
+        <v>742500</v>
       </c>
       <c r="F14" s="3">
-        <v>643300</v>
+        <v>1084800</v>
       </c>
       <c r="G14" s="3">
-        <v>423200</v>
+        <v>593100</v>
       </c>
       <c r="H14" s="3">
-        <v>344900</v>
+        <v>390200</v>
       </c>
       <c r="I14" s="3">
-        <v>120100</v>
+        <v>318000</v>
       </c>
       <c r="J14" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K14" s="3">
         <v>217800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>242200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>140100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4137000</v>
+        <v>3320000</v>
       </c>
       <c r="E15" s="3">
-        <v>3318600</v>
+        <v>3814500</v>
       </c>
       <c r="F15" s="3">
-        <v>3464300</v>
+        <v>3059900</v>
       </c>
       <c r="G15" s="3">
-        <v>3441800</v>
+        <v>3194300</v>
       </c>
       <c r="H15" s="3">
-        <v>3220100</v>
+        <v>3173500</v>
       </c>
       <c r="I15" s="3">
-        <v>3079900</v>
+        <v>2969200</v>
       </c>
       <c r="J15" s="3">
+        <v>2839800</v>
+      </c>
+      <c r="K15" s="3">
         <v>3061300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5517700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3121500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17500300</v>
+        <v>14315600</v>
       </c>
       <c r="E17" s="3">
-        <v>18680600</v>
+        <v>16136400</v>
       </c>
       <c r="F17" s="3">
-        <v>17663000</v>
+        <v>17224700</v>
       </c>
       <c r="G17" s="3">
-        <v>17026000</v>
+        <v>16286400</v>
       </c>
       <c r="H17" s="3">
-        <v>16071200</v>
+        <v>15699000</v>
       </c>
       <c r="I17" s="3">
-        <v>15155100</v>
+        <v>14818700</v>
       </c>
       <c r="J17" s="3">
+        <v>13974000</v>
+      </c>
+      <c r="K17" s="3">
         <v>14811000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12392900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13920800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>875000</v>
+        <v>1089800</v>
       </c>
       <c r="E18" s="3">
-        <v>895100</v>
+        <v>806800</v>
       </c>
       <c r="F18" s="3">
-        <v>2369200</v>
+        <v>825400</v>
       </c>
       <c r="G18" s="3">
-        <v>3134100</v>
+        <v>2184500</v>
       </c>
       <c r="H18" s="3">
-        <v>4009900</v>
+        <v>2889800</v>
       </c>
       <c r="I18" s="3">
-        <v>4629100</v>
+        <v>3697300</v>
       </c>
       <c r="J18" s="3">
+        <v>4268300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4812000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3845600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4027100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1857700</v>
+        <v>1044700</v>
       </c>
       <c r="E20" s="3">
-        <v>2018100</v>
+        <v>1712900</v>
       </c>
       <c r="F20" s="3">
-        <v>2137500</v>
+        <v>1860800</v>
       </c>
       <c r="G20" s="3">
-        <v>1815100</v>
+        <v>1970900</v>
       </c>
       <c r="H20" s="3">
-        <v>958700</v>
+        <v>1673600</v>
       </c>
       <c r="I20" s="3">
-        <v>540900</v>
+        <v>884000</v>
       </c>
       <c r="J20" s="3">
+        <v>498800</v>
+      </c>
+      <c r="K20" s="3">
         <v>714600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>202400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>191700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6870700</v>
+        <v>5494000</v>
       </c>
       <c r="E21" s="3">
-        <v>6232600</v>
+        <v>6379600</v>
       </c>
       <c r="F21" s="3">
-        <v>7971800</v>
+        <v>5782500</v>
       </c>
       <c r="G21" s="3">
-        <v>8391800</v>
+        <v>7387700</v>
       </c>
       <c r="H21" s="3">
-        <v>8197200</v>
+        <v>7774700</v>
       </c>
       <c r="I21" s="3">
-        <v>8257600</v>
+        <v>7593000</v>
       </c>
       <c r="J21" s="3">
+        <v>7647200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8659900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6853600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7344300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>565800</v>
+        <v>390200</v>
       </c>
       <c r="E22" s="3">
-        <v>532400</v>
+        <v>521700</v>
       </c>
       <c r="F22" s="3">
-        <v>523900</v>
+        <v>490900</v>
       </c>
       <c r="G22" s="3">
-        <v>572700</v>
+        <v>483100</v>
       </c>
       <c r="H22" s="3">
-        <v>628500</v>
+        <v>528100</v>
       </c>
       <c r="I22" s="3">
-        <v>628500</v>
+        <v>579500</v>
       </c>
       <c r="J22" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K22" s="3">
         <v>699800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>626300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>728000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2166900</v>
+        <v>1744300</v>
       </c>
       <c r="E23" s="3">
-        <v>2380800</v>
+        <v>1998000</v>
       </c>
       <c r="F23" s="3">
-        <v>3982700</v>
+        <v>2195300</v>
       </c>
       <c r="G23" s="3">
-        <v>4376400</v>
+        <v>3672300</v>
       </c>
       <c r="H23" s="3">
-        <v>4340000</v>
+        <v>4035300</v>
       </c>
       <c r="I23" s="3">
-        <v>4541500</v>
+        <v>4001800</v>
       </c>
       <c r="J23" s="3">
+        <v>4187600</v>
+      </c>
+      <c r="K23" s="3">
         <v>4826700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3421700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3490800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>741700</v>
+        <v>385200</v>
       </c>
       <c r="E24" s="3">
-        <v>715300</v>
+        <v>683900</v>
       </c>
       <c r="F24" s="3">
-        <v>1226100</v>
+        <v>659600</v>
       </c>
       <c r="G24" s="3">
-        <v>1374100</v>
+        <v>1130500</v>
       </c>
       <c r="H24" s="3">
-        <v>1370200</v>
+        <v>1267000</v>
       </c>
       <c r="I24" s="3">
-        <v>1353200</v>
+        <v>1263400</v>
       </c>
       <c r="J24" s="3">
+        <v>1247700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1301200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1006500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1068300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1425200</v>
+        <v>1359200</v>
       </c>
       <c r="E26" s="3">
-        <v>1665500</v>
+        <v>1314100</v>
       </c>
       <c r="F26" s="3">
-        <v>2756700</v>
+        <v>1535700</v>
       </c>
       <c r="G26" s="3">
-        <v>3002400</v>
+        <v>2541800</v>
       </c>
       <c r="H26" s="3">
-        <v>2969800</v>
+        <v>2768400</v>
       </c>
       <c r="I26" s="3">
-        <v>3188400</v>
+        <v>2738300</v>
       </c>
       <c r="J26" s="3">
+        <v>2939900</v>
+      </c>
+      <c r="K26" s="3">
         <v>3525500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2415100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2422500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1409700</v>
+        <v>1327000</v>
       </c>
       <c r="E27" s="3">
-        <v>1669400</v>
+        <v>1299900</v>
       </c>
       <c r="F27" s="3">
-        <v>2783000</v>
+        <v>1539200</v>
       </c>
       <c r="G27" s="3">
-        <v>3015500</v>
+        <v>2566100</v>
       </c>
       <c r="H27" s="3">
-        <v>2916300</v>
+        <v>2780500</v>
       </c>
       <c r="I27" s="3">
-        <v>3131000</v>
+        <v>2689000</v>
       </c>
       <c r="J27" s="3">
+        <v>2887000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3471200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2380600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2409000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,27 +1421,30 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>1563200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>148000</v>
+        <v>1441300</v>
       </c>
       <c r="J29" s="3">
+        <v>136500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-158100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100200</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1857700</v>
+        <v>-1044700</v>
       </c>
       <c r="E32" s="3">
-        <v>-2018100</v>
+        <v>-1712900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2137500</v>
+        <v>-1860800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1815100</v>
+        <v>-1970900</v>
       </c>
       <c r="H32" s="3">
-        <v>-958700</v>
+        <v>-1673600</v>
       </c>
       <c r="I32" s="3">
-        <v>-540900</v>
+        <v>-884000</v>
       </c>
       <c r="J32" s="3">
+        <v>-498800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-714600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-202400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-191700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1409700</v>
+        <v>1327000</v>
       </c>
       <c r="E33" s="3">
-        <v>1669400</v>
+        <v>1299900</v>
       </c>
       <c r="F33" s="3">
-        <v>2783000</v>
+        <v>1539200</v>
       </c>
       <c r="G33" s="3">
-        <v>3015500</v>
+        <v>2566100</v>
       </c>
       <c r="H33" s="3">
-        <v>4479500</v>
+        <v>2780500</v>
       </c>
       <c r="I33" s="3">
-        <v>3279000</v>
+        <v>4130400</v>
       </c>
       <c r="J33" s="3">
+        <v>3023500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3313100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2480800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2409000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1409700</v>
+        <v>1327000</v>
       </c>
       <c r="E35" s="3">
-        <v>1669400</v>
+        <v>1299900</v>
       </c>
       <c r="F35" s="3">
-        <v>2783000</v>
+        <v>1539200</v>
       </c>
       <c r="G35" s="3">
-        <v>3015500</v>
+        <v>2566100</v>
       </c>
       <c r="H35" s="3">
-        <v>4479500</v>
+        <v>2780500</v>
       </c>
       <c r="I35" s="3">
-        <v>3279000</v>
+        <v>4130400</v>
       </c>
       <c r="J35" s="3">
+        <v>3023500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3313100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2480800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2409000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>184500</v>
+        <v>803900</v>
       </c>
       <c r="E41" s="3">
-        <v>169700</v>
+        <v>356600</v>
       </c>
       <c r="F41" s="3">
-        <v>100000</v>
+        <v>431600</v>
       </c>
       <c r="G41" s="3">
-        <v>891300</v>
+        <v>449500</v>
       </c>
       <c r="H41" s="3">
-        <v>208500</v>
+        <v>1340600</v>
       </c>
       <c r="I41" s="3">
-        <v>450300</v>
+        <v>2536800</v>
       </c>
       <c r="J41" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K41" s="3">
         <v>236400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>196600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>256100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>298400</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>387500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>562600</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>2542800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>631600</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4047100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1455900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2535000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3970300</v>
+        <v>3274300</v>
       </c>
       <c r="E43" s="3">
-        <v>4184200</v>
+        <v>3660900</v>
       </c>
       <c r="F43" s="3">
-        <v>6693700</v>
+        <v>3858100</v>
       </c>
       <c r="G43" s="3">
-        <v>8966000</v>
+        <v>6172000</v>
       </c>
       <c r="H43" s="3">
-        <v>3677400</v>
+        <v>8267200</v>
       </c>
       <c r="I43" s="3">
-        <v>3665800</v>
+        <v>3390800</v>
       </c>
       <c r="J43" s="3">
+        <v>3380100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3234800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3090400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3331600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>323900</v>
+        <v>275100</v>
       </c>
       <c r="E44" s="3">
-        <v>347200</v>
+        <v>298700</v>
       </c>
       <c r="F44" s="3">
-        <v>381300</v>
+        <v>320100</v>
       </c>
       <c r="G44" s="3">
-        <v>1055500</v>
+        <v>351600</v>
       </c>
       <c r="H44" s="3">
-        <v>431700</v>
+        <v>973300</v>
       </c>
       <c r="I44" s="3">
-        <v>380500</v>
+        <v>398000</v>
       </c>
       <c r="J44" s="3">
+        <v>350900</v>
+      </c>
+      <c r="K44" s="3">
         <v>280600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>287300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>184000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>382900</v>
+        <v>730300</v>
       </c>
       <c r="E45" s="3">
-        <v>660300</v>
+        <v>353000</v>
       </c>
       <c r="F45" s="3">
-        <v>445600</v>
+        <v>608800</v>
       </c>
       <c r="G45" s="3">
-        <v>417700</v>
+        <v>410900</v>
       </c>
       <c r="H45" s="3">
-        <v>378200</v>
+        <v>385200</v>
       </c>
       <c r="I45" s="3">
-        <v>273600</v>
+        <v>348700</v>
       </c>
       <c r="J45" s="3">
+        <v>252300</v>
+      </c>
+      <c r="K45" s="3">
         <v>290600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>238000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>733000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5063900</v>
+        <v>5083700</v>
       </c>
       <c r="E46" s="3">
-        <v>5659800</v>
+        <v>4669200</v>
       </c>
       <c r="F46" s="3">
-        <v>5649800</v>
+        <v>5218700</v>
       </c>
       <c r="G46" s="3">
-        <v>6236400</v>
+        <v>5209400</v>
       </c>
       <c r="H46" s="3">
-        <v>7238500</v>
+        <v>5750400</v>
       </c>
       <c r="I46" s="3">
-        <v>5401800</v>
+        <v>6674400</v>
       </c>
       <c r="J46" s="3">
+        <v>4980800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8089400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5268100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7039600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1818200</v>
+        <v>1572800</v>
       </c>
       <c r="E47" s="3">
-        <v>1629800</v>
+        <v>1676500</v>
       </c>
       <c r="F47" s="3">
-        <v>1552300</v>
+        <v>1502800</v>
       </c>
       <c r="G47" s="3">
-        <v>1934400</v>
+        <v>1431300</v>
       </c>
       <c r="H47" s="3">
-        <v>1440000</v>
+        <v>1783600</v>
       </c>
       <c r="I47" s="3">
-        <v>1169500</v>
+        <v>1327700</v>
       </c>
       <c r="J47" s="3">
+        <v>1078300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1004400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>665900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>680600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19010000</v>
+        <v>16946700</v>
       </c>
       <c r="E48" s="3">
-        <v>17307300</v>
+        <v>17528400</v>
       </c>
       <c r="F48" s="3">
-        <v>17133700</v>
+        <v>15958400</v>
       </c>
       <c r="G48" s="3">
-        <v>33092500</v>
+        <v>15798400</v>
       </c>
       <c r="H48" s="3">
-        <v>15950300</v>
+        <v>30513400</v>
       </c>
       <c r="I48" s="3">
-        <v>15848800</v>
+        <v>14707200</v>
       </c>
       <c r="J48" s="3">
+        <v>14613600</v>
+      </c>
+      <c r="K48" s="3">
         <v>15377600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13549300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14695500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5744300</v>
+        <v>5095800</v>
       </c>
       <c r="E49" s="3">
-        <v>5587800</v>
+        <v>5296600</v>
       </c>
       <c r="F49" s="3">
-        <v>7114500</v>
+        <v>5152300</v>
       </c>
       <c r="G49" s="3">
-        <v>13853100</v>
+        <v>6560000</v>
       </c>
       <c r="H49" s="3">
-        <v>7152500</v>
+        <v>12773500</v>
       </c>
       <c r="I49" s="3">
-        <v>7401300</v>
+        <v>6595000</v>
       </c>
       <c r="J49" s="3">
+        <v>6824400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4946100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4500900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5252500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2776100</v>
+        <v>1689300</v>
       </c>
       <c r="E52" s="3">
-        <v>2821800</v>
+        <v>2559700</v>
       </c>
       <c r="F52" s="3">
-        <v>2635000</v>
+        <v>2601900</v>
       </c>
       <c r="G52" s="3">
-        <v>2197100</v>
+        <v>2429600</v>
       </c>
       <c r="H52" s="3">
-        <v>1765500</v>
+        <v>2025900</v>
       </c>
       <c r="I52" s="3">
-        <v>1692600</v>
+        <v>1627900</v>
       </c>
       <c r="J52" s="3">
+        <v>1560700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1086500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1697800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1396600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34412300</v>
+        <v>30388400</v>
       </c>
       <c r="E54" s="3">
-        <v>33006500</v>
+        <v>31730400</v>
       </c>
       <c r="F54" s="3">
-        <v>33110300</v>
+        <v>30434100</v>
       </c>
       <c r="G54" s="3">
-        <v>32554700</v>
+        <v>30529900</v>
       </c>
       <c r="H54" s="3">
-        <v>33546700</v>
+        <v>30017500</v>
       </c>
       <c r="I54" s="3">
-        <v>31344900</v>
+        <v>30932200</v>
       </c>
       <c r="J54" s="3">
+        <v>28902000</v>
+      </c>
+      <c r="K54" s="3">
         <v>30504000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25682100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27963900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>765700</v>
+        <v>860400</v>
       </c>
       <c r="E57" s="3">
-        <v>658000</v>
+        <v>706000</v>
       </c>
       <c r="F57" s="3">
-        <v>1230700</v>
+        <v>606700</v>
       </c>
       <c r="G57" s="3">
-        <v>3975000</v>
+        <v>1134800</v>
       </c>
       <c r="H57" s="3">
-        <v>1135400</v>
+        <v>3665200</v>
       </c>
       <c r="I57" s="3">
-        <v>973400</v>
+        <v>1046900</v>
       </c>
       <c r="J57" s="3">
+        <v>897500</v>
+      </c>
+      <c r="K57" s="3">
         <v>902100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>864600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>868800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2614800</v>
+        <v>2954200</v>
       </c>
       <c r="E58" s="3">
-        <v>1722000</v>
+        <v>2411100</v>
       </c>
       <c r="F58" s="3">
-        <v>1267100</v>
+        <v>1587800</v>
       </c>
       <c r="G58" s="3">
-        <v>3837800</v>
+        <v>1168400</v>
       </c>
       <c r="H58" s="3">
-        <v>2057600</v>
+        <v>3538700</v>
       </c>
       <c r="I58" s="3">
-        <v>1159400</v>
+        <v>1897300</v>
       </c>
       <c r="J58" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1764700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2339000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4442300</v>
+        <v>3634500</v>
       </c>
       <c r="E59" s="3">
-        <v>5023600</v>
+        <v>4096100</v>
       </c>
       <c r="F59" s="3">
-        <v>5261500</v>
+        <v>4632000</v>
       </c>
       <c r="G59" s="3">
-        <v>5348300</v>
+        <v>4851400</v>
       </c>
       <c r="H59" s="3">
-        <v>3927700</v>
+        <v>4931500</v>
       </c>
       <c r="I59" s="3">
-        <v>4264800</v>
+        <v>3621600</v>
       </c>
       <c r="J59" s="3">
+        <v>3932400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4063300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3649000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5017600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7822900</v>
+        <v>7449000</v>
       </c>
       <c r="E60" s="3">
-        <v>7403600</v>
+        <v>7213200</v>
       </c>
       <c r="F60" s="3">
-        <v>6808400</v>
+        <v>6826600</v>
       </c>
       <c r="G60" s="3">
-        <v>7037800</v>
+        <v>6277800</v>
       </c>
       <c r="H60" s="3">
-        <v>7120700</v>
+        <v>6489300</v>
       </c>
       <c r="I60" s="3">
-        <v>6300000</v>
+        <v>6565700</v>
       </c>
       <c r="J60" s="3">
+        <v>5809000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6730100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5014200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7558900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12208600</v>
+        <v>9509200</v>
       </c>
       <c r="E61" s="3">
-        <v>11649000</v>
+        <v>11257100</v>
       </c>
       <c r="F61" s="3">
-        <v>11869900</v>
+        <v>10741200</v>
       </c>
       <c r="G61" s="3">
-        <v>11476200</v>
+        <v>10944800</v>
       </c>
       <c r="H61" s="3">
-        <v>11351400</v>
+        <v>10581800</v>
       </c>
       <c r="I61" s="3">
-        <v>10957000</v>
+        <v>10466700</v>
       </c>
       <c r="J61" s="3">
+        <v>10103000</v>
+      </c>
+      <c r="K61" s="3">
         <v>10498900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9541000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8460300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2642000</v>
+        <v>2514700</v>
       </c>
       <c r="E62" s="3">
-        <v>2693100</v>
+        <v>2436100</v>
       </c>
       <c r="F62" s="3">
-        <v>4119100</v>
+        <v>2483200</v>
       </c>
       <c r="G62" s="3">
-        <v>3973400</v>
+        <v>3798100</v>
       </c>
       <c r="H62" s="3">
-        <v>2746600</v>
+        <v>3663800</v>
       </c>
       <c r="I62" s="3">
-        <v>2948900</v>
+        <v>2532500</v>
       </c>
       <c r="J62" s="3">
+        <v>2719100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2456000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2544400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3861500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23195800</v>
+        <v>19963800</v>
       </c>
       <c r="E66" s="3">
-        <v>21731000</v>
+        <v>21388000</v>
       </c>
       <c r="F66" s="3">
-        <v>21770500</v>
+        <v>20037400</v>
       </c>
       <c r="G66" s="3">
-        <v>21602400</v>
+        <v>20073800</v>
       </c>
       <c r="H66" s="3">
-        <v>21246600</v>
+        <v>19918800</v>
       </c>
       <c r="I66" s="3">
-        <v>20415000</v>
+        <v>19590800</v>
       </c>
       <c r="J66" s="3">
+        <v>18824000</v>
+      </c>
+      <c r="K66" s="3">
         <v>19792000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17275600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19841800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7757800</v>
+        <v>7151000</v>
       </c>
       <c r="E72" s="3">
-        <v>7868600</v>
+        <v>7153100</v>
       </c>
       <c r="F72" s="3">
-        <v>8004200</v>
+        <v>7255300</v>
       </c>
       <c r="G72" s="3">
-        <v>7522900</v>
+        <v>7380400</v>
       </c>
       <c r="H72" s="3">
-        <v>8246000</v>
+        <v>6936600</v>
       </c>
       <c r="I72" s="3">
-        <v>6852600</v>
+        <v>7603300</v>
       </c>
       <c r="J72" s="3">
+        <v>6318500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6441000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4993500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4728200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11216600</v>
+        <v>10424600</v>
       </c>
       <c r="E76" s="3">
-        <v>11275500</v>
+        <v>10342400</v>
       </c>
       <c r="F76" s="3">
-        <v>11339800</v>
+        <v>10396700</v>
       </c>
       <c r="G76" s="3">
-        <v>10952300</v>
+        <v>10456000</v>
       </c>
       <c r="H76" s="3">
-        <v>12300000</v>
+        <v>10098700</v>
       </c>
       <c r="I76" s="3">
-        <v>10929800</v>
+        <v>11341400</v>
       </c>
       <c r="J76" s="3">
+        <v>10078000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10712100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8406500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8122100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1409700</v>
+        <v>1327000</v>
       </c>
       <c r="E81" s="3">
-        <v>1669400</v>
+        <v>1299900</v>
       </c>
       <c r="F81" s="3">
-        <v>2783000</v>
+        <v>1539200</v>
       </c>
       <c r="G81" s="3">
-        <v>3015500</v>
+        <v>2566100</v>
       </c>
       <c r="H81" s="3">
-        <v>4479500</v>
+        <v>2780500</v>
       </c>
       <c r="I81" s="3">
-        <v>3279000</v>
+        <v>4130400</v>
       </c>
       <c r="J81" s="3">
+        <v>3023500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3313100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2480800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2409000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4137000</v>
+        <v>3320000</v>
       </c>
       <c r="E83" s="3">
-        <v>3318600</v>
+        <v>3814500</v>
       </c>
       <c r="F83" s="3">
-        <v>3464300</v>
+        <v>3059900</v>
       </c>
       <c r="G83" s="3">
-        <v>3441800</v>
+        <v>3194300</v>
       </c>
       <c r="H83" s="3">
-        <v>3227900</v>
+        <v>3173500</v>
       </c>
       <c r="I83" s="3">
-        <v>3086800</v>
+        <v>2976300</v>
       </c>
       <c r="J83" s="3">
+        <v>2846300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3132600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2811900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3121500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5432800</v>
+        <v>5167300</v>
       </c>
       <c r="E89" s="3">
-        <v>5179300</v>
+        <v>5009300</v>
       </c>
       <c r="F89" s="3">
-        <v>6669700</v>
+        <v>4775700</v>
       </c>
       <c r="G89" s="3">
-        <v>6025600</v>
+        <v>6149800</v>
       </c>
       <c r="H89" s="3">
-        <v>6303100</v>
+        <v>5556000</v>
       </c>
       <c r="I89" s="3">
-        <v>6441000</v>
+        <v>5811800</v>
       </c>
       <c r="J89" s="3">
+        <v>5939000</v>
+      </c>
+      <c r="K89" s="3">
         <v>6675100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5546200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6562800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1814300</v>
+        <v>-1485700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2507100</v>
+        <v>-1672900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2767500</v>
+        <v>-2311700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2886900</v>
+        <v>-2551800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2364500</v>
+        <v>-2661900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2204900</v>
+        <v>-2180200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2033000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2222700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1869700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2126700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2306400</v>
+        <v>-1675000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2801600</v>
+        <v>-2126600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3031000</v>
+        <v>-2583300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3316200</v>
+        <v>-2794800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1710400</v>
+        <v>-3057800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4411300</v>
+        <v>-1577100</v>
       </c>
       <c r="J94" s="3">
+        <v>-4067500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-875800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2212800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2885900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1474800</v>
+        <v>-1359200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1750700</v>
+        <v>-1359900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2441300</v>
+        <v>-1614300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2895400</v>
+        <v>-2251000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2934900</v>
+        <v>-2669700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2866700</v>
+        <v>-2706200</v>
       </c>
       <c r="J96" s="3">
+        <v>-2643300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2747400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2309000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2458600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3207000</v>
+        <v>-3027000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2393200</v>
+        <v>-2957000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3886600</v>
+        <v>-2206700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4730600</v>
+        <v>-3583700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2927200</v>
+        <v>-4361900</v>
       </c>
       <c r="I100" s="3">
-        <v>-5333600</v>
+        <v>-2699000</v>
       </c>
       <c r="J100" s="3">
+        <v>-4917900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3433300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4330000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2763500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>-17900</v>
       </c>
       <c r="E101" s="3">
-        <v>3100</v>
+        <v>-700</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G101" s="3">
-        <v>-4700</v>
+        <v>2900</v>
       </c>
       <c r="H101" s="3">
-        <v>3900</v>
+        <v>-4300</v>
       </c>
       <c r="I101" s="3">
-        <v>102300</v>
+        <v>3600</v>
       </c>
       <c r="J101" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-81400</v>
+        <v>447300</v>
       </c>
       <c r="E102" s="3">
-        <v>-12400</v>
+        <v>-75000</v>
       </c>
       <c r="F102" s="3">
-        <v>-244900</v>
+        <v>-11400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2025900</v>
+        <v>-225800</v>
       </c>
       <c r="H102" s="3">
-        <v>1669400</v>
+        <v>-1868000</v>
       </c>
       <c r="I102" s="3">
-        <v>-3201500</v>
+        <v>1539200</v>
       </c>
       <c r="J102" s="3">
+        <v>-2952000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2362200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-972700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>925400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15405300</v>
+        <v>15392400</v>
       </c>
       <c r="E8" s="3">
-        <v>16943200</v>
+        <v>16928900</v>
       </c>
       <c r="F8" s="3">
-        <v>18050100</v>
+        <v>18034900</v>
       </c>
       <c r="G8" s="3">
-        <v>18471000</v>
+        <v>18455500</v>
       </c>
       <c r="H8" s="3">
-        <v>18588900</v>
+        <v>18573300</v>
       </c>
       <c r="I8" s="3">
-        <v>18516000</v>
+        <v>18500500</v>
       </c>
       <c r="J8" s="3">
-        <v>18242300</v>
+        <v>18227000</v>
       </c>
       <c r="K8" s="3">
         <v>19623000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5944000</v>
+        <v>5939100</v>
       </c>
       <c r="E9" s="3">
-        <v>6507900</v>
+        <v>6502400</v>
       </c>
       <c r="F9" s="3">
-        <v>6530000</v>
+        <v>6524500</v>
       </c>
       <c r="G9" s="3">
-        <v>5958300</v>
+        <v>5953300</v>
       </c>
       <c r="H9" s="3">
-        <v>5481700</v>
+        <v>5477100</v>
       </c>
       <c r="I9" s="3">
-        <v>5178700</v>
+        <v>5174400</v>
       </c>
       <c r="J9" s="3">
-        <v>4907900</v>
+        <v>4903800</v>
       </c>
       <c r="K9" s="3">
         <v>5033600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9461300</v>
+        <v>9453400</v>
       </c>
       <c r="E10" s="3">
-        <v>10435300</v>
+        <v>10426500</v>
       </c>
       <c r="F10" s="3">
-        <v>11520100</v>
+        <v>11510400</v>
       </c>
       <c r="G10" s="3">
-        <v>12512600</v>
+        <v>12502100</v>
       </c>
       <c r="H10" s="3">
-        <v>13107200</v>
+        <v>13096200</v>
       </c>
       <c r="I10" s="3">
-        <v>13337300</v>
+        <v>13326100</v>
       </c>
       <c r="J10" s="3">
-        <v>13334400</v>
+        <v>13323200</v>
       </c>
       <c r="K10" s="3">
         <v>14589400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>487400</v>
+        <v>486900</v>
       </c>
       <c r="E14" s="3">
-        <v>742500</v>
+        <v>741800</v>
       </c>
       <c r="F14" s="3">
-        <v>1084800</v>
+        <v>1083900</v>
       </c>
       <c r="G14" s="3">
-        <v>593100</v>
+        <v>592600</v>
       </c>
       <c r="H14" s="3">
-        <v>390200</v>
+        <v>389800</v>
       </c>
       <c r="I14" s="3">
-        <v>318000</v>
+        <v>317700</v>
       </c>
       <c r="J14" s="3">
-        <v>110800</v>
+        <v>110700</v>
       </c>
       <c r="K14" s="3">
         <v>217800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3320000</v>
+        <v>3317200</v>
       </c>
       <c r="E15" s="3">
-        <v>3814500</v>
+        <v>3811300</v>
       </c>
       <c r="F15" s="3">
-        <v>3059900</v>
+        <v>3057300</v>
       </c>
       <c r="G15" s="3">
-        <v>3194300</v>
+        <v>3191600</v>
       </c>
       <c r="H15" s="3">
-        <v>3173500</v>
+        <v>3170900</v>
       </c>
       <c r="I15" s="3">
-        <v>2969200</v>
+        <v>2966700</v>
       </c>
       <c r="J15" s="3">
-        <v>2839800</v>
+        <v>2837400</v>
       </c>
       <c r="K15" s="3">
         <v>3061300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14315600</v>
+        <v>14303600</v>
       </c>
       <c r="E17" s="3">
-        <v>16136400</v>
+        <v>16122800</v>
       </c>
       <c r="F17" s="3">
-        <v>17224700</v>
+        <v>17210300</v>
       </c>
       <c r="G17" s="3">
-        <v>16286400</v>
+        <v>16272800</v>
       </c>
       <c r="H17" s="3">
-        <v>15699000</v>
+        <v>15685900</v>
       </c>
       <c r="I17" s="3">
-        <v>14818700</v>
+        <v>14806200</v>
       </c>
       <c r="J17" s="3">
-        <v>13974000</v>
+        <v>13962300</v>
       </c>
       <c r="K17" s="3">
         <v>14811000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1089800</v>
+        <v>1088900</v>
       </c>
       <c r="E18" s="3">
-        <v>806800</v>
+        <v>806100</v>
       </c>
       <c r="F18" s="3">
-        <v>825400</v>
+        <v>824700</v>
       </c>
       <c r="G18" s="3">
-        <v>2184500</v>
+        <v>2182700</v>
       </c>
       <c r="H18" s="3">
-        <v>2889800</v>
+        <v>2887400</v>
       </c>
       <c r="I18" s="3">
-        <v>3697300</v>
+        <v>3694200</v>
       </c>
       <c r="J18" s="3">
-        <v>4268300</v>
+        <v>4264700</v>
       </c>
       <c r="K18" s="3">
         <v>4812000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1044700</v>
+        <v>1043900</v>
       </c>
       <c r="E20" s="3">
-        <v>1712900</v>
+        <v>1711500</v>
       </c>
       <c r="F20" s="3">
-        <v>1860800</v>
+        <v>1859300</v>
       </c>
       <c r="G20" s="3">
-        <v>1970900</v>
+        <v>1969200</v>
       </c>
       <c r="H20" s="3">
-        <v>1673600</v>
+        <v>1672200</v>
       </c>
       <c r="I20" s="3">
-        <v>884000</v>
+        <v>883200</v>
       </c>
       <c r="J20" s="3">
-        <v>498800</v>
+        <v>498400</v>
       </c>
       <c r="K20" s="3">
         <v>714600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5494000</v>
+        <v>5442100</v>
       </c>
       <c r="E21" s="3">
-        <v>6379600</v>
+        <v>6319800</v>
       </c>
       <c r="F21" s="3">
-        <v>5782500</v>
+        <v>5734000</v>
       </c>
       <c r="G21" s="3">
-        <v>7387700</v>
+        <v>7335900</v>
       </c>
       <c r="H21" s="3">
-        <v>7774700</v>
+        <v>7722900</v>
       </c>
       <c r="I21" s="3">
-        <v>7593000</v>
+        <v>7544200</v>
       </c>
       <c r="J21" s="3">
-        <v>7647200</v>
+        <v>7600200</v>
       </c>
       <c r="K21" s="3">
         <v>8659900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>390200</v>
+        <v>389800</v>
       </c>
       <c r="E22" s="3">
-        <v>521700</v>
+        <v>521200</v>
       </c>
       <c r="F22" s="3">
-        <v>490900</v>
+        <v>490500</v>
       </c>
       <c r="G22" s="3">
-        <v>483100</v>
+        <v>482700</v>
       </c>
       <c r="H22" s="3">
-        <v>528100</v>
+        <v>527600</v>
       </c>
       <c r="I22" s="3">
-        <v>579500</v>
+        <v>579100</v>
       </c>
       <c r="J22" s="3">
-        <v>579500</v>
+        <v>579100</v>
       </c>
       <c r="K22" s="3">
         <v>699800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1744300</v>
+        <v>1742900</v>
       </c>
       <c r="E23" s="3">
-        <v>1998000</v>
+        <v>1996300</v>
       </c>
       <c r="F23" s="3">
-        <v>2195300</v>
+        <v>2193400</v>
       </c>
       <c r="G23" s="3">
-        <v>3672300</v>
+        <v>3669200</v>
       </c>
       <c r="H23" s="3">
-        <v>4035300</v>
+        <v>4032000</v>
       </c>
       <c r="I23" s="3">
-        <v>4001800</v>
+        <v>3998400</v>
       </c>
       <c r="J23" s="3">
-        <v>4187600</v>
+        <v>4184000</v>
       </c>
       <c r="K23" s="3">
         <v>4826700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>385200</v>
+        <v>384800</v>
       </c>
       <c r="E24" s="3">
-        <v>683900</v>
+        <v>683300</v>
       </c>
       <c r="F24" s="3">
-        <v>659600</v>
+        <v>659000</v>
       </c>
       <c r="G24" s="3">
-        <v>1130500</v>
+        <v>1129500</v>
       </c>
       <c r="H24" s="3">
-        <v>1267000</v>
+        <v>1265900</v>
       </c>
       <c r="I24" s="3">
-        <v>1263400</v>
+        <v>1262400</v>
       </c>
       <c r="J24" s="3">
-        <v>1247700</v>
+        <v>1246600</v>
       </c>
       <c r="K24" s="3">
         <v>1301200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1359200</v>
+        <v>1358000</v>
       </c>
       <c r="E26" s="3">
-        <v>1314100</v>
+        <v>1313000</v>
       </c>
       <c r="F26" s="3">
-        <v>1535700</v>
+        <v>1534400</v>
       </c>
       <c r="G26" s="3">
-        <v>2541800</v>
+        <v>2539700</v>
       </c>
       <c r="H26" s="3">
-        <v>2768400</v>
+        <v>2766000</v>
       </c>
       <c r="I26" s="3">
-        <v>2738300</v>
+        <v>2736000</v>
       </c>
       <c r="J26" s="3">
-        <v>2939900</v>
+        <v>2937400</v>
       </c>
       <c r="K26" s="3">
         <v>3525500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1327000</v>
+        <v>1325900</v>
       </c>
       <c r="E27" s="3">
-        <v>1299900</v>
+        <v>1298800</v>
       </c>
       <c r="F27" s="3">
-        <v>1539200</v>
+        <v>1538000</v>
       </c>
       <c r="G27" s="3">
-        <v>2566100</v>
+        <v>2564000</v>
       </c>
       <c r="H27" s="3">
-        <v>2780500</v>
+        <v>2778200</v>
       </c>
       <c r="I27" s="3">
-        <v>2689000</v>
+        <v>2686800</v>
       </c>
       <c r="J27" s="3">
-        <v>2887000</v>
+        <v>2884600</v>
       </c>
       <c r="K27" s="3">
         <v>3471200</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>1441300</v>
+        <v>1440100</v>
       </c>
       <c r="J29" s="3">
-        <v>136500</v>
+        <v>136400</v>
       </c>
       <c r="K29" s="3">
         <v>-158100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1044700</v>
+        <v>-1043900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1712900</v>
+        <v>-1711500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1860800</v>
+        <v>-1859300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1970900</v>
+        <v>-1969200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1673600</v>
+        <v>-1672200</v>
       </c>
       <c r="I32" s="3">
-        <v>-884000</v>
+        <v>-883200</v>
       </c>
       <c r="J32" s="3">
-        <v>-498800</v>
+        <v>-498400</v>
       </c>
       <c r="K32" s="3">
         <v>-714600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1327000</v>
+        <v>1325900</v>
       </c>
       <c r="E33" s="3">
-        <v>1299900</v>
+        <v>1298800</v>
       </c>
       <c r="F33" s="3">
-        <v>1539200</v>
+        <v>1538000</v>
       </c>
       <c r="G33" s="3">
-        <v>2566100</v>
+        <v>2564000</v>
       </c>
       <c r="H33" s="3">
-        <v>2780500</v>
+        <v>2778200</v>
       </c>
       <c r="I33" s="3">
-        <v>4130400</v>
+        <v>4126900</v>
       </c>
       <c r="J33" s="3">
-        <v>3023500</v>
+        <v>3020900</v>
       </c>
       <c r="K33" s="3">
         <v>3313100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1327000</v>
+        <v>1325900</v>
       </c>
       <c r="E35" s="3">
-        <v>1299900</v>
+        <v>1298800</v>
       </c>
       <c r="F35" s="3">
-        <v>1539200</v>
+        <v>1538000</v>
       </c>
       <c r="G35" s="3">
-        <v>2566100</v>
+        <v>2564000</v>
       </c>
       <c r="H35" s="3">
-        <v>2780500</v>
+        <v>2778200</v>
       </c>
       <c r="I35" s="3">
-        <v>4130400</v>
+        <v>4126900</v>
       </c>
       <c r="J35" s="3">
-        <v>3023500</v>
+        <v>3020900</v>
       </c>
       <c r="K35" s="3">
         <v>3313100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>803900</v>
+        <v>803300</v>
       </c>
       <c r="E41" s="3">
-        <v>356600</v>
+        <v>356300</v>
       </c>
       <c r="F41" s="3">
-        <v>431600</v>
+        <v>431300</v>
       </c>
       <c r="G41" s="3">
-        <v>449500</v>
+        <v>449100</v>
       </c>
       <c r="H41" s="3">
-        <v>1340600</v>
+        <v>1339500</v>
       </c>
       <c r="I41" s="3">
-        <v>2536800</v>
+        <v>2534700</v>
       </c>
       <c r="J41" s="3">
-        <v>997600</v>
+        <v>996700</v>
       </c>
       <c r="K41" s="3">
         <v>236400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3274300</v>
+        <v>3271500</v>
       </c>
       <c r="E43" s="3">
-        <v>3660900</v>
+        <v>3657800</v>
       </c>
       <c r="F43" s="3">
-        <v>3858100</v>
+        <v>3854900</v>
       </c>
       <c r="G43" s="3">
-        <v>6172000</v>
+        <v>6166800</v>
       </c>
       <c r="H43" s="3">
-        <v>8267200</v>
+        <v>8260300</v>
       </c>
       <c r="I43" s="3">
-        <v>3390800</v>
+        <v>3387900</v>
       </c>
       <c r="J43" s="3">
-        <v>3380100</v>
+        <v>3377200</v>
       </c>
       <c r="K43" s="3">
         <v>3234800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>275100</v>
+        <v>274900</v>
       </c>
       <c r="E44" s="3">
-        <v>298700</v>
+        <v>298500</v>
       </c>
       <c r="F44" s="3">
-        <v>320100</v>
+        <v>319900</v>
       </c>
       <c r="G44" s="3">
-        <v>351600</v>
+        <v>351300</v>
       </c>
       <c r="H44" s="3">
-        <v>973300</v>
+        <v>972500</v>
       </c>
       <c r="I44" s="3">
-        <v>398000</v>
+        <v>397700</v>
       </c>
       <c r="J44" s="3">
-        <v>350900</v>
+        <v>350600</v>
       </c>
       <c r="K44" s="3">
         <v>280600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>730300</v>
+        <v>729700</v>
       </c>
       <c r="E45" s="3">
-        <v>353000</v>
+        <v>352700</v>
       </c>
       <c r="F45" s="3">
-        <v>608800</v>
+        <v>608300</v>
       </c>
       <c r="G45" s="3">
-        <v>410900</v>
+        <v>410500</v>
       </c>
       <c r="H45" s="3">
-        <v>385200</v>
+        <v>384800</v>
       </c>
       <c r="I45" s="3">
-        <v>348700</v>
+        <v>348400</v>
       </c>
       <c r="J45" s="3">
-        <v>252300</v>
+        <v>252000</v>
       </c>
       <c r="K45" s="3">
         <v>290600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5083700</v>
+        <v>5079400</v>
       </c>
       <c r="E46" s="3">
-        <v>4669200</v>
+        <v>4665300</v>
       </c>
       <c r="F46" s="3">
-        <v>5218700</v>
+        <v>5214300</v>
       </c>
       <c r="G46" s="3">
-        <v>5209400</v>
+        <v>5205100</v>
       </c>
       <c r="H46" s="3">
-        <v>5750400</v>
+        <v>5745600</v>
       </c>
       <c r="I46" s="3">
-        <v>6674400</v>
+        <v>6668800</v>
       </c>
       <c r="J46" s="3">
-        <v>4980800</v>
+        <v>4976600</v>
       </c>
       <c r="K46" s="3">
         <v>8089400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1572800</v>
+        <v>1571500</v>
       </c>
       <c r="E47" s="3">
-        <v>1676500</v>
+        <v>1675000</v>
       </c>
       <c r="F47" s="3">
-        <v>1502800</v>
+        <v>1501500</v>
       </c>
       <c r="G47" s="3">
-        <v>1431300</v>
+        <v>1430100</v>
       </c>
       <c r="H47" s="3">
-        <v>1783600</v>
+        <v>1782100</v>
       </c>
       <c r="I47" s="3">
-        <v>1327700</v>
+        <v>1326600</v>
       </c>
       <c r="J47" s="3">
-        <v>1078300</v>
+        <v>1077400</v>
       </c>
       <c r="K47" s="3">
         <v>1004400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16946700</v>
+        <v>16932500</v>
       </c>
       <c r="E48" s="3">
-        <v>17528400</v>
+        <v>17513700</v>
       </c>
       <c r="F48" s="3">
-        <v>15958400</v>
+        <v>15945000</v>
       </c>
       <c r="G48" s="3">
-        <v>15798400</v>
+        <v>15785100</v>
       </c>
       <c r="H48" s="3">
-        <v>30513400</v>
+        <v>30487800</v>
       </c>
       <c r="I48" s="3">
-        <v>14707200</v>
+        <v>14694800</v>
       </c>
       <c r="J48" s="3">
-        <v>14613600</v>
+        <v>14601300</v>
       </c>
       <c r="K48" s="3">
         <v>15377600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5095800</v>
+        <v>5091500</v>
       </c>
       <c r="E49" s="3">
-        <v>5296600</v>
+        <v>5292200</v>
       </c>
       <c r="F49" s="3">
-        <v>5152300</v>
+        <v>5147900</v>
       </c>
       <c r="G49" s="3">
-        <v>6560000</v>
+        <v>6554500</v>
       </c>
       <c r="H49" s="3">
-        <v>12773500</v>
+        <v>12762800</v>
       </c>
       <c r="I49" s="3">
-        <v>6595000</v>
+        <v>6589500</v>
       </c>
       <c r="J49" s="3">
-        <v>6824400</v>
+        <v>6818700</v>
       </c>
       <c r="K49" s="3">
         <v>4946100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1689300</v>
+        <v>1687900</v>
       </c>
       <c r="E52" s="3">
-        <v>2559700</v>
+        <v>2557500</v>
       </c>
       <c r="F52" s="3">
-        <v>2601900</v>
+        <v>2599700</v>
       </c>
       <c r="G52" s="3">
-        <v>2429600</v>
+        <v>2427600</v>
       </c>
       <c r="H52" s="3">
-        <v>2025900</v>
+        <v>2024200</v>
       </c>
       <c r="I52" s="3">
-        <v>1627900</v>
+        <v>1626500</v>
       </c>
       <c r="J52" s="3">
-        <v>1560700</v>
+        <v>1559400</v>
       </c>
       <c r="K52" s="3">
         <v>1086500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30388400</v>
+        <v>30362800</v>
       </c>
       <c r="E54" s="3">
-        <v>31730400</v>
+        <v>31703700</v>
       </c>
       <c r="F54" s="3">
-        <v>30434100</v>
+        <v>30408500</v>
       </c>
       <c r="G54" s="3">
-        <v>30529900</v>
+        <v>30504200</v>
       </c>
       <c r="H54" s="3">
-        <v>30017500</v>
+        <v>29992300</v>
       </c>
       <c r="I54" s="3">
-        <v>30932200</v>
+        <v>30906200</v>
       </c>
       <c r="J54" s="3">
-        <v>28902000</v>
+        <v>28877700</v>
       </c>
       <c r="K54" s="3">
         <v>30504000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>860400</v>
+        <v>859700</v>
       </c>
       <c r="E57" s="3">
-        <v>706000</v>
+        <v>705400</v>
       </c>
       <c r="F57" s="3">
-        <v>606700</v>
+        <v>606200</v>
       </c>
       <c r="G57" s="3">
-        <v>1134800</v>
+        <v>1133800</v>
       </c>
       <c r="H57" s="3">
-        <v>3665200</v>
+        <v>3662100</v>
       </c>
       <c r="I57" s="3">
-        <v>1046900</v>
+        <v>1046000</v>
       </c>
       <c r="J57" s="3">
-        <v>897500</v>
+        <v>896800</v>
       </c>
       <c r="K57" s="3">
         <v>902100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2954200</v>
+        <v>2951700</v>
       </c>
       <c r="E58" s="3">
-        <v>2411100</v>
+        <v>2409000</v>
       </c>
       <c r="F58" s="3">
-        <v>1587800</v>
+        <v>1586500</v>
       </c>
       <c r="G58" s="3">
-        <v>1168400</v>
+        <v>1167400</v>
       </c>
       <c r="H58" s="3">
-        <v>3538700</v>
+        <v>3535700</v>
       </c>
       <c r="I58" s="3">
-        <v>1897300</v>
+        <v>1895700</v>
       </c>
       <c r="J58" s="3">
-        <v>1069000</v>
+        <v>1068100</v>
       </c>
       <c r="K58" s="3">
         <v>1764700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3634500</v>
+        <v>3631400</v>
       </c>
       <c r="E59" s="3">
-        <v>4096100</v>
+        <v>4092600</v>
       </c>
       <c r="F59" s="3">
-        <v>4632000</v>
+        <v>4628100</v>
       </c>
       <c r="G59" s="3">
-        <v>4851400</v>
+        <v>4847300</v>
       </c>
       <c r="H59" s="3">
-        <v>4931500</v>
+        <v>4927300</v>
       </c>
       <c r="I59" s="3">
-        <v>3621600</v>
+        <v>3618600</v>
       </c>
       <c r="J59" s="3">
-        <v>3932400</v>
+        <v>3929100</v>
       </c>
       <c r="K59" s="3">
         <v>4063300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7449000</v>
+        <v>7442700</v>
       </c>
       <c r="E60" s="3">
-        <v>7213200</v>
+        <v>7207100</v>
       </c>
       <c r="F60" s="3">
-        <v>6826600</v>
+        <v>6820800</v>
       </c>
       <c r="G60" s="3">
-        <v>6277800</v>
+        <v>6272500</v>
       </c>
       <c r="H60" s="3">
-        <v>6489300</v>
+        <v>6483800</v>
       </c>
       <c r="I60" s="3">
-        <v>6565700</v>
+        <v>6560200</v>
       </c>
       <c r="J60" s="3">
-        <v>5809000</v>
+        <v>5804100</v>
       </c>
       <c r="K60" s="3">
         <v>6730100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9509200</v>
+        <v>9501200</v>
       </c>
       <c r="E61" s="3">
-        <v>11257100</v>
+        <v>11247600</v>
       </c>
       <c r="F61" s="3">
-        <v>10741200</v>
+        <v>10732100</v>
       </c>
       <c r="G61" s="3">
-        <v>10944800</v>
+        <v>10935600</v>
       </c>
       <c r="H61" s="3">
-        <v>10581800</v>
+        <v>10572900</v>
       </c>
       <c r="I61" s="3">
-        <v>10466700</v>
+        <v>10458000</v>
       </c>
       <c r="J61" s="3">
-        <v>10103000</v>
+        <v>10094500</v>
       </c>
       <c r="K61" s="3">
         <v>10498900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2514700</v>
+        <v>2512600</v>
       </c>
       <c r="E62" s="3">
-        <v>2436100</v>
+        <v>2434000</v>
       </c>
       <c r="F62" s="3">
-        <v>2483200</v>
+        <v>2481200</v>
       </c>
       <c r="G62" s="3">
-        <v>3798100</v>
+        <v>3794900</v>
       </c>
       <c r="H62" s="3">
-        <v>3663800</v>
+        <v>3660700</v>
       </c>
       <c r="I62" s="3">
-        <v>2532500</v>
+        <v>2530400</v>
       </c>
       <c r="J62" s="3">
-        <v>2719100</v>
+        <v>2716800</v>
       </c>
       <c r="K62" s="3">
         <v>2456000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19963800</v>
+        <v>19947000</v>
       </c>
       <c r="E66" s="3">
-        <v>21388000</v>
+        <v>21370000</v>
       </c>
       <c r="F66" s="3">
-        <v>20037400</v>
+        <v>20020600</v>
       </c>
       <c r="G66" s="3">
-        <v>20073800</v>
+        <v>20057000</v>
       </c>
       <c r="H66" s="3">
-        <v>19918800</v>
+        <v>19902000</v>
       </c>
       <c r="I66" s="3">
-        <v>19590800</v>
+        <v>19574300</v>
       </c>
       <c r="J66" s="3">
-        <v>18824000</v>
+        <v>18808200</v>
       </c>
       <c r="K66" s="3">
         <v>19792000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7151000</v>
+        <v>7145000</v>
       </c>
       <c r="E72" s="3">
-        <v>7153100</v>
+        <v>7147100</v>
       </c>
       <c r="F72" s="3">
-        <v>7255300</v>
+        <v>7249200</v>
       </c>
       <c r="G72" s="3">
-        <v>7380400</v>
+        <v>7374200</v>
       </c>
       <c r="H72" s="3">
-        <v>6936600</v>
+        <v>6930800</v>
       </c>
       <c r="I72" s="3">
-        <v>7603300</v>
+        <v>7597000</v>
       </c>
       <c r="J72" s="3">
-        <v>6318500</v>
+        <v>6313200</v>
       </c>
       <c r="K72" s="3">
         <v>6441000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10424600</v>
+        <v>10415800</v>
       </c>
       <c r="E76" s="3">
-        <v>10342400</v>
+        <v>10333700</v>
       </c>
       <c r="F76" s="3">
-        <v>10396700</v>
+        <v>10388000</v>
       </c>
       <c r="G76" s="3">
-        <v>10456000</v>
+        <v>10447200</v>
       </c>
       <c r="H76" s="3">
-        <v>10098700</v>
+        <v>10090200</v>
       </c>
       <c r="I76" s="3">
-        <v>11341400</v>
+        <v>11331900</v>
       </c>
       <c r="J76" s="3">
-        <v>10078000</v>
+        <v>10069500</v>
       </c>
       <c r="K76" s="3">
         <v>10712100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1327000</v>
+        <v>1325900</v>
       </c>
       <c r="E81" s="3">
-        <v>1299900</v>
+        <v>1298800</v>
       </c>
       <c r="F81" s="3">
-        <v>1539200</v>
+        <v>1538000</v>
       </c>
       <c r="G81" s="3">
-        <v>2566100</v>
+        <v>2564000</v>
       </c>
       <c r="H81" s="3">
-        <v>2780500</v>
+        <v>2778200</v>
       </c>
       <c r="I81" s="3">
-        <v>4130400</v>
+        <v>4126900</v>
       </c>
       <c r="J81" s="3">
-        <v>3023500</v>
+        <v>3020900</v>
       </c>
       <c r="K81" s="3">
         <v>3313100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3320000</v>
+        <v>3317200</v>
       </c>
       <c r="E83" s="3">
-        <v>3814500</v>
+        <v>3811300</v>
       </c>
       <c r="F83" s="3">
-        <v>3059900</v>
+        <v>3057300</v>
       </c>
       <c r="G83" s="3">
-        <v>3194300</v>
+        <v>3191600</v>
       </c>
       <c r="H83" s="3">
-        <v>3173500</v>
+        <v>3170900</v>
       </c>
       <c r="I83" s="3">
-        <v>2976300</v>
+        <v>2973800</v>
       </c>
       <c r="J83" s="3">
-        <v>2846300</v>
+        <v>2843900</v>
       </c>
       <c r="K83" s="3">
         <v>3132600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5167300</v>
+        <v>5162900</v>
       </c>
       <c r="E89" s="3">
-        <v>5009300</v>
+        <v>5005100</v>
       </c>
       <c r="F89" s="3">
-        <v>4775700</v>
+        <v>4771700</v>
       </c>
       <c r="G89" s="3">
-        <v>6149800</v>
+        <v>6144700</v>
       </c>
       <c r="H89" s="3">
-        <v>5556000</v>
+        <v>5551400</v>
       </c>
       <c r="I89" s="3">
-        <v>5811800</v>
+        <v>5807000</v>
       </c>
       <c r="J89" s="3">
-        <v>5939000</v>
+        <v>5934100</v>
       </c>
       <c r="K89" s="3">
         <v>6675100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1485700</v>
+        <v>-1484400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1672900</v>
+        <v>-1671500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2311700</v>
+        <v>-2309800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2551800</v>
+        <v>-2549700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2661900</v>
+        <v>-2659700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2180200</v>
+        <v>-2178400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2033000</v>
+        <v>-2031300</v>
       </c>
       <c r="K91" s="3">
         <v>-2222700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1675000</v>
+        <v>-1673600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2126600</v>
+        <v>-2124900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2583300</v>
+        <v>-2581100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2794800</v>
+        <v>-2792500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3057800</v>
+        <v>-3055200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1577100</v>
+        <v>-1575800</v>
       </c>
       <c r="J94" s="3">
-        <v>-4067500</v>
+        <v>-4064100</v>
       </c>
       <c r="K94" s="3">
         <v>-875800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1359200</v>
+        <v>-1358000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1359900</v>
+        <v>-1358700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1614300</v>
+        <v>-1612900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2251000</v>
+        <v>-2249100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2669700</v>
+        <v>-2667500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2706200</v>
+        <v>-2703900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2643300</v>
+        <v>-2641100</v>
       </c>
       <c r="K96" s="3">
         <v>-2747400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3027000</v>
+        <v>-3024500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2957000</v>
+        <v>-2954500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2206700</v>
+        <v>-2204800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3583700</v>
+        <v>-3580700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4361900</v>
+        <v>-4358300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2699000</v>
+        <v>-2696800</v>
       </c>
       <c r="J100" s="3">
-        <v>-4917900</v>
+        <v>-4913700</v>
       </c>
       <c r="K100" s="3">
         <v>-3433300</v>
@@ -3729,7 +3729,7 @@
         <v>3600</v>
       </c>
       <c r="J101" s="3">
-        <v>94300</v>
+        <v>94200</v>
       </c>
       <c r="K101" s="3">
         <v>-3900</v>
@@ -3747,7 +3747,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>447300</v>
+        <v>447000</v>
       </c>
       <c r="E102" s="3">
         <v>-75000</v>
@@ -3756,16 +3756,16 @@
         <v>-11400</v>
       </c>
       <c r="G102" s="3">
-        <v>-225800</v>
+        <v>-225600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1868000</v>
+        <v>-1866400</v>
       </c>
       <c r="I102" s="3">
-        <v>1539200</v>
+        <v>1538000</v>
       </c>
       <c r="J102" s="3">
-        <v>-2952000</v>
+        <v>-2949500</v>
       </c>
       <c r="K102" s="3">
         <v>2362200</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15392400</v>
+        <v>15715800</v>
       </c>
       <c r="E8" s="3">
-        <v>16928900</v>
+        <v>17284600</v>
       </c>
       <c r="F8" s="3">
-        <v>18034900</v>
+        <v>18413800</v>
       </c>
       <c r="G8" s="3">
-        <v>18455500</v>
+        <v>18843200</v>
       </c>
       <c r="H8" s="3">
-        <v>18573300</v>
+        <v>18963500</v>
       </c>
       <c r="I8" s="3">
-        <v>18500500</v>
+        <v>18889100</v>
       </c>
       <c r="J8" s="3">
-        <v>18227000</v>
+        <v>18609900</v>
       </c>
       <c r="K8" s="3">
         <v>19623000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5939100</v>
+        <v>6063800</v>
       </c>
       <c r="E9" s="3">
-        <v>6502400</v>
+        <v>6639000</v>
       </c>
       <c r="F9" s="3">
-        <v>6524500</v>
+        <v>6661600</v>
       </c>
       <c r="G9" s="3">
-        <v>5953300</v>
+        <v>6078400</v>
       </c>
       <c r="H9" s="3">
-        <v>5477100</v>
+        <v>5592200</v>
       </c>
       <c r="I9" s="3">
-        <v>5174400</v>
+        <v>5283100</v>
       </c>
       <c r="J9" s="3">
-        <v>4903800</v>
+        <v>5006800</v>
       </c>
       <c r="K9" s="3">
         <v>5033600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9453400</v>
+        <v>9652000</v>
       </c>
       <c r="E10" s="3">
-        <v>10426500</v>
+        <v>10645600</v>
       </c>
       <c r="F10" s="3">
-        <v>11510400</v>
+        <v>11752200</v>
       </c>
       <c r="G10" s="3">
-        <v>12502100</v>
+        <v>12764800</v>
       </c>
       <c r="H10" s="3">
-        <v>13096200</v>
+        <v>13371300</v>
       </c>
       <c r="I10" s="3">
-        <v>13326100</v>
+        <v>13606100</v>
       </c>
       <c r="J10" s="3">
-        <v>13323200</v>
+        <v>13603100</v>
       </c>
       <c r="K10" s="3">
         <v>14589400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>486900</v>
+        <v>497200</v>
       </c>
       <c r="E14" s="3">
-        <v>741800</v>
+        <v>757400</v>
       </c>
       <c r="F14" s="3">
-        <v>1083900</v>
+        <v>1106600</v>
       </c>
       <c r="G14" s="3">
-        <v>592600</v>
+        <v>605100</v>
       </c>
       <c r="H14" s="3">
-        <v>389800</v>
+        <v>398000</v>
       </c>
       <c r="I14" s="3">
-        <v>317700</v>
+        <v>324400</v>
       </c>
       <c r="J14" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="K14" s="3">
         <v>217800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3317200</v>
+        <v>3386900</v>
       </c>
       <c r="E15" s="3">
-        <v>3811300</v>
+        <v>3891400</v>
       </c>
       <c r="F15" s="3">
-        <v>3057300</v>
+        <v>3121600</v>
       </c>
       <c r="G15" s="3">
-        <v>3191600</v>
+        <v>3258600</v>
       </c>
       <c r="H15" s="3">
-        <v>3170900</v>
+        <v>3237500</v>
       </c>
       <c r="I15" s="3">
-        <v>2966700</v>
+        <v>3029000</v>
       </c>
       <c r="J15" s="3">
-        <v>2837400</v>
+        <v>2897000</v>
       </c>
       <c r="K15" s="3">
         <v>3061300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14303600</v>
+        <v>14604100</v>
       </c>
       <c r="E17" s="3">
-        <v>16122800</v>
+        <v>16461500</v>
       </c>
       <c r="F17" s="3">
-        <v>17210300</v>
+        <v>17571800</v>
       </c>
       <c r="G17" s="3">
-        <v>16272800</v>
+        <v>16614600</v>
       </c>
       <c r="H17" s="3">
-        <v>15685900</v>
+        <v>16015400</v>
       </c>
       <c r="I17" s="3">
-        <v>14806200</v>
+        <v>15117300</v>
       </c>
       <c r="J17" s="3">
-        <v>13962300</v>
+        <v>14255600</v>
       </c>
       <c r="K17" s="3">
         <v>14811000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1088900</v>
+        <v>1111700</v>
       </c>
       <c r="E18" s="3">
-        <v>806100</v>
+        <v>823000</v>
       </c>
       <c r="F18" s="3">
-        <v>824700</v>
+        <v>842000</v>
       </c>
       <c r="G18" s="3">
-        <v>2182700</v>
+        <v>2228600</v>
       </c>
       <c r="H18" s="3">
-        <v>2887400</v>
+        <v>2948100</v>
       </c>
       <c r="I18" s="3">
-        <v>3694200</v>
+        <v>3771800</v>
       </c>
       <c r="J18" s="3">
-        <v>4264700</v>
+        <v>4354300</v>
       </c>
       <c r="K18" s="3">
         <v>4812000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1043900</v>
+        <v>1065800</v>
       </c>
       <c r="E20" s="3">
-        <v>1711500</v>
+        <v>1747400</v>
       </c>
       <c r="F20" s="3">
-        <v>1859300</v>
+        <v>1898300</v>
       </c>
       <c r="G20" s="3">
-        <v>1969200</v>
+        <v>2010600</v>
       </c>
       <c r="H20" s="3">
-        <v>1672200</v>
+        <v>1707300</v>
       </c>
       <c r="I20" s="3">
-        <v>883200</v>
+        <v>901800</v>
       </c>
       <c r="J20" s="3">
-        <v>498400</v>
+        <v>508800</v>
       </c>
       <c r="K20" s="3">
         <v>714600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5442100</v>
+        <v>5579300</v>
       </c>
       <c r="E21" s="3">
-        <v>6319800</v>
+        <v>6478900</v>
       </c>
       <c r="F21" s="3">
-        <v>5734000</v>
+        <v>5875600</v>
       </c>
       <c r="G21" s="3">
-        <v>7335900</v>
+        <v>7512100</v>
       </c>
       <c r="H21" s="3">
-        <v>7722900</v>
+        <v>7907100</v>
       </c>
       <c r="I21" s="3">
-        <v>7544200</v>
+        <v>7723200</v>
       </c>
       <c r="J21" s="3">
-        <v>7600200</v>
+        <v>7779500</v>
       </c>
       <c r="K21" s="3">
         <v>8659900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>389800</v>
+        <v>398000</v>
       </c>
       <c r="E22" s="3">
-        <v>521200</v>
+        <v>532200</v>
       </c>
       <c r="F22" s="3">
-        <v>490500</v>
+        <v>500800</v>
       </c>
       <c r="G22" s="3">
-        <v>482700</v>
+        <v>492800</v>
       </c>
       <c r="H22" s="3">
-        <v>527600</v>
+        <v>538700</v>
       </c>
       <c r="I22" s="3">
-        <v>579100</v>
+        <v>591200</v>
       </c>
       <c r="J22" s="3">
-        <v>579100</v>
+        <v>591200</v>
       </c>
       <c r="K22" s="3">
         <v>699800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1742900</v>
+        <v>1779500</v>
       </c>
       <c r="E23" s="3">
-        <v>1996300</v>
+        <v>2038300</v>
       </c>
       <c r="F23" s="3">
-        <v>2193400</v>
+        <v>2239500</v>
       </c>
       <c r="G23" s="3">
-        <v>3669200</v>
+        <v>3746300</v>
       </c>
       <c r="H23" s="3">
-        <v>4032000</v>
+        <v>4116700</v>
       </c>
       <c r="I23" s="3">
-        <v>3998400</v>
+        <v>4082400</v>
       </c>
       <c r="J23" s="3">
-        <v>4184000</v>
+        <v>4271900</v>
       </c>
       <c r="K23" s="3">
         <v>4826700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>384800</v>
+        <v>392900</v>
       </c>
       <c r="E24" s="3">
-        <v>683300</v>
+        <v>697700</v>
       </c>
       <c r="F24" s="3">
-        <v>659000</v>
+        <v>672900</v>
       </c>
       <c r="G24" s="3">
-        <v>1129500</v>
+        <v>1153300</v>
       </c>
       <c r="H24" s="3">
-        <v>1265900</v>
+        <v>1292500</v>
       </c>
       <c r="I24" s="3">
-        <v>1262400</v>
+        <v>1288900</v>
       </c>
       <c r="J24" s="3">
-        <v>1246600</v>
+        <v>1272800</v>
       </c>
       <c r="K24" s="3">
         <v>1301200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1358000</v>
+        <v>1386600</v>
       </c>
       <c r="E26" s="3">
-        <v>1313000</v>
+        <v>1340600</v>
       </c>
       <c r="F26" s="3">
-        <v>1534400</v>
+        <v>1566600</v>
       </c>
       <c r="G26" s="3">
-        <v>2539700</v>
+        <v>2593100</v>
       </c>
       <c r="H26" s="3">
-        <v>2766000</v>
+        <v>2824100</v>
       </c>
       <c r="I26" s="3">
-        <v>2736000</v>
+        <v>2793500</v>
       </c>
       <c r="J26" s="3">
-        <v>2937400</v>
+        <v>2999100</v>
       </c>
       <c r="K26" s="3">
         <v>3525500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1325900</v>
+        <v>1353800</v>
       </c>
       <c r="E27" s="3">
-        <v>1298800</v>
+        <v>1326100</v>
       </c>
       <c r="F27" s="3">
-        <v>1538000</v>
+        <v>1570300</v>
       </c>
       <c r="G27" s="3">
-        <v>2564000</v>
+        <v>2617800</v>
       </c>
       <c r="H27" s="3">
-        <v>2778200</v>
+        <v>2836500</v>
       </c>
       <c r="I27" s="3">
-        <v>2686800</v>
+        <v>2743200</v>
       </c>
       <c r="J27" s="3">
-        <v>2884600</v>
+        <v>2945200</v>
       </c>
       <c r="K27" s="3">
         <v>3471200</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>1440100</v>
+        <v>1470400</v>
       </c>
       <c r="J29" s="3">
-        <v>136400</v>
+        <v>139200</v>
       </c>
       <c r="K29" s="3">
         <v>-158100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1043900</v>
+        <v>-1065800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1711500</v>
+        <v>-1747400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1859300</v>
+        <v>-1898300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1969200</v>
+        <v>-2010600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1672200</v>
+        <v>-1707300</v>
       </c>
       <c r="I32" s="3">
-        <v>-883200</v>
+        <v>-901800</v>
       </c>
       <c r="J32" s="3">
-        <v>-498400</v>
+        <v>-508800</v>
       </c>
       <c r="K32" s="3">
         <v>-714600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1325900</v>
+        <v>1353800</v>
       </c>
       <c r="E33" s="3">
-        <v>1298800</v>
+        <v>1326100</v>
       </c>
       <c r="F33" s="3">
-        <v>1538000</v>
+        <v>1570300</v>
       </c>
       <c r="G33" s="3">
-        <v>2564000</v>
+        <v>2617800</v>
       </c>
       <c r="H33" s="3">
-        <v>2778200</v>
+        <v>2836500</v>
       </c>
       <c r="I33" s="3">
-        <v>4126900</v>
+        <v>4213600</v>
       </c>
       <c r="J33" s="3">
-        <v>3020900</v>
+        <v>3084400</v>
       </c>
       <c r="K33" s="3">
         <v>3313100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1325900</v>
+        <v>1353800</v>
       </c>
       <c r="E35" s="3">
-        <v>1298800</v>
+        <v>1326100</v>
       </c>
       <c r="F35" s="3">
-        <v>1538000</v>
+        <v>1570300</v>
       </c>
       <c r="G35" s="3">
-        <v>2564000</v>
+        <v>2617800</v>
       </c>
       <c r="H35" s="3">
-        <v>2778200</v>
+        <v>2836500</v>
       </c>
       <c r="I35" s="3">
-        <v>4126900</v>
+        <v>4213600</v>
       </c>
       <c r="J35" s="3">
-        <v>3020900</v>
+        <v>3084400</v>
       </c>
       <c r="K35" s="3">
         <v>3313100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>803300</v>
+        <v>820100</v>
       </c>
       <c r="E41" s="3">
-        <v>356300</v>
+        <v>363800</v>
       </c>
       <c r="F41" s="3">
-        <v>431300</v>
+        <v>440300</v>
       </c>
       <c r="G41" s="3">
-        <v>449100</v>
+        <v>458500</v>
       </c>
       <c r="H41" s="3">
-        <v>1339500</v>
+        <v>1367600</v>
       </c>
       <c r="I41" s="3">
-        <v>2534700</v>
+        <v>2587900</v>
       </c>
       <c r="J41" s="3">
-        <v>996700</v>
+        <v>1017700</v>
       </c>
       <c r="K41" s="3">
         <v>236400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3271500</v>
+        <v>3340300</v>
       </c>
       <c r="E43" s="3">
-        <v>3657800</v>
+        <v>3734700</v>
       </c>
       <c r="F43" s="3">
-        <v>3854900</v>
+        <v>3935900</v>
       </c>
       <c r="G43" s="3">
-        <v>6166800</v>
+        <v>6296400</v>
       </c>
       <c r="H43" s="3">
-        <v>8260300</v>
+        <v>8433800</v>
       </c>
       <c r="I43" s="3">
-        <v>3387900</v>
+        <v>3459100</v>
       </c>
       <c r="J43" s="3">
-        <v>3377200</v>
+        <v>3448200</v>
       </c>
       <c r="K43" s="3">
         <v>3234800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>274900</v>
+        <v>280700</v>
       </c>
       <c r="E44" s="3">
-        <v>298500</v>
+        <v>304700</v>
       </c>
       <c r="F44" s="3">
-        <v>319900</v>
+        <v>326600</v>
       </c>
       <c r="G44" s="3">
-        <v>351300</v>
+        <v>358700</v>
       </c>
       <c r="H44" s="3">
-        <v>972500</v>
+        <v>992900</v>
       </c>
       <c r="I44" s="3">
-        <v>397700</v>
+        <v>406100</v>
       </c>
       <c r="J44" s="3">
-        <v>350600</v>
+        <v>357900</v>
       </c>
       <c r="K44" s="3">
         <v>280600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>729700</v>
+        <v>745000</v>
       </c>
       <c r="E45" s="3">
-        <v>352700</v>
+        <v>360100</v>
       </c>
       <c r="F45" s="3">
-        <v>608300</v>
+        <v>621100</v>
       </c>
       <c r="G45" s="3">
-        <v>410500</v>
+        <v>419200</v>
       </c>
       <c r="H45" s="3">
-        <v>384800</v>
+        <v>392900</v>
       </c>
       <c r="I45" s="3">
-        <v>348400</v>
+        <v>355800</v>
       </c>
       <c r="J45" s="3">
-        <v>252000</v>
+        <v>257300</v>
       </c>
       <c r="K45" s="3">
         <v>290600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5079400</v>
+        <v>5186100</v>
       </c>
       <c r="E46" s="3">
-        <v>4665300</v>
+        <v>4763300</v>
       </c>
       <c r="F46" s="3">
-        <v>5214300</v>
+        <v>5323900</v>
       </c>
       <c r="G46" s="3">
-        <v>5205100</v>
+        <v>5314400</v>
       </c>
       <c r="H46" s="3">
-        <v>5745600</v>
+        <v>5866300</v>
       </c>
       <c r="I46" s="3">
-        <v>6668800</v>
+        <v>6808900</v>
       </c>
       <c r="J46" s="3">
-        <v>4976600</v>
+        <v>5081100</v>
       </c>
       <c r="K46" s="3">
         <v>8089400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1571500</v>
+        <v>1604500</v>
       </c>
       <c r="E47" s="3">
-        <v>1675000</v>
+        <v>1710200</v>
       </c>
       <c r="F47" s="3">
-        <v>1501500</v>
+        <v>1533100</v>
       </c>
       <c r="G47" s="3">
-        <v>1430100</v>
+        <v>1460200</v>
       </c>
       <c r="H47" s="3">
-        <v>1782100</v>
+        <v>1819600</v>
       </c>
       <c r="I47" s="3">
-        <v>1326600</v>
+        <v>1354500</v>
       </c>
       <c r="J47" s="3">
-        <v>1077400</v>
+        <v>1100100</v>
       </c>
       <c r="K47" s="3">
         <v>1004400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16932500</v>
+        <v>17288200</v>
       </c>
       <c r="E48" s="3">
-        <v>17513700</v>
+        <v>17881600</v>
       </c>
       <c r="F48" s="3">
-        <v>15945000</v>
+        <v>16280000</v>
       </c>
       <c r="G48" s="3">
-        <v>15785100</v>
+        <v>16116700</v>
       </c>
       <c r="H48" s="3">
-        <v>30487800</v>
+        <v>31128300</v>
       </c>
       <c r="I48" s="3">
-        <v>14694800</v>
+        <v>15003500</v>
       </c>
       <c r="J48" s="3">
-        <v>14601300</v>
+        <v>14908000</v>
       </c>
       <c r="K48" s="3">
         <v>15377600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5091500</v>
+        <v>5198500</v>
       </c>
       <c r="E49" s="3">
-        <v>5292200</v>
+        <v>5403300</v>
       </c>
       <c r="F49" s="3">
-        <v>5147900</v>
+        <v>5256100</v>
       </c>
       <c r="G49" s="3">
-        <v>6554500</v>
+        <v>6692200</v>
       </c>
       <c r="H49" s="3">
-        <v>12762800</v>
+        <v>13030900</v>
       </c>
       <c r="I49" s="3">
-        <v>6589500</v>
+        <v>6727900</v>
       </c>
       <c r="J49" s="3">
-        <v>6818700</v>
+        <v>6961900</v>
       </c>
       <c r="K49" s="3">
         <v>4946100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1687900</v>
+        <v>1723400</v>
       </c>
       <c r="E52" s="3">
-        <v>2557500</v>
+        <v>2611300</v>
       </c>
       <c r="F52" s="3">
-        <v>2599700</v>
+        <v>2654300</v>
       </c>
       <c r="G52" s="3">
-        <v>2427600</v>
+        <v>2478600</v>
       </c>
       <c r="H52" s="3">
-        <v>2024200</v>
+        <v>2066700</v>
       </c>
       <c r="I52" s="3">
-        <v>1626500</v>
+        <v>1660700</v>
       </c>
       <c r="J52" s="3">
-        <v>1559400</v>
+        <v>1592100</v>
       </c>
       <c r="K52" s="3">
         <v>1086500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30362800</v>
+        <v>31000700</v>
       </c>
       <c r="E54" s="3">
-        <v>31703700</v>
+        <v>32369800</v>
       </c>
       <c r="F54" s="3">
-        <v>30408500</v>
+        <v>31047400</v>
       </c>
       <c r="G54" s="3">
-        <v>30504200</v>
+        <v>31145100</v>
       </c>
       <c r="H54" s="3">
-        <v>29992300</v>
+        <v>30622400</v>
       </c>
       <c r="I54" s="3">
-        <v>30906200</v>
+        <v>31555500</v>
       </c>
       <c r="J54" s="3">
-        <v>28877700</v>
+        <v>29484400</v>
       </c>
       <c r="K54" s="3">
         <v>30504000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>859700</v>
+        <v>877700</v>
       </c>
       <c r="E57" s="3">
-        <v>705400</v>
+        <v>720300</v>
       </c>
       <c r="F57" s="3">
-        <v>606200</v>
+        <v>618900</v>
       </c>
       <c r="G57" s="3">
-        <v>1133800</v>
+        <v>1157700</v>
       </c>
       <c r="H57" s="3">
-        <v>3662100</v>
+        <v>3739000</v>
       </c>
       <c r="I57" s="3">
-        <v>1046000</v>
+        <v>1068000</v>
       </c>
       <c r="J57" s="3">
-        <v>896800</v>
+        <v>915600</v>
       </c>
       <c r="K57" s="3">
         <v>902100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2951700</v>
+        <v>3013700</v>
       </c>
       <c r="E58" s="3">
-        <v>2409000</v>
+        <v>2459600</v>
       </c>
       <c r="F58" s="3">
-        <v>1586500</v>
+        <v>1619800</v>
       </c>
       <c r="G58" s="3">
-        <v>1167400</v>
+        <v>1191900</v>
       </c>
       <c r="H58" s="3">
-        <v>3535700</v>
+        <v>3610000</v>
       </c>
       <c r="I58" s="3">
-        <v>1895700</v>
+        <v>1935500</v>
       </c>
       <c r="J58" s="3">
-        <v>1068100</v>
+        <v>1090600</v>
       </c>
       <c r="K58" s="3">
         <v>1764700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3631400</v>
+        <v>3707700</v>
       </c>
       <c r="E59" s="3">
-        <v>4092600</v>
+        <v>4178600</v>
       </c>
       <c r="F59" s="3">
-        <v>4628100</v>
+        <v>4725400</v>
       </c>
       <c r="G59" s="3">
-        <v>4847300</v>
+        <v>4949200</v>
       </c>
       <c r="H59" s="3">
-        <v>4927300</v>
+        <v>5030800</v>
       </c>
       <c r="I59" s="3">
-        <v>3618600</v>
+        <v>3694600</v>
       </c>
       <c r="J59" s="3">
-        <v>3929100</v>
+        <v>4011700</v>
       </c>
       <c r="K59" s="3">
         <v>4063300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7442700</v>
+        <v>7599100</v>
       </c>
       <c r="E60" s="3">
-        <v>7207100</v>
+        <v>7358500</v>
       </c>
       <c r="F60" s="3">
-        <v>6820800</v>
+        <v>6964100</v>
       </c>
       <c r="G60" s="3">
-        <v>6272500</v>
+        <v>6404300</v>
       </c>
       <c r="H60" s="3">
-        <v>6483800</v>
+        <v>6620000</v>
       </c>
       <c r="I60" s="3">
-        <v>6560200</v>
+        <v>6698100</v>
       </c>
       <c r="J60" s="3">
-        <v>5804100</v>
+        <v>5926000</v>
       </c>
       <c r="K60" s="3">
         <v>6730100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9501200</v>
+        <v>9700800</v>
       </c>
       <c r="E61" s="3">
-        <v>11247600</v>
+        <v>11483900</v>
       </c>
       <c r="F61" s="3">
-        <v>10732100</v>
+        <v>10957600</v>
       </c>
       <c r="G61" s="3">
-        <v>10935600</v>
+        <v>11165400</v>
       </c>
       <c r="H61" s="3">
-        <v>10572900</v>
+        <v>10795000</v>
       </c>
       <c r="I61" s="3">
-        <v>10458000</v>
+        <v>10677700</v>
       </c>
       <c r="J61" s="3">
-        <v>10094500</v>
+        <v>10306600</v>
       </c>
       <c r="K61" s="3">
         <v>10498900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2512600</v>
+        <v>2565400</v>
       </c>
       <c r="E62" s="3">
-        <v>2434000</v>
+        <v>2485200</v>
       </c>
       <c r="F62" s="3">
-        <v>2481200</v>
+        <v>2533300</v>
       </c>
       <c r="G62" s="3">
-        <v>3794900</v>
+        <v>3874600</v>
       </c>
       <c r="H62" s="3">
-        <v>3660700</v>
+        <v>3737600</v>
       </c>
       <c r="I62" s="3">
-        <v>2530400</v>
+        <v>2583600</v>
       </c>
       <c r="J62" s="3">
-        <v>2716800</v>
+        <v>2773800</v>
       </c>
       <c r="K62" s="3">
         <v>2456000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19947000</v>
+        <v>20366100</v>
       </c>
       <c r="E66" s="3">
-        <v>21370000</v>
+        <v>21819000</v>
       </c>
       <c r="F66" s="3">
-        <v>20020600</v>
+        <v>20441200</v>
       </c>
       <c r="G66" s="3">
-        <v>20057000</v>
+        <v>20478300</v>
       </c>
       <c r="H66" s="3">
-        <v>19902000</v>
+        <v>20320100</v>
       </c>
       <c r="I66" s="3">
-        <v>19574300</v>
+        <v>19985500</v>
       </c>
       <c r="J66" s="3">
-        <v>18808200</v>
+        <v>19203300</v>
       </c>
       <c r="K66" s="3">
         <v>19792000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7145000</v>
+        <v>7295100</v>
       </c>
       <c r="E72" s="3">
-        <v>7147100</v>
+        <v>7297300</v>
       </c>
       <c r="F72" s="3">
-        <v>7249200</v>
+        <v>7401500</v>
       </c>
       <c r="G72" s="3">
-        <v>7374200</v>
+        <v>7529100</v>
       </c>
       <c r="H72" s="3">
-        <v>6930800</v>
+        <v>7076400</v>
       </c>
       <c r="I72" s="3">
-        <v>7597000</v>
+        <v>7756600</v>
       </c>
       <c r="J72" s="3">
-        <v>6313200</v>
+        <v>6445800</v>
       </c>
       <c r="K72" s="3">
         <v>6441000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10415800</v>
+        <v>10634700</v>
       </c>
       <c r="E76" s="3">
-        <v>10333700</v>
+        <v>10550800</v>
       </c>
       <c r="F76" s="3">
-        <v>10388000</v>
+        <v>10606200</v>
       </c>
       <c r="G76" s="3">
-        <v>10447200</v>
+        <v>10666700</v>
       </c>
       <c r="H76" s="3">
-        <v>10090200</v>
+        <v>10302200</v>
       </c>
       <c r="I76" s="3">
-        <v>11331900</v>
+        <v>11570000</v>
       </c>
       <c r="J76" s="3">
-        <v>10069500</v>
+        <v>10281100</v>
       </c>
       <c r="K76" s="3">
         <v>10712100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1325900</v>
+        <v>1353800</v>
       </c>
       <c r="E81" s="3">
-        <v>1298800</v>
+        <v>1326100</v>
       </c>
       <c r="F81" s="3">
-        <v>1538000</v>
+        <v>1570300</v>
       </c>
       <c r="G81" s="3">
-        <v>2564000</v>
+        <v>2617800</v>
       </c>
       <c r="H81" s="3">
-        <v>2778200</v>
+        <v>2836500</v>
       </c>
       <c r="I81" s="3">
-        <v>4126900</v>
+        <v>4213600</v>
       </c>
       <c r="J81" s="3">
-        <v>3020900</v>
+        <v>3084400</v>
       </c>
       <c r="K81" s="3">
         <v>3313100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3317200</v>
+        <v>3386900</v>
       </c>
       <c r="E83" s="3">
-        <v>3811300</v>
+        <v>3891400</v>
       </c>
       <c r="F83" s="3">
-        <v>3057300</v>
+        <v>3121600</v>
       </c>
       <c r="G83" s="3">
-        <v>3191600</v>
+        <v>3258600</v>
       </c>
       <c r="H83" s="3">
-        <v>3170900</v>
+        <v>3237500</v>
       </c>
       <c r="I83" s="3">
-        <v>2973800</v>
+        <v>3036300</v>
       </c>
       <c r="J83" s="3">
-        <v>2843900</v>
+        <v>2903600</v>
       </c>
       <c r="K83" s="3">
         <v>3132600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5162900</v>
+        <v>5271400</v>
       </c>
       <c r="E89" s="3">
-        <v>5005100</v>
+        <v>5110300</v>
       </c>
       <c r="F89" s="3">
-        <v>4771700</v>
+        <v>4871900</v>
       </c>
       <c r="G89" s="3">
-        <v>6144700</v>
+        <v>6273800</v>
       </c>
       <c r="H89" s="3">
-        <v>5551400</v>
+        <v>5668000</v>
       </c>
       <c r="I89" s="3">
-        <v>5807000</v>
+        <v>5929000</v>
       </c>
       <c r="J89" s="3">
-        <v>5934100</v>
+        <v>6058700</v>
       </c>
       <c r="K89" s="3">
         <v>6675100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1484400</v>
+        <v>-1515600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1671500</v>
+        <v>-1706600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2309800</v>
+        <v>-2358300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2549700</v>
+        <v>-2603300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2659700</v>
+        <v>-2715500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2178400</v>
+        <v>-2224200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2031300</v>
+        <v>-2074000</v>
       </c>
       <c r="K91" s="3">
         <v>-2222700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1673600</v>
+        <v>-1708800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2124900</v>
+        <v>-2169500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2581100</v>
+        <v>-2635300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2792500</v>
+        <v>-2851100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3055200</v>
+        <v>-3119400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1575800</v>
+        <v>-1608900</v>
       </c>
       <c r="J94" s="3">
-        <v>-4064100</v>
+        <v>-4149500</v>
       </c>
       <c r="K94" s="3">
         <v>-875800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1358000</v>
+        <v>-1386600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1358700</v>
+        <v>-1387300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1612900</v>
+        <v>-1646800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2249100</v>
+        <v>-2296400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2667500</v>
+        <v>-2723500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2703900</v>
+        <v>-2760700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2641100</v>
+        <v>-2696600</v>
       </c>
       <c r="K96" s="3">
         <v>-2747400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3024500</v>
+        <v>-3088000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2954500</v>
+        <v>-3016600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2204800</v>
+        <v>-2251200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3580700</v>
+        <v>-3655900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4358300</v>
+        <v>-4449800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2696800</v>
+        <v>-2753400</v>
       </c>
       <c r="J100" s="3">
-        <v>-4913700</v>
+        <v>-5017000</v>
       </c>
       <c r="K100" s="3">
         <v>-3433300</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17900</v>
+        <v>-18200</v>
       </c>
       <c r="E101" s="3">
         <v>-700</v>
@@ -3723,13 +3723,13 @@
         <v>2900</v>
       </c>
       <c r="H101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="I101" s="3">
         <v>3600</v>
       </c>
       <c r="J101" s="3">
-        <v>94200</v>
+        <v>96200</v>
       </c>
       <c r="K101" s="3">
         <v>-3900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>447000</v>
+        <v>456400</v>
       </c>
       <c r="E102" s="3">
-        <v>-75000</v>
+        <v>-76500</v>
       </c>
       <c r="F102" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="G102" s="3">
-        <v>-225600</v>
+        <v>-230400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1866400</v>
+        <v>-1905600</v>
       </c>
       <c r="I102" s="3">
-        <v>1538000</v>
+        <v>1570300</v>
       </c>
       <c r="J102" s="3">
-        <v>-2949500</v>
+        <v>-3011500</v>
       </c>
       <c r="K102" s="3">
         <v>2362200</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15715800</v>
+        <v>14775900</v>
       </c>
       <c r="E8" s="3">
-        <v>17284600</v>
+        <v>16250800</v>
       </c>
       <c r="F8" s="3">
-        <v>18413800</v>
+        <v>17312500</v>
       </c>
       <c r="G8" s="3">
-        <v>18843200</v>
+        <v>17716200</v>
       </c>
       <c r="H8" s="3">
-        <v>18963500</v>
+        <v>17829300</v>
       </c>
       <c r="I8" s="3">
-        <v>18889100</v>
+        <v>17759400</v>
       </c>
       <c r="J8" s="3">
-        <v>18609900</v>
+        <v>17496900</v>
       </c>
       <c r="K8" s="3">
         <v>19623000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6063800</v>
+        <v>5701200</v>
       </c>
       <c r="E9" s="3">
-        <v>6639000</v>
+        <v>6241900</v>
       </c>
       <c r="F9" s="3">
-        <v>6661600</v>
+        <v>6263200</v>
       </c>
       <c r="G9" s="3">
-        <v>6078400</v>
+        <v>5714900</v>
       </c>
       <c r="H9" s="3">
-        <v>5592200</v>
+        <v>5257700</v>
       </c>
       <c r="I9" s="3">
-        <v>5283100</v>
+        <v>4967100</v>
       </c>
       <c r="J9" s="3">
-        <v>5006800</v>
+        <v>4707300</v>
       </c>
       <c r="K9" s="3">
         <v>5033600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9652000</v>
+        <v>9074700</v>
       </c>
       <c r="E10" s="3">
-        <v>10645600</v>
+        <v>10008900</v>
       </c>
       <c r="F10" s="3">
-        <v>11752200</v>
+        <v>11049300</v>
       </c>
       <c r="G10" s="3">
-        <v>12764800</v>
+        <v>12001400</v>
       </c>
       <c r="H10" s="3">
-        <v>13371300</v>
+        <v>12571600</v>
       </c>
       <c r="I10" s="3">
-        <v>13606100</v>
+        <v>12792300</v>
       </c>
       <c r="J10" s="3">
-        <v>13603100</v>
+        <v>12789600</v>
       </c>
       <c r="K10" s="3">
         <v>14589400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>497200</v>
+        <v>467400</v>
       </c>
       <c r="E14" s="3">
-        <v>757400</v>
+        <v>712100</v>
       </c>
       <c r="F14" s="3">
-        <v>1106600</v>
+        <v>1040400</v>
       </c>
       <c r="G14" s="3">
-        <v>605100</v>
+        <v>568900</v>
       </c>
       <c r="H14" s="3">
-        <v>398000</v>
+        <v>374200</v>
       </c>
       <c r="I14" s="3">
-        <v>324400</v>
+        <v>305000</v>
       </c>
       <c r="J14" s="3">
-        <v>113000</v>
+        <v>106200</v>
       </c>
       <c r="K14" s="3">
         <v>217800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3386900</v>
+        <v>3184400</v>
       </c>
       <c r="E15" s="3">
-        <v>3891400</v>
+        <v>3658700</v>
       </c>
       <c r="F15" s="3">
-        <v>3121600</v>
+        <v>2934900</v>
       </c>
       <c r="G15" s="3">
-        <v>3258600</v>
+        <v>3063700</v>
       </c>
       <c r="H15" s="3">
-        <v>3237500</v>
+        <v>3043900</v>
       </c>
       <c r="I15" s="3">
-        <v>3029000</v>
+        <v>2847800</v>
       </c>
       <c r="J15" s="3">
-        <v>2897000</v>
+        <v>2723800</v>
       </c>
       <c r="K15" s="3">
         <v>3061300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14604100</v>
+        <v>13730600</v>
       </c>
       <c r="E17" s="3">
-        <v>16461500</v>
+        <v>15477000</v>
       </c>
       <c r="F17" s="3">
-        <v>17571800</v>
+        <v>16520900</v>
       </c>
       <c r="G17" s="3">
-        <v>16614600</v>
+        <v>15621000</v>
       </c>
       <c r="H17" s="3">
-        <v>16015400</v>
+        <v>15057600</v>
       </c>
       <c r="I17" s="3">
-        <v>15117300</v>
+        <v>14213100</v>
       </c>
       <c r="J17" s="3">
-        <v>14255600</v>
+        <v>13403000</v>
       </c>
       <c r="K17" s="3">
         <v>14811000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1111700</v>
+        <v>1045200</v>
       </c>
       <c r="E18" s="3">
-        <v>823000</v>
+        <v>773800</v>
       </c>
       <c r="F18" s="3">
-        <v>842000</v>
+        <v>791600</v>
       </c>
       <c r="G18" s="3">
-        <v>2228600</v>
+        <v>2095300</v>
       </c>
       <c r="H18" s="3">
-        <v>2948100</v>
+        <v>2771800</v>
       </c>
       <c r="I18" s="3">
-        <v>3771800</v>
+        <v>3546300</v>
       </c>
       <c r="J18" s="3">
-        <v>4354300</v>
+        <v>4093900</v>
       </c>
       <c r="K18" s="3">
         <v>4812000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1065800</v>
+        <v>1002100</v>
       </c>
       <c r="E20" s="3">
-        <v>1747400</v>
+        <v>1642900</v>
       </c>
       <c r="F20" s="3">
-        <v>1898300</v>
+        <v>1784800</v>
       </c>
       <c r="G20" s="3">
-        <v>2010600</v>
+        <v>1890300</v>
       </c>
       <c r="H20" s="3">
-        <v>1707300</v>
+        <v>1605200</v>
       </c>
       <c r="I20" s="3">
-        <v>901800</v>
+        <v>847800</v>
       </c>
       <c r="J20" s="3">
-        <v>508800</v>
+        <v>478400</v>
       </c>
       <c r="K20" s="3">
         <v>714600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5579300</v>
+        <v>5270200</v>
       </c>
       <c r="E21" s="3">
-        <v>6478900</v>
+        <v>6119700</v>
       </c>
       <c r="F21" s="3">
-        <v>5875600</v>
+        <v>5546800</v>
       </c>
       <c r="G21" s="3">
-        <v>7512100</v>
+        <v>7086400</v>
       </c>
       <c r="H21" s="3">
-        <v>7907100</v>
+        <v>7457700</v>
       </c>
       <c r="I21" s="3">
-        <v>7723200</v>
+        <v>7283400</v>
       </c>
       <c r="J21" s="3">
-        <v>7779500</v>
+        <v>7335300</v>
       </c>
       <c r="K21" s="3">
         <v>8659900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>398000</v>
+        <v>374200</v>
       </c>
       <c r="E22" s="3">
-        <v>532200</v>
+        <v>500300</v>
       </c>
       <c r="F22" s="3">
-        <v>500800</v>
+        <v>470900</v>
       </c>
       <c r="G22" s="3">
-        <v>492800</v>
+        <v>463300</v>
       </c>
       <c r="H22" s="3">
-        <v>538700</v>
+        <v>506500</v>
       </c>
       <c r="I22" s="3">
-        <v>591200</v>
+        <v>555900</v>
       </c>
       <c r="J22" s="3">
-        <v>591200</v>
+        <v>555900</v>
       </c>
       <c r="K22" s="3">
         <v>699800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1779500</v>
+        <v>1673100</v>
       </c>
       <c r="E23" s="3">
-        <v>2038300</v>
+        <v>1916400</v>
       </c>
       <c r="F23" s="3">
-        <v>2239500</v>
+        <v>2105500</v>
       </c>
       <c r="G23" s="3">
-        <v>3746300</v>
+        <v>3522300</v>
       </c>
       <c r="H23" s="3">
-        <v>4116700</v>
+        <v>3870500</v>
       </c>
       <c r="I23" s="3">
-        <v>4082400</v>
+        <v>3838200</v>
       </c>
       <c r="J23" s="3">
-        <v>4271900</v>
+        <v>4016400</v>
       </c>
       <c r="K23" s="3">
         <v>4826700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>392900</v>
+        <v>369400</v>
       </c>
       <c r="E24" s="3">
-        <v>697700</v>
+        <v>655900</v>
       </c>
       <c r="F24" s="3">
-        <v>672900</v>
+        <v>632600</v>
       </c>
       <c r="G24" s="3">
-        <v>1153300</v>
+        <v>1084300</v>
       </c>
       <c r="H24" s="3">
-        <v>1292500</v>
+        <v>1215200</v>
       </c>
       <c r="I24" s="3">
-        <v>1288900</v>
+        <v>1211800</v>
       </c>
       <c r="J24" s="3">
-        <v>1272800</v>
+        <v>1196700</v>
       </c>
       <c r="K24" s="3">
         <v>1301200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1386600</v>
+        <v>1303600</v>
       </c>
       <c r="E26" s="3">
-        <v>1340600</v>
+        <v>1260500</v>
       </c>
       <c r="F26" s="3">
-        <v>1566600</v>
+        <v>1472900</v>
       </c>
       <c r="G26" s="3">
-        <v>2593100</v>
+        <v>2438000</v>
       </c>
       <c r="H26" s="3">
-        <v>2824100</v>
+        <v>2655200</v>
       </c>
       <c r="I26" s="3">
-        <v>2793500</v>
+        <v>2626500</v>
       </c>
       <c r="J26" s="3">
-        <v>2999100</v>
+        <v>2819700</v>
       </c>
       <c r="K26" s="3">
         <v>3525500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1353800</v>
+        <v>1272800</v>
       </c>
       <c r="E27" s="3">
-        <v>1326100</v>
+        <v>1246700</v>
       </c>
       <c r="F27" s="3">
-        <v>1570300</v>
+        <v>1476400</v>
       </c>
       <c r="G27" s="3">
-        <v>2617800</v>
+        <v>2461300</v>
       </c>
       <c r="H27" s="3">
-        <v>2836500</v>
+        <v>2666900</v>
       </c>
       <c r="I27" s="3">
-        <v>2743200</v>
+        <v>2579200</v>
       </c>
       <c r="J27" s="3">
-        <v>2945200</v>
+        <v>2769000</v>
       </c>
       <c r="K27" s="3">
         <v>3471200</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>1470400</v>
+        <v>1382500</v>
       </c>
       <c r="J29" s="3">
-        <v>139200</v>
+        <v>130900</v>
       </c>
       <c r="K29" s="3">
         <v>-158100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1065800</v>
+        <v>-1002100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1747400</v>
+        <v>-1642900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1898300</v>
+        <v>-1784800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2010600</v>
+        <v>-1890300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1707300</v>
+        <v>-1605200</v>
       </c>
       <c r="I32" s="3">
-        <v>-901800</v>
+        <v>-847800</v>
       </c>
       <c r="J32" s="3">
-        <v>-508800</v>
+        <v>-478400</v>
       </c>
       <c r="K32" s="3">
         <v>-714600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1353800</v>
+        <v>1272800</v>
       </c>
       <c r="E33" s="3">
-        <v>1326100</v>
+        <v>1246700</v>
       </c>
       <c r="F33" s="3">
-        <v>1570300</v>
+        <v>1476400</v>
       </c>
       <c r="G33" s="3">
-        <v>2617800</v>
+        <v>2461300</v>
       </c>
       <c r="H33" s="3">
-        <v>2836500</v>
+        <v>2666900</v>
       </c>
       <c r="I33" s="3">
-        <v>4213600</v>
+        <v>3961600</v>
       </c>
       <c r="J33" s="3">
-        <v>3084400</v>
+        <v>2899900</v>
       </c>
       <c r="K33" s="3">
         <v>3313100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1353800</v>
+        <v>1272800</v>
       </c>
       <c r="E35" s="3">
-        <v>1326100</v>
+        <v>1246700</v>
       </c>
       <c r="F35" s="3">
-        <v>1570300</v>
+        <v>1476400</v>
       </c>
       <c r="G35" s="3">
-        <v>2617800</v>
+        <v>2461300</v>
       </c>
       <c r="H35" s="3">
-        <v>2836500</v>
+        <v>2666900</v>
       </c>
       <c r="I35" s="3">
-        <v>4213600</v>
+        <v>3961600</v>
       </c>
       <c r="J35" s="3">
-        <v>3084400</v>
+        <v>2899900</v>
       </c>
       <c r="K35" s="3">
         <v>3313100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>820100</v>
+        <v>771100</v>
       </c>
       <c r="E41" s="3">
-        <v>363800</v>
+        <v>342000</v>
       </c>
       <c r="F41" s="3">
-        <v>440300</v>
+        <v>414000</v>
       </c>
       <c r="G41" s="3">
-        <v>458500</v>
+        <v>431100</v>
       </c>
       <c r="H41" s="3">
-        <v>1367600</v>
+        <v>1285800</v>
       </c>
       <c r="I41" s="3">
-        <v>2587900</v>
+        <v>2433200</v>
       </c>
       <c r="J41" s="3">
-        <v>1017700</v>
+        <v>956800</v>
       </c>
       <c r="K41" s="3">
         <v>236400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3340300</v>
+        <v>3140500</v>
       </c>
       <c r="E43" s="3">
-        <v>3734700</v>
+        <v>3511300</v>
       </c>
       <c r="F43" s="3">
-        <v>3935900</v>
+        <v>3700500</v>
       </c>
       <c r="G43" s="3">
-        <v>6296400</v>
+        <v>5919800</v>
       </c>
       <c r="H43" s="3">
-        <v>8433800</v>
+        <v>7929400</v>
       </c>
       <c r="I43" s="3">
-        <v>3459100</v>
+        <v>3252200</v>
       </c>
       <c r="J43" s="3">
-        <v>3448200</v>
+        <v>3241900</v>
       </c>
       <c r="K43" s="3">
         <v>3234800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>280700</v>
+        <v>263900</v>
       </c>
       <c r="E44" s="3">
-        <v>304700</v>
+        <v>286500</v>
       </c>
       <c r="F44" s="3">
-        <v>326600</v>
+        <v>307100</v>
       </c>
       <c r="G44" s="3">
-        <v>358700</v>
+        <v>337200</v>
       </c>
       <c r="H44" s="3">
-        <v>992900</v>
+        <v>933500</v>
       </c>
       <c r="I44" s="3">
-        <v>406100</v>
+        <v>381800</v>
       </c>
       <c r="J44" s="3">
-        <v>357900</v>
+        <v>336500</v>
       </c>
       <c r="K44" s="3">
         <v>280600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>745000</v>
+        <v>700500</v>
       </c>
       <c r="E45" s="3">
-        <v>360100</v>
+        <v>338600</v>
       </c>
       <c r="F45" s="3">
-        <v>621100</v>
+        <v>584000</v>
       </c>
       <c r="G45" s="3">
-        <v>419200</v>
+        <v>394100</v>
       </c>
       <c r="H45" s="3">
-        <v>392900</v>
+        <v>369400</v>
       </c>
       <c r="I45" s="3">
-        <v>355800</v>
+        <v>334500</v>
       </c>
       <c r="J45" s="3">
-        <v>257300</v>
+        <v>241900</v>
       </c>
       <c r="K45" s="3">
         <v>290600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5186100</v>
+        <v>4875900</v>
       </c>
       <c r="E46" s="3">
-        <v>4763300</v>
+        <v>4478400</v>
       </c>
       <c r="F46" s="3">
-        <v>5323900</v>
+        <v>5005500</v>
       </c>
       <c r="G46" s="3">
-        <v>5314400</v>
+        <v>4996600</v>
       </c>
       <c r="H46" s="3">
-        <v>5866300</v>
+        <v>5515400</v>
       </c>
       <c r="I46" s="3">
-        <v>6808900</v>
+        <v>6401600</v>
       </c>
       <c r="J46" s="3">
-        <v>5081100</v>
+        <v>4777200</v>
       </c>
       <c r="K46" s="3">
         <v>8089400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1604500</v>
+        <v>1508600</v>
       </c>
       <c r="E47" s="3">
-        <v>1710200</v>
+        <v>1607900</v>
       </c>
       <c r="F47" s="3">
-        <v>1533100</v>
+        <v>1441400</v>
       </c>
       <c r="G47" s="3">
-        <v>1460200</v>
+        <v>1372900</v>
       </c>
       <c r="H47" s="3">
-        <v>1819600</v>
+        <v>1710800</v>
       </c>
       <c r="I47" s="3">
-        <v>1354500</v>
+        <v>1273500</v>
       </c>
       <c r="J47" s="3">
-        <v>1100100</v>
+        <v>1034300</v>
       </c>
       <c r="K47" s="3">
         <v>1004400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17288200</v>
+        <v>16254300</v>
       </c>
       <c r="E48" s="3">
-        <v>17881600</v>
+        <v>16812200</v>
       </c>
       <c r="F48" s="3">
-        <v>16280000</v>
+        <v>15306400</v>
       </c>
       <c r="G48" s="3">
-        <v>16116700</v>
+        <v>15152800</v>
       </c>
       <c r="H48" s="3">
-        <v>31128300</v>
+        <v>29266600</v>
       </c>
       <c r="I48" s="3">
-        <v>15003500</v>
+        <v>14106200</v>
       </c>
       <c r="J48" s="3">
-        <v>14908000</v>
+        <v>14016400</v>
       </c>
       <c r="K48" s="3">
         <v>15377600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5198500</v>
+        <v>4887600</v>
       </c>
       <c r="E49" s="3">
-        <v>5403300</v>
+        <v>5080200</v>
       </c>
       <c r="F49" s="3">
-        <v>5256100</v>
+        <v>4941700</v>
       </c>
       <c r="G49" s="3">
-        <v>6692200</v>
+        <v>6292000</v>
       </c>
       <c r="H49" s="3">
-        <v>13030900</v>
+        <v>12251500</v>
       </c>
       <c r="I49" s="3">
-        <v>6727900</v>
+        <v>6325600</v>
       </c>
       <c r="J49" s="3">
-        <v>6961900</v>
+        <v>6545600</v>
       </c>
       <c r="K49" s="3">
         <v>4946100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1723400</v>
+        <v>1620300</v>
       </c>
       <c r="E52" s="3">
-        <v>2611300</v>
+        <v>2455100</v>
       </c>
       <c r="F52" s="3">
-        <v>2654300</v>
+        <v>2495500</v>
       </c>
       <c r="G52" s="3">
-        <v>2478600</v>
+        <v>2330400</v>
       </c>
       <c r="H52" s="3">
-        <v>2066700</v>
+        <v>1943100</v>
       </c>
       <c r="I52" s="3">
-        <v>1660700</v>
+        <v>1561300</v>
       </c>
       <c r="J52" s="3">
-        <v>1592100</v>
+        <v>1496900</v>
       </c>
       <c r="K52" s="3">
         <v>1086500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31000700</v>
+        <v>29146600</v>
       </c>
       <c r="E54" s="3">
-        <v>32369800</v>
+        <v>30433800</v>
       </c>
       <c r="F54" s="3">
-        <v>31047400</v>
+        <v>29190500</v>
       </c>
       <c r="G54" s="3">
-        <v>31145100</v>
+        <v>29282300</v>
       </c>
       <c r="H54" s="3">
-        <v>30622400</v>
+        <v>28790900</v>
       </c>
       <c r="I54" s="3">
-        <v>31555500</v>
+        <v>29668200</v>
       </c>
       <c r="J54" s="3">
-        <v>29484400</v>
+        <v>27721000</v>
       </c>
       <c r="K54" s="3">
         <v>30504000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>877700</v>
+        <v>825200</v>
       </c>
       <c r="E57" s="3">
-        <v>720300</v>
+        <v>677200</v>
       </c>
       <c r="F57" s="3">
-        <v>618900</v>
+        <v>581900</v>
       </c>
       <c r="G57" s="3">
-        <v>1157700</v>
+        <v>1088400</v>
       </c>
       <c r="H57" s="3">
-        <v>3739000</v>
+        <v>3515400</v>
       </c>
       <c r="I57" s="3">
-        <v>1068000</v>
+        <v>1004100</v>
       </c>
       <c r="J57" s="3">
-        <v>915600</v>
+        <v>860900</v>
       </c>
       <c r="K57" s="3">
         <v>902100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3013700</v>
+        <v>2833400</v>
       </c>
       <c r="E58" s="3">
-        <v>2459600</v>
+        <v>2312500</v>
       </c>
       <c r="F58" s="3">
-        <v>1619800</v>
+        <v>1523000</v>
       </c>
       <c r="G58" s="3">
-        <v>1191900</v>
+        <v>1120600</v>
       </c>
       <c r="H58" s="3">
-        <v>3610000</v>
+        <v>3394100</v>
       </c>
       <c r="I58" s="3">
-        <v>1935500</v>
+        <v>1819700</v>
       </c>
       <c r="J58" s="3">
-        <v>1090600</v>
+        <v>1025400</v>
       </c>
       <c r="K58" s="3">
         <v>1764700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3707700</v>
+        <v>3485900</v>
       </c>
       <c r="E59" s="3">
-        <v>4178600</v>
+        <v>3928700</v>
       </c>
       <c r="F59" s="3">
-        <v>4725400</v>
+        <v>4442800</v>
       </c>
       <c r="G59" s="3">
-        <v>4949200</v>
+        <v>4653200</v>
       </c>
       <c r="H59" s="3">
-        <v>5030800</v>
+        <v>4729900</v>
       </c>
       <c r="I59" s="3">
-        <v>3694600</v>
+        <v>3473600</v>
       </c>
       <c r="J59" s="3">
-        <v>4011700</v>
+        <v>3771800</v>
       </c>
       <c r="K59" s="3">
         <v>4063300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7599100</v>
+        <v>7144600</v>
       </c>
       <c r="E60" s="3">
-        <v>7358500</v>
+        <v>6918400</v>
       </c>
       <c r="F60" s="3">
-        <v>6964100</v>
+        <v>6547600</v>
       </c>
       <c r="G60" s="3">
-        <v>6404300</v>
+        <v>6021200</v>
       </c>
       <c r="H60" s="3">
-        <v>6620000</v>
+        <v>6224100</v>
       </c>
       <c r="I60" s="3">
-        <v>6698100</v>
+        <v>6297500</v>
       </c>
       <c r="J60" s="3">
-        <v>5926000</v>
+        <v>5571600</v>
       </c>
       <c r="K60" s="3">
         <v>6730100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9700800</v>
+        <v>9120600</v>
       </c>
       <c r="E61" s="3">
-        <v>11483900</v>
+        <v>10797100</v>
       </c>
       <c r="F61" s="3">
-        <v>10957600</v>
+        <v>10302200</v>
       </c>
       <c r="G61" s="3">
-        <v>11165400</v>
+        <v>10497600</v>
       </c>
       <c r="H61" s="3">
-        <v>10795000</v>
+        <v>10149400</v>
       </c>
       <c r="I61" s="3">
-        <v>10677700</v>
+        <v>10039100</v>
       </c>
       <c r="J61" s="3">
-        <v>10306600</v>
+        <v>9690200</v>
       </c>
       <c r="K61" s="3">
         <v>10498900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2565400</v>
+        <v>2411900</v>
       </c>
       <c r="E62" s="3">
-        <v>2485200</v>
+        <v>2336500</v>
       </c>
       <c r="F62" s="3">
-        <v>2533300</v>
+        <v>2381800</v>
       </c>
       <c r="G62" s="3">
-        <v>3874600</v>
+        <v>3642900</v>
       </c>
       <c r="H62" s="3">
-        <v>3737600</v>
+        <v>3514000</v>
       </c>
       <c r="I62" s="3">
-        <v>2583600</v>
+        <v>2429100</v>
       </c>
       <c r="J62" s="3">
-        <v>2773800</v>
+        <v>2607900</v>
       </c>
       <c r="K62" s="3">
         <v>2456000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20366100</v>
+        <v>19148000</v>
       </c>
       <c r="E66" s="3">
-        <v>21819000</v>
+        <v>20514000</v>
       </c>
       <c r="F66" s="3">
-        <v>20441200</v>
+        <v>19218600</v>
       </c>
       <c r="G66" s="3">
-        <v>20478300</v>
+        <v>19253600</v>
       </c>
       <c r="H66" s="3">
-        <v>20320100</v>
+        <v>19104800</v>
       </c>
       <c r="I66" s="3">
-        <v>19985500</v>
+        <v>18790200</v>
       </c>
       <c r="J66" s="3">
-        <v>19203300</v>
+        <v>18054800</v>
       </c>
       <c r="K66" s="3">
         <v>19792000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7295100</v>
+        <v>6858800</v>
       </c>
       <c r="E72" s="3">
-        <v>7297300</v>
+        <v>6860900</v>
       </c>
       <c r="F72" s="3">
-        <v>7401500</v>
+        <v>6958900</v>
       </c>
       <c r="G72" s="3">
-        <v>7529100</v>
+        <v>7078800</v>
       </c>
       <c r="H72" s="3">
-        <v>7076400</v>
+        <v>6653200</v>
       </c>
       <c r="I72" s="3">
-        <v>7756600</v>
+        <v>7292700</v>
       </c>
       <c r="J72" s="3">
-        <v>6445800</v>
+        <v>6060300</v>
       </c>
       <c r="K72" s="3">
         <v>6441000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10634700</v>
+        <v>9998600</v>
       </c>
       <c r="E76" s="3">
-        <v>10550800</v>
+        <v>9919800</v>
       </c>
       <c r="F76" s="3">
-        <v>10606200</v>
+        <v>9971900</v>
       </c>
       <c r="G76" s="3">
-        <v>10666700</v>
+        <v>10028800</v>
       </c>
       <c r="H76" s="3">
-        <v>10302200</v>
+        <v>9686100</v>
       </c>
       <c r="I76" s="3">
-        <v>11570000</v>
+        <v>10878000</v>
       </c>
       <c r="J76" s="3">
-        <v>10281100</v>
+        <v>9666200</v>
       </c>
       <c r="K76" s="3">
         <v>10712100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1353800</v>
+        <v>1272800</v>
       </c>
       <c r="E81" s="3">
-        <v>1326100</v>
+        <v>1246700</v>
       </c>
       <c r="F81" s="3">
-        <v>1570300</v>
+        <v>1476400</v>
       </c>
       <c r="G81" s="3">
-        <v>2617800</v>
+        <v>2461300</v>
       </c>
       <c r="H81" s="3">
-        <v>2836500</v>
+        <v>2666900</v>
       </c>
       <c r="I81" s="3">
-        <v>4213600</v>
+        <v>3961600</v>
       </c>
       <c r="J81" s="3">
-        <v>3084400</v>
+        <v>2899900</v>
       </c>
       <c r="K81" s="3">
         <v>3313100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3386900</v>
+        <v>3184400</v>
       </c>
       <c r="E83" s="3">
-        <v>3891400</v>
+        <v>3658700</v>
       </c>
       <c r="F83" s="3">
-        <v>3121600</v>
+        <v>2934900</v>
       </c>
       <c r="G83" s="3">
-        <v>3258600</v>
+        <v>3063700</v>
       </c>
       <c r="H83" s="3">
-        <v>3237500</v>
+        <v>3043900</v>
       </c>
       <c r="I83" s="3">
-        <v>3036300</v>
+        <v>2854700</v>
       </c>
       <c r="J83" s="3">
-        <v>2903600</v>
+        <v>2729900</v>
       </c>
       <c r="K83" s="3">
         <v>3132600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5271400</v>
+        <v>4956100</v>
       </c>
       <c r="E89" s="3">
-        <v>5110300</v>
+        <v>4804700</v>
       </c>
       <c r="F89" s="3">
-        <v>4871900</v>
+        <v>4580500</v>
       </c>
       <c r="G89" s="3">
-        <v>6273800</v>
+        <v>5898600</v>
       </c>
       <c r="H89" s="3">
-        <v>5668000</v>
+        <v>5329000</v>
       </c>
       <c r="I89" s="3">
-        <v>5929000</v>
+        <v>5574400</v>
       </c>
       <c r="J89" s="3">
-        <v>6058700</v>
+        <v>5696400</v>
       </c>
       <c r="K89" s="3">
         <v>6675100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1515600</v>
+        <v>-1424900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1706600</v>
+        <v>-1604500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2358300</v>
+        <v>-2217300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2603300</v>
+        <v>-2447600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2715500</v>
+        <v>-2553100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2224200</v>
+        <v>-2091200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2074000</v>
+        <v>-1950000</v>
       </c>
       <c r="K91" s="3">
         <v>-2222700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1708800</v>
+        <v>-1606600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2169500</v>
+        <v>-2039800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2635300</v>
+        <v>-2477700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2851100</v>
+        <v>-2680600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3119400</v>
+        <v>-2932800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1608900</v>
+        <v>-1512700</v>
       </c>
       <c r="J94" s="3">
-        <v>-4149500</v>
+        <v>-3901300</v>
       </c>
       <c r="K94" s="3">
         <v>-875800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1386600</v>
+        <v>-1303600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1387300</v>
+        <v>-1304300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1646800</v>
+        <v>-1548300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2296400</v>
+        <v>-2159000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2723500</v>
+        <v>-2560700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2760700</v>
+        <v>-2595600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2696600</v>
+        <v>-2535300</v>
       </c>
       <c r="K96" s="3">
         <v>-2747400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3088000</v>
+        <v>-2903400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3016600</v>
+        <v>-2836200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2251200</v>
+        <v>-2116500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3655900</v>
+        <v>-3437300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4449800</v>
+        <v>-4183700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2753400</v>
+        <v>-2588800</v>
       </c>
       <c r="J100" s="3">
-        <v>-5017000</v>
+        <v>-4716900</v>
       </c>
       <c r="K100" s="3">
         <v>-3433300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18200</v>
+        <v>-17100</v>
       </c>
       <c r="E101" s="3">
         <v>-700</v>
       </c>
       <c r="F101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="I101" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J101" s="3">
-        <v>96200</v>
+        <v>90500</v>
       </c>
       <c r="K101" s="3">
         <v>-3900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>456400</v>
+        <v>429100</v>
       </c>
       <c r="E102" s="3">
-        <v>-76500</v>
+        <v>-72000</v>
       </c>
       <c r="F102" s="3">
-        <v>-11700</v>
+        <v>-11000</v>
       </c>
       <c r="G102" s="3">
-        <v>-230400</v>
+        <v>-216600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1905600</v>
+        <v>-1791600</v>
       </c>
       <c r="I102" s="3">
-        <v>1570300</v>
+        <v>1476400</v>
       </c>
       <c r="J102" s="3">
-        <v>-3011500</v>
+        <v>-2831400</v>
       </c>
       <c r="K102" s="3">
         <v>2362200</v>

--- a/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14775900</v>
+        <v>14851300</v>
       </c>
       <c r="E8" s="3">
-        <v>16250800</v>
+        <v>15047500</v>
       </c>
       <c r="F8" s="3">
-        <v>17312500</v>
+        <v>16549600</v>
       </c>
       <c r="G8" s="3">
-        <v>17716200</v>
+        <v>17630800</v>
       </c>
       <c r="H8" s="3">
-        <v>17829300</v>
+        <v>18041900</v>
       </c>
       <c r="I8" s="3">
-        <v>17759400</v>
+        <v>18157100</v>
       </c>
       <c r="J8" s="3">
+        <v>18085900</v>
+      </c>
+      <c r="K8" s="3">
         <v>17496900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19623000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16238500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17947900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5701200</v>
+        <v>5743100</v>
       </c>
       <c r="E9" s="3">
-        <v>6241900</v>
+        <v>5806000</v>
       </c>
       <c r="F9" s="3">
-        <v>6263200</v>
+        <v>6356700</v>
       </c>
       <c r="G9" s="3">
-        <v>5714900</v>
+        <v>6378300</v>
       </c>
       <c r="H9" s="3">
-        <v>5257700</v>
+        <v>5819900</v>
       </c>
       <c r="I9" s="3">
-        <v>4967100</v>
+        <v>5354400</v>
       </c>
       <c r="J9" s="3">
+        <v>5058400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4707300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5033600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8403200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4371600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9074700</v>
+        <v>9108200</v>
       </c>
       <c r="E10" s="3">
-        <v>10008900</v>
+        <v>9241500</v>
       </c>
       <c r="F10" s="3">
-        <v>11049300</v>
+        <v>10192900</v>
       </c>
       <c r="G10" s="3">
-        <v>12001400</v>
+        <v>11252500</v>
       </c>
       <c r="H10" s="3">
-        <v>12571600</v>
+        <v>12222000</v>
       </c>
       <c r="I10" s="3">
-        <v>12792300</v>
+        <v>12802700</v>
       </c>
       <c r="J10" s="3">
+        <v>13027500</v>
+      </c>
+      <c r="K10" s="3">
         <v>12789600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14589400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7835300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13576200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>467400</v>
+        <v>234500</v>
       </c>
       <c r="E14" s="3">
-        <v>712100</v>
+        <v>476000</v>
       </c>
       <c r="F14" s="3">
-        <v>1040400</v>
+        <v>725200</v>
       </c>
       <c r="G14" s="3">
-        <v>568900</v>
+        <v>1059600</v>
       </c>
       <c r="H14" s="3">
-        <v>374200</v>
+        <v>579300</v>
       </c>
       <c r="I14" s="3">
-        <v>305000</v>
+        <v>381100</v>
       </c>
       <c r="J14" s="3">
+        <v>310600</v>
+      </c>
+      <c r="K14" s="3">
         <v>106200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>217800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>242200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>140100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3184400</v>
+        <v>3041900</v>
       </c>
       <c r="E15" s="3">
-        <v>3658700</v>
+        <v>3242900</v>
       </c>
       <c r="F15" s="3">
-        <v>2934900</v>
+        <v>3725900</v>
       </c>
       <c r="G15" s="3">
-        <v>3063700</v>
+        <v>2988800</v>
       </c>
       <c r="H15" s="3">
-        <v>3043900</v>
+        <v>3120100</v>
       </c>
       <c r="I15" s="3">
-        <v>2847800</v>
+        <v>3099800</v>
       </c>
       <c r="J15" s="3">
+        <v>2900200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2723800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3061300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5517700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3121500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13730600</v>
+        <v>13359700</v>
       </c>
       <c r="E17" s="3">
-        <v>15477000</v>
+        <v>13983000</v>
       </c>
       <c r="F17" s="3">
-        <v>16520900</v>
+        <v>15761500</v>
       </c>
       <c r="G17" s="3">
-        <v>15621000</v>
+        <v>16824600</v>
       </c>
       <c r="H17" s="3">
-        <v>15057600</v>
+        <v>15908100</v>
       </c>
       <c r="I17" s="3">
-        <v>14213100</v>
+        <v>15334400</v>
       </c>
       <c r="J17" s="3">
+        <v>14474400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13403000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14811000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12392900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13920800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1045200</v>
+        <v>1491600</v>
       </c>
       <c r="E18" s="3">
-        <v>773800</v>
+        <v>1064500</v>
       </c>
       <c r="F18" s="3">
-        <v>791600</v>
+        <v>788000</v>
       </c>
       <c r="G18" s="3">
-        <v>2095300</v>
+        <v>806200</v>
       </c>
       <c r="H18" s="3">
-        <v>2771800</v>
+        <v>2133800</v>
       </c>
       <c r="I18" s="3">
-        <v>3546300</v>
+        <v>2822700</v>
       </c>
       <c r="J18" s="3">
+        <v>3611500</v>
+      </c>
+      <c r="K18" s="3">
         <v>4093900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4812000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3845600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4027100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1002100</v>
+        <v>565400</v>
       </c>
       <c r="E20" s="3">
-        <v>1642900</v>
+        <v>1020500</v>
       </c>
       <c r="F20" s="3">
-        <v>1784800</v>
+        <v>1673100</v>
       </c>
       <c r="G20" s="3">
-        <v>1890300</v>
+        <v>1817600</v>
       </c>
       <c r="H20" s="3">
-        <v>1605200</v>
+        <v>1925100</v>
       </c>
       <c r="I20" s="3">
-        <v>847800</v>
+        <v>1634700</v>
       </c>
       <c r="J20" s="3">
+        <v>863400</v>
+      </c>
+      <c r="K20" s="3">
         <v>478400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>714600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>202400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>191700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5270200</v>
+        <v>5066600</v>
       </c>
       <c r="E21" s="3">
-        <v>6119700</v>
+        <v>5293500</v>
       </c>
       <c r="F21" s="3">
-        <v>5546800</v>
+        <v>6147600</v>
       </c>
       <c r="G21" s="3">
-        <v>7086400</v>
+        <v>5580900</v>
       </c>
       <c r="H21" s="3">
-        <v>7457700</v>
+        <v>7145900</v>
       </c>
       <c r="I21" s="3">
-        <v>7283400</v>
+        <v>7524400</v>
       </c>
       <c r="J21" s="3">
+        <v>7351200</v>
+      </c>
+      <c r="K21" s="3">
         <v>7335300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8659900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6853600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7344300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>374200</v>
+        <v>325300</v>
       </c>
       <c r="E22" s="3">
-        <v>500300</v>
+        <v>381100</v>
       </c>
       <c r="F22" s="3">
-        <v>470900</v>
+        <v>509500</v>
       </c>
       <c r="G22" s="3">
-        <v>463300</v>
+        <v>479500</v>
       </c>
       <c r="H22" s="3">
-        <v>506500</v>
+        <v>471800</v>
       </c>
       <c r="I22" s="3">
+        <v>515800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>566100</v>
+      </c>
+      <c r="K22" s="3">
         <v>555900</v>
       </c>
-      <c r="J22" s="3">
-        <v>555900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>699800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>626300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>728000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1673100</v>
+        <v>1731700</v>
       </c>
       <c r="E23" s="3">
-        <v>1916400</v>
+        <v>1703800</v>
       </c>
       <c r="F23" s="3">
-        <v>2105500</v>
+        <v>1951600</v>
       </c>
       <c r="G23" s="3">
-        <v>3522300</v>
+        <v>2144300</v>
       </c>
       <c r="H23" s="3">
-        <v>3870500</v>
+        <v>3587000</v>
       </c>
       <c r="I23" s="3">
-        <v>3838200</v>
+        <v>3941600</v>
       </c>
       <c r="J23" s="3">
+        <v>3908800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4016400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4826700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3421700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3490800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>369400</v>
+        <v>465600</v>
       </c>
       <c r="E24" s="3">
-        <v>655900</v>
+        <v>376200</v>
       </c>
       <c r="F24" s="3">
-        <v>632600</v>
+        <v>668000</v>
       </c>
       <c r="G24" s="3">
-        <v>1084300</v>
+        <v>644300</v>
       </c>
       <c r="H24" s="3">
-        <v>1215200</v>
+        <v>1104200</v>
       </c>
       <c r="I24" s="3">
-        <v>1211800</v>
+        <v>1237600</v>
       </c>
       <c r="J24" s="3">
+        <v>1234100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1196700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1301200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1006500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1068300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1303600</v>
+        <v>1266200</v>
       </c>
       <c r="E26" s="3">
-        <v>1260500</v>
+        <v>1327600</v>
       </c>
       <c r="F26" s="3">
-        <v>1472900</v>
+        <v>1283600</v>
       </c>
       <c r="G26" s="3">
-        <v>2438000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" s="3">
-        <v>2655200</v>
+        <v>2482800</v>
       </c>
       <c r="I26" s="3">
-        <v>2626500</v>
+        <v>2704100</v>
       </c>
       <c r="J26" s="3">
+        <v>2674700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2819700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3525500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2415100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2422500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1272800</v>
+        <v>1178200</v>
       </c>
       <c r="E27" s="3">
-        <v>1246700</v>
+        <v>1296200</v>
       </c>
       <c r="F27" s="3">
-        <v>1476400</v>
+        <v>1269700</v>
       </c>
       <c r="G27" s="3">
-        <v>2461300</v>
+        <v>1503500</v>
       </c>
       <c r="H27" s="3">
-        <v>2666900</v>
+        <v>2506500</v>
       </c>
       <c r="I27" s="3">
-        <v>2579200</v>
+        <v>2715900</v>
       </c>
       <c r="J27" s="3">
+        <v>2626600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2769000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3471200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2380600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2409000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,27 +1484,30 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1382500</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>1407900</v>
+      </c>
+      <c r="K29" s="3">
         <v>130900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-158100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100200</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1002100</v>
+        <v>-565400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1642900</v>
+        <v>-1020500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1784800</v>
+        <v>-1673100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1890300</v>
+        <v>-1817600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1605200</v>
+        <v>-1925100</v>
       </c>
       <c r="I32" s="3">
-        <v>-847800</v>
+        <v>-1634700</v>
       </c>
       <c r="J32" s="3">
+        <v>-863400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-478400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-714600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-202400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-191700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1272800</v>
+        <v>1178200</v>
       </c>
       <c r="E33" s="3">
-        <v>1246700</v>
+        <v>1296200</v>
       </c>
       <c r="F33" s="3">
-        <v>1476400</v>
+        <v>1269700</v>
       </c>
       <c r="G33" s="3">
-        <v>2461300</v>
+        <v>1503500</v>
       </c>
       <c r="H33" s="3">
-        <v>2666900</v>
+        <v>2506500</v>
       </c>
       <c r="I33" s="3">
-        <v>3961600</v>
+        <v>2715900</v>
       </c>
       <c r="J33" s="3">
+        <v>4034400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2899900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3313100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2480800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2409000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1272800</v>
+        <v>1178200</v>
       </c>
       <c r="E35" s="3">
-        <v>1246700</v>
+        <v>1296200</v>
       </c>
       <c r="F35" s="3">
-        <v>1476400</v>
+        <v>1269700</v>
       </c>
       <c r="G35" s="3">
-        <v>2461300</v>
+        <v>1503500</v>
       </c>
       <c r="H35" s="3">
-        <v>2666900</v>
+        <v>2506500</v>
       </c>
       <c r="I35" s="3">
-        <v>3961600</v>
+        <v>2715900</v>
       </c>
       <c r="J35" s="3">
+        <v>4034400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2899900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3313100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2480800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2409000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>771100</v>
+        <v>725900</v>
       </c>
       <c r="E41" s="3">
-        <v>342000</v>
+        <v>785300</v>
       </c>
       <c r="F41" s="3">
-        <v>414000</v>
+        <v>348300</v>
       </c>
       <c r="G41" s="3">
-        <v>431100</v>
+        <v>421600</v>
       </c>
       <c r="H41" s="3">
-        <v>1285800</v>
+        <v>439000</v>
       </c>
       <c r="I41" s="3">
-        <v>2433200</v>
+        <v>1309400</v>
       </c>
       <c r="J41" s="3">
+        <v>2477900</v>
+      </c>
+      <c r="K41" s="3">
         <v>956800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>196600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>256100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1795,269 +1884,293 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4047100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1455900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2535000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3140500</v>
+        <v>2855500</v>
       </c>
       <c r="E43" s="3">
-        <v>3511300</v>
+        <v>3198200</v>
       </c>
       <c r="F43" s="3">
-        <v>3700500</v>
+        <v>3575900</v>
       </c>
       <c r="G43" s="3">
-        <v>5919800</v>
+        <v>3768500</v>
       </c>
       <c r="H43" s="3">
-        <v>7929400</v>
+        <v>6028600</v>
       </c>
       <c r="I43" s="3">
-        <v>3252200</v>
+        <v>8075200</v>
       </c>
       <c r="J43" s="3">
+        <v>3312000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3241900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3234800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3090400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3331600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>263900</v>
+        <v>332200</v>
       </c>
       <c r="E44" s="3">
-        <v>286500</v>
+        <v>268700</v>
       </c>
       <c r="F44" s="3">
-        <v>307100</v>
+        <v>291800</v>
       </c>
       <c r="G44" s="3">
-        <v>337200</v>
+        <v>312700</v>
       </c>
       <c r="H44" s="3">
-        <v>933500</v>
+        <v>343400</v>
       </c>
       <c r="I44" s="3">
-        <v>381800</v>
+        <v>950700</v>
       </c>
       <c r="J44" s="3">
+        <v>388800</v>
+      </c>
+      <c r="K44" s="3">
         <v>336500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>280600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>287300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>184000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700500</v>
+        <v>455800</v>
       </c>
       <c r="E45" s="3">
-        <v>338600</v>
+        <v>713400</v>
       </c>
       <c r="F45" s="3">
-        <v>584000</v>
+        <v>344800</v>
       </c>
       <c r="G45" s="3">
-        <v>394100</v>
+        <v>594700</v>
       </c>
       <c r="H45" s="3">
-        <v>369400</v>
+        <v>401300</v>
       </c>
       <c r="I45" s="3">
-        <v>334500</v>
+        <v>376200</v>
       </c>
       <c r="J45" s="3">
+        <v>340600</v>
+      </c>
+      <c r="K45" s="3">
         <v>241900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>290600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>238000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>733000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4875900</v>
+        <v>4369500</v>
       </c>
       <c r="E46" s="3">
-        <v>4478400</v>
+        <v>4965600</v>
       </c>
       <c r="F46" s="3">
-        <v>5005500</v>
+        <v>4560700</v>
       </c>
       <c r="G46" s="3">
-        <v>4996600</v>
+        <v>5097500</v>
       </c>
       <c r="H46" s="3">
-        <v>5515400</v>
+        <v>5088400</v>
       </c>
       <c r="I46" s="3">
-        <v>6401600</v>
+        <v>5616800</v>
       </c>
       <c r="J46" s="3">
+        <v>6519300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4777200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8089400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5268100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7039600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1508600</v>
+        <v>1179600</v>
       </c>
       <c r="E47" s="3">
-        <v>1607900</v>
+        <v>1536300</v>
       </c>
       <c r="F47" s="3">
-        <v>1441400</v>
+        <v>1637500</v>
       </c>
       <c r="G47" s="3">
-        <v>1372900</v>
+        <v>1467900</v>
       </c>
       <c r="H47" s="3">
-        <v>1710800</v>
+        <v>1398100</v>
       </c>
       <c r="I47" s="3">
-        <v>1273500</v>
+        <v>1742200</v>
       </c>
       <c r="J47" s="3">
+        <v>1296900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1034300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1004400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>665900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>680600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16254300</v>
+        <v>16340900</v>
       </c>
       <c r="E48" s="3">
-        <v>16812200</v>
+        <v>16553100</v>
       </c>
       <c r="F48" s="3">
-        <v>15306400</v>
+        <v>17121200</v>
       </c>
       <c r="G48" s="3">
-        <v>15152800</v>
+        <v>15587700</v>
       </c>
       <c r="H48" s="3">
-        <v>29266600</v>
+        <v>15431400</v>
       </c>
       <c r="I48" s="3">
-        <v>14106200</v>
+        <v>29804600</v>
       </c>
       <c r="J48" s="3">
+        <v>14365500</v>
+      </c>
+      <c r="K48" s="3">
         <v>14016400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15377600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13549300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14695500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4887600</v>
+        <v>5692200</v>
       </c>
       <c r="E49" s="3">
-        <v>5080200</v>
+        <v>4977400</v>
       </c>
       <c r="F49" s="3">
-        <v>4941700</v>
+        <v>5173600</v>
       </c>
       <c r="G49" s="3">
-        <v>6292000</v>
+        <v>5032600</v>
       </c>
       <c r="H49" s="3">
-        <v>12251500</v>
+        <v>6407600</v>
       </c>
       <c r="I49" s="3">
-        <v>6325600</v>
+        <v>12476800</v>
       </c>
       <c r="J49" s="3">
+        <v>6441800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6545600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4946100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4500900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5252500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1620300</v>
+        <v>1474200</v>
       </c>
       <c r="E52" s="3">
-        <v>2455100</v>
+        <v>1650100</v>
       </c>
       <c r="F52" s="3">
-        <v>2495500</v>
+        <v>2500200</v>
       </c>
       <c r="G52" s="3">
-        <v>2330400</v>
+        <v>2541400</v>
       </c>
       <c r="H52" s="3">
-        <v>1943100</v>
+        <v>2373200</v>
       </c>
       <c r="I52" s="3">
-        <v>1561300</v>
+        <v>1978800</v>
       </c>
       <c r="J52" s="3">
+        <v>1590000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1496900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1086500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1697800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1396600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29146600</v>
+        <v>29056300</v>
       </c>
       <c r="E54" s="3">
-        <v>30433800</v>
+        <v>29682400</v>
       </c>
       <c r="F54" s="3">
-        <v>29190500</v>
+        <v>30993300</v>
       </c>
       <c r="G54" s="3">
-        <v>29282300</v>
+        <v>29727100</v>
       </c>
       <c r="H54" s="3">
-        <v>28790900</v>
+        <v>29820700</v>
       </c>
       <c r="I54" s="3">
-        <v>29668200</v>
+        <v>29320200</v>
       </c>
       <c r="J54" s="3">
+        <v>30213600</v>
+      </c>
+      <c r="K54" s="3">
         <v>27721000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30504000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25682100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27963900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>825200</v>
+        <v>905300</v>
       </c>
       <c r="E57" s="3">
-        <v>677200</v>
+        <v>840400</v>
       </c>
       <c r="F57" s="3">
-        <v>581900</v>
+        <v>689600</v>
       </c>
       <c r="G57" s="3">
-        <v>1088400</v>
+        <v>592600</v>
       </c>
       <c r="H57" s="3">
-        <v>3515400</v>
+        <v>1108400</v>
       </c>
       <c r="I57" s="3">
-        <v>1004100</v>
+        <v>3580000</v>
       </c>
       <c r="J57" s="3">
+        <v>1022600</v>
+      </c>
+      <c r="K57" s="3">
         <v>860900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>902100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>864600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>868800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2833400</v>
+        <v>2219600</v>
       </c>
       <c r="E58" s="3">
-        <v>2312500</v>
+        <v>2885500</v>
       </c>
       <c r="F58" s="3">
-        <v>1523000</v>
+        <v>2355100</v>
       </c>
       <c r="G58" s="3">
-        <v>1120600</v>
+        <v>1551000</v>
       </c>
       <c r="H58" s="3">
-        <v>3394100</v>
+        <v>1141200</v>
       </c>
       <c r="I58" s="3">
-        <v>1819700</v>
+        <v>3456500</v>
       </c>
       <c r="J58" s="3">
+        <v>1853200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1025400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1764700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2339000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3485900</v>
+        <v>3757300</v>
       </c>
       <c r="E59" s="3">
-        <v>3928700</v>
+        <v>3550000</v>
       </c>
       <c r="F59" s="3">
-        <v>4442800</v>
+        <v>4000900</v>
       </c>
       <c r="G59" s="3">
-        <v>4653200</v>
+        <v>4524400</v>
       </c>
       <c r="H59" s="3">
-        <v>4729900</v>
+        <v>4738700</v>
       </c>
       <c r="I59" s="3">
-        <v>3473600</v>
+        <v>4816900</v>
       </c>
       <c r="J59" s="3">
+        <v>3537500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3771800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4063300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3649000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5017600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7144600</v>
+        <v>6882300</v>
       </c>
       <c r="E60" s="3">
-        <v>6918400</v>
+        <v>7276000</v>
       </c>
       <c r="F60" s="3">
-        <v>6547600</v>
+        <v>7045600</v>
       </c>
       <c r="G60" s="3">
-        <v>6021200</v>
+        <v>6668000</v>
       </c>
       <c r="H60" s="3">
-        <v>6224100</v>
+        <v>6131900</v>
       </c>
       <c r="I60" s="3">
-        <v>6297500</v>
+        <v>6338500</v>
       </c>
       <c r="J60" s="3">
+        <v>6413200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5571600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6730100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5014200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7558900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9120600</v>
+        <v>7740100</v>
       </c>
       <c r="E61" s="3">
-        <v>10797100</v>
+        <v>9288300</v>
       </c>
       <c r="F61" s="3">
-        <v>10302200</v>
+        <v>10995600</v>
       </c>
       <c r="G61" s="3">
-        <v>10497600</v>
+        <v>10491600</v>
       </c>
       <c r="H61" s="3">
-        <v>10149400</v>
+        <v>10690600</v>
       </c>
       <c r="I61" s="3">
-        <v>10039100</v>
+        <v>10336000</v>
       </c>
       <c r="J61" s="3">
+        <v>10223600</v>
+      </c>
+      <c r="K61" s="3">
         <v>9690200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10498900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9541000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8460300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2411900</v>
+        <v>2681700</v>
       </c>
       <c r="E62" s="3">
-        <v>2336500</v>
+        <v>2456300</v>
       </c>
       <c r="F62" s="3">
-        <v>2381800</v>
+        <v>2379500</v>
       </c>
       <c r="G62" s="3">
-        <v>3642900</v>
+        <v>2425500</v>
       </c>
       <c r="H62" s="3">
-        <v>3514000</v>
+        <v>3709900</v>
       </c>
       <c r="I62" s="3">
-        <v>2429100</v>
+        <v>3578600</v>
       </c>
       <c r="J62" s="3">
+        <v>2473700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2607900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2456000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2544400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3861500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19148000</v>
+        <v>18342700</v>
       </c>
       <c r="E66" s="3">
-        <v>20514000</v>
+        <v>19500000</v>
       </c>
       <c r="F66" s="3">
-        <v>19218600</v>
+        <v>20891100</v>
       </c>
       <c r="G66" s="3">
-        <v>19253600</v>
+        <v>19571900</v>
       </c>
       <c r="H66" s="3">
-        <v>19104800</v>
+        <v>19607500</v>
       </c>
       <c r="I66" s="3">
-        <v>18790200</v>
+        <v>19456100</v>
       </c>
       <c r="J66" s="3">
+        <v>19135700</v>
+      </c>
+      <c r="K66" s="3">
         <v>18054800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17275600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19841800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6858800</v>
+        <v>8372500</v>
       </c>
       <c r="E72" s="3">
-        <v>6860900</v>
+        <v>6984900</v>
       </c>
       <c r="F72" s="3">
-        <v>6958900</v>
+        <v>6987000</v>
       </c>
       <c r="G72" s="3">
-        <v>7078800</v>
+        <v>7086800</v>
       </c>
       <c r="H72" s="3">
-        <v>6653200</v>
+        <v>7208900</v>
       </c>
       <c r="I72" s="3">
-        <v>7292700</v>
+        <v>6775500</v>
       </c>
       <c r="J72" s="3">
+        <v>7426700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6060300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6441000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4993500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4728200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9998600</v>
+        <v>10713600</v>
       </c>
       <c r="E76" s="3">
-        <v>9919800</v>
+        <v>10182400</v>
       </c>
       <c r="F76" s="3">
-        <v>9971900</v>
+        <v>10102200</v>
       </c>
       <c r="G76" s="3">
-        <v>10028800</v>
+        <v>10155200</v>
       </c>
       <c r="H76" s="3">
-        <v>9686100</v>
+        <v>10213100</v>
       </c>
       <c r="I76" s="3">
-        <v>10878000</v>
+        <v>9864100</v>
       </c>
       <c r="J76" s="3">
+        <v>11078000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9666200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10712100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8406500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8122100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1272800</v>
+        <v>1178200</v>
       </c>
       <c r="E81" s="3">
-        <v>1246700</v>
+        <v>1296200</v>
       </c>
       <c r="F81" s="3">
-        <v>1476400</v>
+        <v>1269700</v>
       </c>
       <c r="G81" s="3">
-        <v>2461300</v>
+        <v>1503500</v>
       </c>
       <c r="H81" s="3">
-        <v>2666900</v>
+        <v>2506500</v>
       </c>
       <c r="I81" s="3">
-        <v>3961600</v>
+        <v>2715900</v>
       </c>
       <c r="J81" s="3">
+        <v>4034400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2899900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3313100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2480800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2409000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3184400</v>
+        <v>3041900</v>
       </c>
       <c r="E83" s="3">
-        <v>3658700</v>
+        <v>3242900</v>
       </c>
       <c r="F83" s="3">
-        <v>2934900</v>
+        <v>3725900</v>
       </c>
       <c r="G83" s="3">
-        <v>3063700</v>
+        <v>2988800</v>
       </c>
       <c r="H83" s="3">
-        <v>3043900</v>
+        <v>3120100</v>
       </c>
       <c r="I83" s="3">
-        <v>2854700</v>
+        <v>3099800</v>
       </c>
       <c r="J83" s="3">
+        <v>2907200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2729900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3132600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2811900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3121500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4956100</v>
+        <v>5059800</v>
       </c>
       <c r="E89" s="3">
-        <v>4804700</v>
+        <v>5047200</v>
       </c>
       <c r="F89" s="3">
-        <v>4580500</v>
+        <v>4893000</v>
       </c>
       <c r="G89" s="3">
-        <v>5898600</v>
+        <v>4664700</v>
       </c>
       <c r="H89" s="3">
-        <v>5329000</v>
+        <v>6007000</v>
       </c>
       <c r="I89" s="3">
-        <v>5574400</v>
+        <v>5427000</v>
       </c>
       <c r="J89" s="3">
+        <v>5676800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5696400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6675100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5546200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6562800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1424900</v>
+        <v>-1518800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1604500</v>
+        <v>-1451100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2217300</v>
+        <v>-1634000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2447600</v>
+        <v>-2258000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2553100</v>
+        <v>-2492600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2091200</v>
+        <v>-2600100</v>
       </c>
       <c r="J91" s="3">
+        <v>-2129600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1950000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2222700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1869700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2126700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1606600</v>
+        <v>-2369700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2039800</v>
+        <v>-1636100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2477700</v>
+        <v>-2077200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2680600</v>
+        <v>-2523300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2932800</v>
+        <v>-2729900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1512700</v>
+        <v>-2986700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1540500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3901300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-875800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2212800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2885900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1303600</v>
+        <v>-1317800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1304300</v>
+        <v>-1327600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1548300</v>
+        <v>-1328300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2159000</v>
+        <v>-1576800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2560700</v>
+        <v>-2198700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2595600</v>
+        <v>-2607700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2643300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2535300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2747400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2309000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2458600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2903400</v>
+        <v>-2771800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2836200</v>
+        <v>-2956700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2116500</v>
+        <v>-2888300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3437300</v>
+        <v>-2155400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4183700</v>
+        <v>-3500500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2588800</v>
+        <v>-4260600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2636300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4716900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3433300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4330000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2763500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17100</v>
+        <v>22300</v>
       </c>
       <c r="E101" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
-        <v>2700</v>
-      </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>3400</v>
+        <v>-4200</v>
       </c>
       <c r="J101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K101" s="3">
         <v>90500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>429100</v>
+        <v>-59300</v>
       </c>
       <c r="E102" s="3">
-        <v>-72000</v>
+        <v>436900</v>
       </c>
       <c r="F102" s="3">
-        <v>-11000</v>
+        <v>-73300</v>
       </c>
       <c r="G102" s="3">
-        <v>-216600</v>
+        <v>-11200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1791600</v>
+        <v>-220600</v>
       </c>
       <c r="I102" s="3">
-        <v>1476400</v>
+        <v>-1824600</v>
       </c>
       <c r="J102" s="3">
+        <v>1503500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2831400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2362200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-972700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>925400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
